--- a/restaurant_analytics/mornings.xlsx
+++ b/restaurant_analytics/mornings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC6A0C7-A444-4D60-AF08-BD1D79BF9A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A86CCD-3195-4639-BAA0-B01A6C37570C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34650" yWindow="810" windowWidth="18750" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -607,8 +607,8 @@
   <dimension ref="A1:K467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H463" sqref="H463"/>
+      <pane ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J442" sqref="J438:J442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11942,10 +11942,10 @@
         <v>48</v>
       </c>
       <c r="E431" s="9">
-        <v>57.4</v>
+        <v>57</v>
       </c>
       <c r="F431" s="9">
-        <v>2.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G431" s="9">
         <v>0</v>
@@ -11968,7 +11968,7 @@
         <v>0</v>
       </c>
       <c r="E432" s="9">
-        <v>57</v>
+        <v>56.5</v>
       </c>
       <c r="F432" s="9">
         <v>0</v>
@@ -11977,7 +11977,7 @@
         <v>0</v>
       </c>
       <c r="H432" s="9">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="I432" s="10" t="s">
         <v>15</v>
@@ -11997,16 +11997,16 @@
         <v>3</v>
       </c>
       <c r="E433" s="9">
-        <v>57.2</v>
+        <v>59.2</v>
       </c>
       <c r="F433" s="9">
-        <v>0.35799999999999998</v>
+        <v>0</v>
       </c>
       <c r="G433" s="9">
         <v>0</v>
       </c>
       <c r="H433" s="9">
-        <v>12.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="K433" s="13"/>
     </row>
@@ -12024,16 +12024,16 @@
         <v>31</v>
       </c>
       <c r="E434" s="9">
-        <v>56.7</v>
+        <v>57.9</v>
       </c>
       <c r="F434" s="9">
-        <v>0</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="G434" s="9">
         <v>0</v>
       </c>
       <c r="H434" s="9">
-        <v>10.4</v>
+        <v>7</v>
       </c>
       <c r="K434" s="13"/>
     </row>
@@ -12060,7 +12060,7 @@
         <v>0</v>
       </c>
       <c r="H435" s="9">
-        <v>10.1</v>
+        <v>5.8</v>
       </c>
       <c r="J435" s="9"/>
       <c r="K435" s="13"/>
@@ -12079,7 +12079,7 @@
         <v>24</v>
       </c>
       <c r="E436" s="9">
-        <v>64.400000000000006</v>
+        <v>63.7</v>
       </c>
       <c r="F436" s="9">
         <v>0</v>
@@ -12088,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="H436" s="9">
-        <v>9.8000000000000007</v>
+        <v>7.1</v>
       </c>
       <c r="J436" s="9"/>
       <c r="K436" s="13"/>
@@ -12107,7 +12107,7 @@
         <v>17</v>
       </c>
       <c r="E437" s="9">
-        <v>65.5</v>
+        <v>63.9</v>
       </c>
       <c r="F437" s="9">
         <v>0</v>
@@ -12116,7 +12116,7 @@
         <v>0</v>
       </c>
       <c r="H437" s="9">
-        <v>9.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J437" s="15"/>
       <c r="K437" s="13"/>
@@ -12132,10 +12132,10 @@
         <v>45809</v>
       </c>
       <c r="D438" s="7">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E438" s="9">
-        <v>67.099999999999994</v>
+        <v>58.3</v>
       </c>
       <c r="F438" s="9">
         <v>0</v>
@@ -12144,11 +12144,9 @@
         <v>0</v>
       </c>
       <c r="H438" s="9">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="J438" s="15">
-        <v>7.98</v>
-      </c>
+        <v>4.7</v>
+      </c>
+      <c r="J438" s="15"/>
       <c r="K438" s="13"/>
     </row>
     <row r="439" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12162,23 +12160,21 @@
         <v>45810</v>
       </c>
       <c r="D439" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E439" s="9">
-        <v>69.3</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="F439" s="9">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="G439" s="9">
         <v>0</v>
       </c>
       <c r="H439" s="9">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J439" s="15">
-        <v>1.34</v>
-      </c>
+        <v>7.5</v>
+      </c>
+      <c r="J439" s="15"/>
       <c r="K439" s="13"/>
     </row>
     <row r="440" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12192,23 +12188,21 @@
         <v>45811</v>
       </c>
       <c r="D440" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E440" s="9">
-        <v>70.5</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="F440" s="9">
-        <v>0.05</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G440" s="9">
         <v>0</v>
       </c>
       <c r="H440" s="9">
-        <v>9.6</v>
-      </c>
-      <c r="J440" s="15">
-        <v>3.15</v>
-      </c>
+        <v>14.1</v>
+      </c>
+      <c r="J440" s="15"/>
       <c r="K440" s="13"/>
     </row>
     <row r="441" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12222,23 +12216,21 @@
         <v>45812</v>
       </c>
       <c r="D441" s="7">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E441" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F441" s="9">
-        <v>0.14000000000000001</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="G441" s="9">
         <v>0</v>
       </c>
       <c r="H441" s="9">
-        <v>7</v>
-      </c>
-      <c r="J441" s="15">
-        <v>3.82</v>
-      </c>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J441" s="15"/>
       <c r="K441" s="13"/>
     </row>
     <row r="442" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12252,23 +12244,21 @@
         <v>45813</v>
       </c>
       <c r="D442" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E442" s="9">
-        <v>63</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="F442" s="9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G442" s="9">
         <v>0</v>
       </c>
       <c r="H442" s="9">
-        <v>9</v>
-      </c>
-      <c r="J442" s="15">
-        <v>5.69</v>
-      </c>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J442" s="15"/>
       <c r="K442" s="13"/>
     </row>
     <row r="443" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12282,22 +12272,22 @@
         <v>45814</v>
       </c>
       <c r="D443" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E443" s="9">
-        <v>61</v>
+        <v>65.8</v>
       </c>
       <c r="F443" s="9">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="G443" s="9">
         <v>0</v>
       </c>
       <c r="H443" s="9">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="J443" s="9">
-        <v>4.13</v>
+        <v>5.12</v>
       </c>
       <c r="K443" s="13"/>
     </row>
@@ -12312,10 +12302,10 @@
         <v>45815</v>
       </c>
       <c r="D444" s="7">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E444" s="9">
-        <v>60</v>
+        <v>65.5</v>
       </c>
       <c r="F444" s="9">
         <v>0</v>
@@ -12324,10 +12314,10 @@
         <v>0</v>
       </c>
       <c r="H444" s="9">
-        <v>5</v>
+        <v>7.4</v>
       </c>
       <c r="J444" s="9">
-        <v>4.6900000000000004</v>
+        <v>3.14</v>
       </c>
       <c r="K444" s="13"/>
     </row>
@@ -12342,10 +12332,10 @@
         <v>45816</v>
       </c>
       <c r="D445" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E445" s="9">
-        <v>61</v>
+        <v>66.7</v>
       </c>
       <c r="F445" s="9">
         <v>0</v>
@@ -12354,10 +12344,10 @@
         <v>0</v>
       </c>
       <c r="H445" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J445" s="15">
-        <v>4.5999999999999996</v>
+        <v>7.13</v>
       </c>
       <c r="K445" s="13"/>
     </row>
@@ -12372,10 +12362,10 @@
         <v>45817</v>
       </c>
       <c r="D446" s="7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E446" s="9">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F446" s="9">
         <v>0</v>
@@ -12384,10 +12374,10 @@
         <v>0</v>
       </c>
       <c r="H446" s="9">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="J446" s="15">
-        <v>4.51</v>
+        <v>2.71</v>
       </c>
       <c r="K446" s="13"/>
     </row>
@@ -12402,10 +12392,10 @@
         <v>45818</v>
       </c>
       <c r="D447" s="7">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E447" s="9">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F447" s="9">
         <v>0</v>
@@ -12414,10 +12404,10 @@
         <v>0</v>
       </c>
       <c r="H447" s="9">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J447" s="15">
-        <v>12.49</v>
+        <v>3.44</v>
       </c>
       <c r="K447" s="13"/>
     </row>
@@ -12432,10 +12422,10 @@
         <v>45819</v>
       </c>
       <c r="D448" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E448" s="9">
-        <v>63</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="F448" s="9">
         <v>0.35</v>
@@ -12444,10 +12434,10 @@
         <v>0</v>
       </c>
       <c r="H448" s="9">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="J448" s="15">
-        <v>5.65</v>
+        <v>3.46</v>
       </c>
       <c r="K448" s="13"/>
     </row>
@@ -12462,10 +12452,10 @@
         <v>45820</v>
       </c>
       <c r="D449" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E449" s="9">
-        <v>69</v>
+        <v>71.2</v>
       </c>
       <c r="F449" s="9">
         <v>0.49</v>
@@ -12474,10 +12464,10 @@
         <v>0</v>
       </c>
       <c r="H449" s="9">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="J449" s="15">
-        <v>3.66</v>
+        <v>3.16</v>
       </c>
       <c r="K449" s="13"/>
     </row>
@@ -12492,10 +12482,10 @@
         <v>45821</v>
       </c>
       <c r="D450" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E450" s="9">
-        <v>66</v>
+        <v>72.3</v>
       </c>
       <c r="F450" s="9">
         <v>0.4</v>
@@ -12504,10 +12494,10 @@
         <v>0</v>
       </c>
       <c r="H450" s="9">
-        <v>6</v>
+        <v>8.9</v>
       </c>
       <c r="J450" s="9">
-        <v>4.6500000000000004</v>
+        <v>5.64</v>
       </c>
       <c r="K450" s="13"/>
     </row>
@@ -12522,7 +12512,7 @@
         <v>45822</v>
       </c>
       <c r="D451" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E451" s="9">
         <v>69</v>
@@ -12537,7 +12527,7 @@
         <v>4</v>
       </c>
       <c r="J451" s="9">
-        <v>3.4</v>
+        <v>5.81</v>
       </c>
       <c r="K451" s="13"/>
     </row>
@@ -12552,7 +12542,7 @@
         <v>45823</v>
       </c>
       <c r="D452" s="7">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E452" s="9">
         <v>67</v>
@@ -12570,7 +12560,7 @@
         <v>16</v>
       </c>
       <c r="J452" s="15">
-        <v>20.13</v>
+        <v>26.04</v>
       </c>
       <c r="K452" s="13"/>
     </row>
@@ -12600,7 +12590,7 @@
         <v>6</v>
       </c>
       <c r="J453" s="15">
-        <v>3.86</v>
+        <v>7.56</v>
       </c>
       <c r="K453" s="13"/>
     </row>
@@ -12615,7 +12605,7 @@
         <v>45825</v>
       </c>
       <c r="D454" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E454" s="9">
         <v>70</v>
@@ -12630,7 +12620,7 @@
         <v>8</v>
       </c>
       <c r="J454" s="15">
-        <v>6.14</v>
+        <v>4.45</v>
       </c>
       <c r="K454" s="13"/>
     </row>
@@ -12660,7 +12650,7 @@
         <v>14</v>
       </c>
       <c r="J455" s="15">
-        <v>4.42</v>
+        <v>5.08</v>
       </c>
       <c r="K455" s="13"/>
     </row>
@@ -12675,7 +12665,7 @@
         <v>45827</v>
       </c>
       <c r="D456" s="7">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E456" s="9">
         <v>70</v>
@@ -12690,7 +12680,7 @@
         <v>9</v>
       </c>
       <c r="J456" s="15">
-        <v>5</v>
+        <v>5.76</v>
       </c>
       <c r="K456" s="13"/>
     </row>
@@ -12705,7 +12695,7 @@
         <v>45828</v>
       </c>
       <c r="D457" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E457" s="9">
         <v>69</v>
@@ -12720,7 +12710,7 @@
         <v>8</v>
       </c>
       <c r="J457" s="9">
-        <v>7.32</v>
+        <v>7.01</v>
       </c>
       <c r="K457" s="13"/>
     </row>
@@ -12750,7 +12740,7 @@
         <v>5</v>
       </c>
       <c r="J458" s="9">
-        <v>1.85</v>
+        <v>4.03</v>
       </c>
       <c r="K458" s="13"/>
     </row>
@@ -12765,7 +12755,7 @@
         <v>45830</v>
       </c>
       <c r="D459" s="7">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E459" s="9">
         <v>74</v>
@@ -12780,7 +12770,7 @@
         <v>3</v>
       </c>
       <c r="J459" s="15">
-        <v>22.84</v>
+        <v>16.61</v>
       </c>
       <c r="K459" s="13"/>
     </row>
@@ -12795,7 +12785,7 @@
         <v>45831</v>
       </c>
       <c r="D460" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E460" s="9">
         <v>75</v>
@@ -12810,7 +12800,7 @@
         <v>2</v>
       </c>
       <c r="J460" s="15">
-        <v>18.18</v>
+        <v>13.49</v>
       </c>
       <c r="K460" s="13"/>
     </row>
@@ -12825,7 +12815,7 @@
         <v>45832</v>
       </c>
       <c r="D461" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E461" s="9">
         <v>75</v>
@@ -12840,7 +12830,7 @@
         <v>8</v>
       </c>
       <c r="J461" s="15">
-        <v>4.2699999999999996</v>
+        <v>5.26</v>
       </c>
       <c r="K461" s="13"/>
     </row>
@@ -12855,7 +12845,7 @@
         <v>45833</v>
       </c>
       <c r="D462" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E462" s="9">
         <v>76</v>
@@ -12870,7 +12860,7 @@
         <v>8</v>
       </c>
       <c r="J462" s="15">
-        <v>8.59</v>
+        <v>8.58</v>
       </c>
       <c r="K462" s="13"/>
     </row>
@@ -12885,7 +12875,7 @@
         <v>45834</v>
       </c>
       <c r="D463" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E463" s="9">
         <v>76</v>
@@ -12900,7 +12890,7 @@
         <v>4</v>
       </c>
       <c r="J463" s="15">
-        <v>5.55</v>
+        <v>5.71</v>
       </c>
       <c r="K463" s="13"/>
     </row>
@@ -12915,7 +12905,7 @@
         <v>45835</v>
       </c>
       <c r="D464" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E464" s="9">
         <v>75</v>
@@ -12930,7 +12920,7 @@
         <v>6</v>
       </c>
       <c r="J464" s="9">
-        <v>6.25</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="K464" s="13"/>
     </row>
@@ -12945,7 +12935,7 @@
         <v>45836</v>
       </c>
       <c r="D465" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E465" s="9">
         <v>71</v>
@@ -12960,7 +12950,7 @@
         <v>8</v>
       </c>
       <c r="J465" s="9">
-        <v>6.41</v>
+        <v>7.58</v>
       </c>
       <c r="K465" s="13"/>
     </row>
@@ -12975,7 +12965,7 @@
         <v>45837</v>
       </c>
       <c r="D466" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E466" s="9">
         <v>71</v>
@@ -12990,7 +12980,7 @@
         <v>6</v>
       </c>
       <c r="J466" s="15">
-        <v>9.74</v>
+        <v>10.44</v>
       </c>
       <c r="K466" s="13"/>
     </row>
@@ -13020,7 +13010,7 @@
         <v>5</v>
       </c>
       <c r="J467" s="15">
-        <v>5.85</v>
+        <v>4.5</v>
       </c>
       <c r="K467" s="13"/>
     </row>

--- a/restaurant_analytics/mornings.xlsx
+++ b/restaurant_analytics/mornings.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A86CCD-3195-4639-BAA0-B01A6C37570C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67726B49-B4B8-4ED3-91C1-0010FDBD391F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="day">Sheet1!$A$1</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>day</t>
   </si>
@@ -154,6 +155,12 @@
   <si>
     <t>st patricks day</t>
   </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
 </sst>
 </file>
 
@@ -194,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -242,11 +249,169 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -299,6 +464,37 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,8 +803,8 @@
   <dimension ref="A1:K467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J442" sqref="J438:J442"/>
+      <pane ySplit="1" topLeftCell="A451" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J474" sqref="J474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12272,7 +12468,7 @@
         <v>45814</v>
       </c>
       <c r="D443" s="7">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E443" s="9">
         <v>65.8</v>
@@ -12286,9 +12482,7 @@
       <c r="H443" s="9">
         <v>7.5</v>
       </c>
-      <c r="J443" s="9">
-        <v>5.12</v>
-      </c>
+      <c r="J443" s="9"/>
       <c r="K443" s="13"/>
     </row>
     <row r="444" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12302,7 +12496,7 @@
         <v>45815</v>
       </c>
       <c r="D444" s="7">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E444" s="9">
         <v>65.5</v>
@@ -12316,9 +12510,7 @@
       <c r="H444" s="9">
         <v>7.4</v>
       </c>
-      <c r="J444" s="9">
-        <v>3.14</v>
-      </c>
+      <c r="J444" s="9"/>
       <c r="K444" s="13"/>
     </row>
     <row r="445" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12332,7 +12524,7 @@
         <v>45816</v>
       </c>
       <c r="D445" s="7">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E445" s="9">
         <v>66.7</v>
@@ -12346,9 +12538,7 @@
       <c r="H445" s="9">
         <v>9</v>
       </c>
-      <c r="J445" s="15">
-        <v>7.13</v>
-      </c>
+      <c r="J445" s="15"/>
       <c r="K445" s="13"/>
     </row>
     <row r="446" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12362,7 +12552,7 @@
         <v>45817</v>
       </c>
       <c r="D446" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E446" s="9">
         <v>64</v>
@@ -12376,9 +12566,7 @@
       <c r="H446" s="9">
         <v>10.5</v>
       </c>
-      <c r="J446" s="15">
-        <v>2.71</v>
-      </c>
+      <c r="J446" s="15"/>
       <c r="K446" s="13"/>
     </row>
     <row r="447" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12392,7 +12580,7 @@
         <v>45818</v>
       </c>
       <c r="D447" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E447" s="9">
         <v>66</v>
@@ -12406,9 +12594,7 @@
       <c r="H447" s="9">
         <v>9</v>
       </c>
-      <c r="J447" s="15">
-        <v>3.44</v>
-      </c>
+      <c r="J447" s="15"/>
       <c r="K447" s="13"/>
     </row>
     <row r="448" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12422,7 +12608,7 @@
         <v>45819</v>
       </c>
       <c r="D448" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E448" s="9">
         <v>69.400000000000006</v>
@@ -12437,7 +12623,7 @@
         <v>7.6</v>
       </c>
       <c r="J448" s="15">
-        <v>3.46</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="K448" s="13"/>
     </row>
@@ -12467,7 +12653,7 @@
         <v>8.6</v>
       </c>
       <c r="J449" s="15">
-        <v>3.16</v>
+        <v>2.62</v>
       </c>
       <c r="K449" s="13"/>
     </row>
@@ -12482,7 +12668,7 @@
         <v>45821</v>
       </c>
       <c r="D450" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E450" s="9">
         <v>72.3</v>
@@ -12497,7 +12683,7 @@
         <v>8.9</v>
       </c>
       <c r="J450" s="9">
-        <v>5.64</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="K450" s="13"/>
     </row>
@@ -12512,7 +12698,7 @@
         <v>45822</v>
       </c>
       <c r="D451" s="7">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E451" s="9">
         <v>69</v>
@@ -12527,7 +12713,7 @@
         <v>4</v>
       </c>
       <c r="J451" s="9">
-        <v>5.81</v>
+        <v>3.09</v>
       </c>
       <c r="K451" s="13"/>
     </row>
@@ -12542,7 +12728,7 @@
         <v>45823</v>
       </c>
       <c r="D452" s="7">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E452" s="9">
         <v>67</v>
@@ -12560,7 +12746,7 @@
         <v>16</v>
       </c>
       <c r="J452" s="15">
-        <v>26.04</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="K452" s="13"/>
     </row>
@@ -12575,7 +12761,7 @@
         <v>45824</v>
       </c>
       <c r="D453" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E453" s="9">
         <v>63</v>
@@ -12590,7 +12776,7 @@
         <v>6</v>
       </c>
       <c r="J453" s="15">
-        <v>7.56</v>
+        <v>8.33</v>
       </c>
       <c r="K453" s="13"/>
     </row>
@@ -12605,7 +12791,7 @@
         <v>45825</v>
       </c>
       <c r="D454" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E454" s="9">
         <v>70</v>
@@ -12620,7 +12806,7 @@
         <v>8</v>
       </c>
       <c r="J454" s="15">
-        <v>4.45</v>
+        <v>6.02</v>
       </c>
       <c r="K454" s="13"/>
     </row>
@@ -12635,7 +12821,7 @@
         <v>45826</v>
       </c>
       <c r="D455" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E455" s="9">
         <v>70</v>
@@ -12650,7 +12836,7 @@
         <v>14</v>
       </c>
       <c r="J455" s="15">
-        <v>5.08</v>
+        <v>3.3</v>
       </c>
       <c r="K455" s="13"/>
     </row>
@@ -12665,7 +12851,7 @@
         <v>45827</v>
       </c>
       <c r="D456" s="7">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E456" s="9">
         <v>70</v>
@@ -12680,7 +12866,7 @@
         <v>9</v>
       </c>
       <c r="J456" s="15">
-        <v>5.76</v>
+        <v>4.71</v>
       </c>
       <c r="K456" s="13"/>
     </row>
@@ -12695,7 +12881,7 @@
         <v>45828</v>
       </c>
       <c r="D457" s="7">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E457" s="9">
         <v>69</v>
@@ -12710,7 +12896,7 @@
         <v>8</v>
       </c>
       <c r="J457" s="9">
-        <v>7.01</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="K457" s="13"/>
     </row>
@@ -12725,7 +12911,7 @@
         <v>45829</v>
       </c>
       <c r="D458" s="7">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E458" s="9">
         <v>71</v>
@@ -12740,7 +12926,7 @@
         <v>5</v>
       </c>
       <c r="J458" s="9">
-        <v>4.03</v>
+        <v>1.7</v>
       </c>
       <c r="K458" s="13"/>
     </row>
@@ -12755,7 +12941,7 @@
         <v>45830</v>
       </c>
       <c r="D459" s="7">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E459" s="9">
         <v>74</v>
@@ -12770,7 +12956,7 @@
         <v>3</v>
       </c>
       <c r="J459" s="15">
-        <v>16.61</v>
+        <v>18.5</v>
       </c>
       <c r="K459" s="13"/>
     </row>
@@ -12785,7 +12971,7 @@
         <v>45831</v>
       </c>
       <c r="D460" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E460" s="9">
         <v>75</v>
@@ -12800,7 +12986,7 @@
         <v>2</v>
       </c>
       <c r="J460" s="15">
-        <v>13.49</v>
+        <v>6.56</v>
       </c>
       <c r="K460" s="13"/>
     </row>
@@ -12815,7 +13001,7 @@
         <v>45832</v>
       </c>
       <c r="D461" s="7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E461" s="9">
         <v>75</v>
@@ -12830,7 +13016,7 @@
         <v>8</v>
       </c>
       <c r="J461" s="15">
-        <v>5.26</v>
+        <v>5.6</v>
       </c>
       <c r="K461" s="13"/>
     </row>
@@ -12845,7 +13031,7 @@
         <v>45833</v>
       </c>
       <c r="D462" s="7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E462" s="9">
         <v>76</v>
@@ -12860,7 +13046,7 @@
         <v>8</v>
       </c>
       <c r="J462" s="15">
-        <v>8.58</v>
+        <v>5.7</v>
       </c>
       <c r="K462" s="13"/>
     </row>
@@ -12875,7 +13061,7 @@
         <v>45834</v>
       </c>
       <c r="D463" s="7">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E463" s="9">
         <v>76</v>
@@ -12890,7 +13076,7 @@
         <v>4</v>
       </c>
       <c r="J463" s="15">
-        <v>5.71</v>
+        <v>3.28</v>
       </c>
       <c r="K463" s="13"/>
     </row>
@@ -12905,7 +13091,7 @@
         <v>45835</v>
       </c>
       <c r="D464" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E464" s="9">
         <v>75</v>
@@ -12920,7 +13106,7 @@
         <v>6</v>
       </c>
       <c r="J464" s="9">
-        <v>4.0199999999999996</v>
+        <v>4.17</v>
       </c>
       <c r="K464" s="13"/>
     </row>
@@ -12935,7 +13121,7 @@
         <v>45836</v>
       </c>
       <c r="D465" s="7">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E465" s="9">
         <v>71</v>
@@ -12950,7 +13136,7 @@
         <v>8</v>
       </c>
       <c r="J465" s="9">
-        <v>7.58</v>
+        <v>5.82</v>
       </c>
       <c r="K465" s="13"/>
     </row>
@@ -12965,7 +13151,7 @@
         <v>45837</v>
       </c>
       <c r="D466" s="7">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E466" s="9">
         <v>71</v>
@@ -12980,7 +13166,7 @@
         <v>6</v>
       </c>
       <c r="J466" s="15">
-        <v>10.44</v>
+        <v>7.2</v>
       </c>
       <c r="K466" s="13"/>
     </row>
@@ -12995,7 +13181,7 @@
         <v>45838</v>
       </c>
       <c r="D467" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E467" s="9">
         <v>73</v>
@@ -13010,11 +13196,1059 @@
         <v>5</v>
       </c>
       <c r="J467" s="15">
-        <v>4.5</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="K467" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6638D5E3-C858-457D-8856-EE1DEA6B94D7}">
+  <dimension ref="B4:P28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P6" sqref="P6:P25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="26">
+        <v>0.85</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
+        <v>45819</v>
+      </c>
+      <c r="C6" s="18">
+        <v>2</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1</v>
+      </c>
+      <c r="E6" s="19">
+        <v>7</v>
+      </c>
+      <c r="F6" s="19">
+        <v>5</v>
+      </c>
+      <c r="G6" s="19">
+        <v>2</v>
+      </c>
+      <c r="H6" s="24">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
+        <v>5</v>
+      </c>
+      <c r="J6" s="19">
+        <v>2</v>
+      </c>
+      <c r="K6" s="19">
+        <v>9</v>
+      </c>
+      <c r="L6" s="19">
+        <v>3</v>
+      </c>
+      <c r="M6" s="19">
+        <v>3</v>
+      </c>
+      <c r="N6" s="20">
+        <v>3</v>
+      </c>
+      <c r="O6" s="32">
+        <f>ROUND(AVERAGE(C6:N6),0)</f>
+        <v>4</v>
+      </c>
+      <c r="P6" s="32">
+        <f>ROUND(_xlfn.STDEV.P(D6:O6),2)</f>
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="18">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19">
+        <v>9</v>
+      </c>
+      <c r="E7" s="19">
+        <v>6</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0</v>
+      </c>
+      <c r="G7" s="19">
+        <v>3</v>
+      </c>
+      <c r="H7" s="24">
+        <v>5</v>
+      </c>
+      <c r="I7" s="19">
+        <v>2</v>
+      </c>
+      <c r="J7" s="19">
+        <v>9</v>
+      </c>
+      <c r="K7" s="19">
+        <v>6</v>
+      </c>
+      <c r="L7" s="19">
+        <v>4</v>
+      </c>
+      <c r="M7" s="19">
+        <v>6</v>
+      </c>
+      <c r="N7" s="20">
+        <v>2</v>
+      </c>
+      <c r="O7" s="32">
+        <f t="shared" ref="O7:O24" si="0">ROUND(AVERAGE(C7:N7),0)</f>
+        <v>4</v>
+      </c>
+      <c r="P7" s="32">
+        <f t="shared" ref="P7:P26" si="1">ROUND(_xlfn.STDEV.P(D7:O7),2)</f>
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C8" s="18">
+        <v>16</v>
+      </c>
+      <c r="D8" s="19">
+        <v>21</v>
+      </c>
+      <c r="E8" s="19">
+        <v>7</v>
+      </c>
+      <c r="F8" s="19">
+        <v>11</v>
+      </c>
+      <c r="G8" s="19">
+        <v>10</v>
+      </c>
+      <c r="H8" s="24">
+        <v>2</v>
+      </c>
+      <c r="I8" s="19">
+        <v>7</v>
+      </c>
+      <c r="J8" s="19">
+        <v>14</v>
+      </c>
+      <c r="K8" s="19">
+        <v>7</v>
+      </c>
+      <c r="L8" s="19">
+        <v>7</v>
+      </c>
+      <c r="M8" s="19">
+        <v>8</v>
+      </c>
+      <c r="N8" s="20">
+        <v>1</v>
+      </c>
+      <c r="O8" s="32">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="P8" s="32">
+        <f t="shared" si="1"/>
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C9" s="18">
+        <v>15</v>
+      </c>
+      <c r="D9" s="19">
+        <v>16</v>
+      </c>
+      <c r="E9" s="19">
+        <v>14</v>
+      </c>
+      <c r="F9" s="19">
+        <v>16</v>
+      </c>
+      <c r="G9" s="19">
+        <v>17</v>
+      </c>
+      <c r="H9" s="24">
+        <v>23</v>
+      </c>
+      <c r="I9" s="19">
+        <v>21</v>
+      </c>
+      <c r="J9" s="19">
+        <v>16</v>
+      </c>
+      <c r="K9" s="19">
+        <v>16</v>
+      </c>
+      <c r="L9" s="19">
+        <v>13</v>
+      </c>
+      <c r="M9" s="19">
+        <v>23</v>
+      </c>
+      <c r="N9" s="20">
+        <v>17</v>
+      </c>
+      <c r="O9" s="32">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="P9" s="32">
+        <f t="shared" si="1"/>
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C10" s="18">
+        <v>44</v>
+      </c>
+      <c r="D10" s="19">
+        <v>96</v>
+      </c>
+      <c r="E10" s="19">
+        <v>33</v>
+      </c>
+      <c r="F10" s="19">
+        <v>55</v>
+      </c>
+      <c r="G10" s="19">
+        <v>87</v>
+      </c>
+      <c r="H10" s="24">
+        <v>68</v>
+      </c>
+      <c r="I10" s="19">
+        <v>49</v>
+      </c>
+      <c r="J10" s="19">
+        <v>93</v>
+      </c>
+      <c r="K10" s="19">
+        <v>85</v>
+      </c>
+      <c r="L10" s="19">
+        <v>69</v>
+      </c>
+      <c r="M10" s="19">
+        <v>82</v>
+      </c>
+      <c r="N10" s="20">
+        <v>39</v>
+      </c>
+      <c r="O10" s="32">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="P10" s="32">
+        <f t="shared" si="1"/>
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C11" s="18">
+        <v>17</v>
+      </c>
+      <c r="D11" s="19">
+        <v>11</v>
+      </c>
+      <c r="E11" s="19">
+        <v>15</v>
+      </c>
+      <c r="F11" s="19">
+        <v>13</v>
+      </c>
+      <c r="G11" s="19">
+        <v>18</v>
+      </c>
+      <c r="H11" s="24">
+        <v>15</v>
+      </c>
+      <c r="I11" s="19">
+        <v>16</v>
+      </c>
+      <c r="J11" s="19">
+        <v>44</v>
+      </c>
+      <c r="K11" s="19">
+        <v>19</v>
+      </c>
+      <c r="L11" s="19">
+        <v>13</v>
+      </c>
+      <c r="M11" s="19">
+        <v>24</v>
+      </c>
+      <c r="N11" s="20">
+        <v>21</v>
+      </c>
+      <c r="O11" s="32">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="P11" s="32">
+        <f t="shared" si="1"/>
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="18">
+        <v>15</v>
+      </c>
+      <c r="D12" s="19">
+        <v>12</v>
+      </c>
+      <c r="E12" s="19">
+        <v>22</v>
+      </c>
+      <c r="F12" s="19">
+        <v>28</v>
+      </c>
+      <c r="G12" s="19">
+        <v>13</v>
+      </c>
+      <c r="H12" s="24">
+        <v>12</v>
+      </c>
+      <c r="I12" s="19">
+        <v>16</v>
+      </c>
+      <c r="J12" s="19">
+        <v>26</v>
+      </c>
+      <c r="K12" s="19">
+        <v>14</v>
+      </c>
+      <c r="L12" s="19">
+        <v>11</v>
+      </c>
+      <c r="M12" s="19">
+        <v>21</v>
+      </c>
+      <c r="N12" s="20">
+        <v>27</v>
+      </c>
+      <c r="O12" s="32">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="P12" s="32">
+        <f t="shared" si="1"/>
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C13" s="18">
+        <v>12</v>
+      </c>
+      <c r="D13" s="19">
+        <v>8</v>
+      </c>
+      <c r="E13" s="19">
+        <v>11</v>
+      </c>
+      <c r="F13" s="19">
+        <v>2</v>
+      </c>
+      <c r="G13" s="19">
+        <v>4</v>
+      </c>
+      <c r="H13" s="24">
+        <v>7</v>
+      </c>
+      <c r="I13" s="19">
+        <v>6</v>
+      </c>
+      <c r="J13" s="19">
+        <v>11</v>
+      </c>
+      <c r="K13" s="19">
+        <v>3</v>
+      </c>
+      <c r="L13" s="19">
+        <v>9</v>
+      </c>
+      <c r="M13" s="19">
+        <v>5</v>
+      </c>
+      <c r="N13" s="20">
+        <v>0</v>
+      </c>
+      <c r="O13" s="32">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="P13" s="32">
+        <f t="shared" si="1"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C14" s="18">
+        <v>17</v>
+      </c>
+      <c r="D14" s="19">
+        <v>16</v>
+      </c>
+      <c r="E14" s="19">
+        <v>16</v>
+      </c>
+      <c r="F14" s="19">
+        <v>34</v>
+      </c>
+      <c r="G14" s="19">
+        <v>22</v>
+      </c>
+      <c r="H14" s="24">
+        <v>21</v>
+      </c>
+      <c r="I14" s="19">
+        <v>15</v>
+      </c>
+      <c r="J14" s="19">
+        <v>20</v>
+      </c>
+      <c r="K14" s="19">
+        <v>20</v>
+      </c>
+      <c r="L14" s="19">
+        <v>18</v>
+      </c>
+      <c r="M14" s="19">
+        <v>22</v>
+      </c>
+      <c r="N14" s="20">
+        <v>19</v>
+      </c>
+      <c r="O14" s="32">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P14" s="32">
+        <f t="shared" si="1"/>
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C15" s="18">
+        <v>12</v>
+      </c>
+      <c r="D15" s="19">
+        <v>23</v>
+      </c>
+      <c r="E15" s="19">
+        <v>21</v>
+      </c>
+      <c r="F15" s="19">
+        <v>16</v>
+      </c>
+      <c r="G15" s="19">
+        <v>27</v>
+      </c>
+      <c r="H15" s="24">
+        <v>26</v>
+      </c>
+      <c r="I15" s="19">
+        <v>15</v>
+      </c>
+      <c r="J15" s="19">
+        <v>20</v>
+      </c>
+      <c r="K15" s="19">
+        <v>11</v>
+      </c>
+      <c r="L15" s="19">
+        <v>21</v>
+      </c>
+      <c r="M15" s="19">
+        <v>17</v>
+      </c>
+      <c r="N15" s="20">
+        <v>20</v>
+      </c>
+      <c r="O15" s="32">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="P15" s="32">
+        <f t="shared" si="1"/>
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C16" s="18">
+        <v>16</v>
+      </c>
+      <c r="D16" s="19">
+        <v>15</v>
+      </c>
+      <c r="E16" s="19">
+        <v>16</v>
+      </c>
+      <c r="F16" s="19">
+        <v>16</v>
+      </c>
+      <c r="G16" s="19">
+        <v>18</v>
+      </c>
+      <c r="H16" s="24">
+        <v>19</v>
+      </c>
+      <c r="I16" s="19">
+        <v>19</v>
+      </c>
+      <c r="J16" s="19">
+        <v>15</v>
+      </c>
+      <c r="K16" s="19">
+        <v>17</v>
+      </c>
+      <c r="L16" s="19">
+        <v>15</v>
+      </c>
+      <c r="M16" s="19">
+        <v>13</v>
+      </c>
+      <c r="N16" s="20">
+        <v>17</v>
+      </c>
+      <c r="O16" s="32">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="P16" s="32">
+        <f t="shared" si="1"/>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C17" s="18">
+        <v>67</v>
+      </c>
+      <c r="D17" s="19">
+        <v>23</v>
+      </c>
+      <c r="E17" s="19">
+        <v>26</v>
+      </c>
+      <c r="F17" s="19">
+        <v>37</v>
+      </c>
+      <c r="G17" s="19">
+        <v>57</v>
+      </c>
+      <c r="H17" s="24">
+        <v>26</v>
+      </c>
+      <c r="I17" s="19">
+        <v>71</v>
+      </c>
+      <c r="J17" s="19">
+        <v>74</v>
+      </c>
+      <c r="K17" s="19">
+        <v>44</v>
+      </c>
+      <c r="L17" s="19">
+        <v>17</v>
+      </c>
+      <c r="M17" s="19">
+        <v>26</v>
+      </c>
+      <c r="N17" s="20">
+        <v>23</v>
+      </c>
+      <c r="O17" s="32">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="P17" s="32">
+        <f t="shared" si="1"/>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C18" s="18">
+        <v>20</v>
+      </c>
+      <c r="D18" s="19">
+        <v>21</v>
+      </c>
+      <c r="E18" s="19">
+        <v>22</v>
+      </c>
+      <c r="F18" s="19">
+        <v>22</v>
+      </c>
+      <c r="G18" s="19">
+        <v>25</v>
+      </c>
+      <c r="H18" s="24">
+        <v>22</v>
+      </c>
+      <c r="I18" s="19">
+        <v>37</v>
+      </c>
+      <c r="J18" s="19">
+        <v>14</v>
+      </c>
+      <c r="K18" s="19">
+        <v>12</v>
+      </c>
+      <c r="L18" s="19">
+        <v>15</v>
+      </c>
+      <c r="M18" s="19">
+        <v>12</v>
+      </c>
+      <c r="N18" s="20">
+        <v>19</v>
+      </c>
+      <c r="O18" s="32">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P18" s="32">
+        <f t="shared" si="1"/>
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C19" s="18">
+        <v>14</v>
+      </c>
+      <c r="D19" s="19">
+        <v>13</v>
+      </c>
+      <c r="E19" s="19">
+        <v>17</v>
+      </c>
+      <c r="F19" s="19">
+        <v>30</v>
+      </c>
+      <c r="G19" s="19">
+        <v>19</v>
+      </c>
+      <c r="H19" s="24">
+        <v>14</v>
+      </c>
+      <c r="I19" s="19">
+        <v>15</v>
+      </c>
+      <c r="J19" s="19">
+        <v>17</v>
+      </c>
+      <c r="K19" s="19">
+        <v>20</v>
+      </c>
+      <c r="L19" s="19">
+        <v>12</v>
+      </c>
+      <c r="M19" s="19">
+        <v>18</v>
+      </c>
+      <c r="N19" s="20">
+        <v>30</v>
+      </c>
+      <c r="O19" s="32">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="P19" s="32">
+        <f t="shared" si="1"/>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C20" s="18">
+        <v>15</v>
+      </c>
+      <c r="D20" s="19">
+        <v>11</v>
+      </c>
+      <c r="E20" s="19">
+        <v>15</v>
+      </c>
+      <c r="F20" s="19">
+        <v>17</v>
+      </c>
+      <c r="G20" s="19">
+        <v>19</v>
+      </c>
+      <c r="H20" s="24">
+        <v>18</v>
+      </c>
+      <c r="I20" s="19">
+        <v>12</v>
+      </c>
+      <c r="J20" s="19">
+        <v>15</v>
+      </c>
+      <c r="K20" s="19">
+        <v>20</v>
+      </c>
+      <c r="L20" s="19">
+        <v>11</v>
+      </c>
+      <c r="M20" s="19">
+        <v>13</v>
+      </c>
+      <c r="N20" s="20">
+        <v>33</v>
+      </c>
+      <c r="O20" s="32">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="P20" s="32">
+        <f t="shared" si="1"/>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C21" s="18">
+        <v>26</v>
+      </c>
+      <c r="D21" s="19">
+        <v>18</v>
+      </c>
+      <c r="E21" s="19">
+        <v>17</v>
+      </c>
+      <c r="F21" s="19">
+        <v>23</v>
+      </c>
+      <c r="G21" s="19">
+        <v>24</v>
+      </c>
+      <c r="H21" s="24">
+        <v>16</v>
+      </c>
+      <c r="I21" s="19">
+        <v>23</v>
+      </c>
+      <c r="J21" s="19">
+        <v>15</v>
+      </c>
+      <c r="K21" s="19">
+        <v>17</v>
+      </c>
+      <c r="L21" s="19">
+        <v>14</v>
+      </c>
+      <c r="M21" s="19">
+        <v>20</v>
+      </c>
+      <c r="N21" s="20">
+        <v>15</v>
+      </c>
+      <c r="O21" s="32">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="P21" s="32">
+        <f t="shared" si="1"/>
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C22" s="18">
+        <v>14</v>
+      </c>
+      <c r="D22" s="19">
+        <v>17</v>
+      </c>
+      <c r="E22" s="19">
+        <v>17</v>
+      </c>
+      <c r="F22" s="19">
+        <v>13</v>
+      </c>
+      <c r="G22" s="19">
+        <v>13</v>
+      </c>
+      <c r="H22" s="24">
+        <v>15</v>
+      </c>
+      <c r="I22" s="19">
+        <v>13</v>
+      </c>
+      <c r="J22" s="19">
+        <v>13</v>
+      </c>
+      <c r="K22" s="19">
+        <v>9</v>
+      </c>
+      <c r="L22" s="19">
+        <v>3</v>
+      </c>
+      <c r="M22" s="19">
+        <v>9</v>
+      </c>
+      <c r="N22" s="20">
+        <v>5</v>
+      </c>
+      <c r="O22" s="32">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="P22" s="32">
+        <f t="shared" si="1"/>
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C23" s="18">
+        <v>24</v>
+      </c>
+      <c r="D23" s="19">
+        <v>19</v>
+      </c>
+      <c r="E23" s="19">
+        <v>12</v>
+      </c>
+      <c r="F23" s="19">
+        <v>19</v>
+      </c>
+      <c r="G23" s="19">
+        <v>29</v>
+      </c>
+      <c r="H23" s="24">
+        <v>22</v>
+      </c>
+      <c r="I23" s="19">
+        <v>19</v>
+      </c>
+      <c r="J23" s="19">
+        <v>21</v>
+      </c>
+      <c r="K23" s="19">
+        <v>22</v>
+      </c>
+      <c r="L23" s="19">
+        <v>36</v>
+      </c>
+      <c r="M23" s="19">
+        <v>22</v>
+      </c>
+      <c r="N23" s="20">
+        <v>16</v>
+      </c>
+      <c r="O23" s="32">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="P23" s="32">
+        <f t="shared" si="1"/>
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C24" s="18">
+        <v>33</v>
+      </c>
+      <c r="D24" s="19">
+        <v>22</v>
+      </c>
+      <c r="E24" s="19">
+        <v>3</v>
+      </c>
+      <c r="F24" s="19">
+        <v>16</v>
+      </c>
+      <c r="G24" s="19">
+        <v>16</v>
+      </c>
+      <c r="H24" s="24">
+        <v>27</v>
+      </c>
+      <c r="I24" s="19">
+        <v>14</v>
+      </c>
+      <c r="J24" s="19">
+        <v>4</v>
+      </c>
+      <c r="K24" s="19">
+        <v>27</v>
+      </c>
+      <c r="L24" s="19">
+        <v>17</v>
+      </c>
+      <c r="M24" s="19">
+        <v>11</v>
+      </c>
+      <c r="N24" s="20">
+        <v>17</v>
+      </c>
+      <c r="O24" s="32">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="P24" s="32">
+        <f t="shared" si="1"/>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="21">
+        <v>22</v>
+      </c>
+      <c r="D25" s="22">
+        <v>3</v>
+      </c>
+      <c r="E25" s="22">
+        <v>3</v>
+      </c>
+      <c r="F25" s="22">
+        <v>9</v>
+      </c>
+      <c r="G25" s="22">
+        <v>10</v>
+      </c>
+      <c r="H25" s="25">
+        <v>8</v>
+      </c>
+      <c r="I25" s="22">
+        <v>4</v>
+      </c>
+      <c r="J25" s="22">
+        <v>7</v>
+      </c>
+      <c r="K25" s="22">
+        <v>18</v>
+      </c>
+      <c r="L25" s="22">
+        <v>8</v>
+      </c>
+      <c r="M25" s="22">
+        <v>0</v>
+      </c>
+      <c r="N25" s="23">
+        <v>7</v>
+      </c>
+      <c r="O25" s="33">
+        <f>ROUND(AVERAGE(C25:N25),0)</f>
+        <v>8</v>
+      </c>
+      <c r="P25" s="33">
+        <f t="shared" si="1"/>
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C26" s="35">
+        <v>29.85</v>
+      </c>
+      <c r="D26" s="34">
+        <v>22.39</v>
+      </c>
+      <c r="E26" s="34">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="F26" s="34">
+        <v>20.9</v>
+      </c>
+      <c r="G26" s="34">
+        <v>23.88</v>
+      </c>
+      <c r="H26" s="37">
+        <v>29.85</v>
+      </c>
+      <c r="I26" s="34">
+        <v>30</v>
+      </c>
+      <c r="J26" s="34">
+        <v>25.56</v>
+      </c>
+      <c r="K26" s="34">
+        <v>25.56</v>
+      </c>
+      <c r="L26" s="34">
+        <v>28.89</v>
+      </c>
+      <c r="M26" s="34">
+        <v>27.78</v>
+      </c>
+      <c r="N26" s="38">
+        <v>22.22</v>
+      </c>
+      <c r="O26" s="36">
+        <f>ROUND(AVERAGE(C26:N26),2)</f>
+        <v>25.28</v>
+      </c>
+      <c r="P26" s="36">
+        <f t="shared" si="1"/>
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <f>AVERAGE(C26:H26)</f>
+        <v>23.881666666666664</v>
+      </c>
+      <c r="H27">
+        <f>_xlfn.STDEV.P(C26:H26)</f>
+        <v>4.7964202507935383</v>
+      </c>
+      <c r="M27">
+        <f>AVERAGE(I26:N26)</f>
+        <v>26.668333333333337</v>
+      </c>
+      <c r="N27">
+        <f>_xlfn.STDEV.P(I26:N26)</f>
+        <v>2.5663230289441143</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:N5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/restaurant_analytics/mornings.xlsx
+++ b/restaurant_analytics/mornings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67726B49-B4B8-4ED3-91C1-0010FDBD391F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D746C0D-CCFC-47E2-AAB3-B48AC1D596CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6135" yWindow="720" windowWidth="18750" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -472,6 +472,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -487,14 +490,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,8 +798,8 @@
   <dimension ref="A1:K467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A451" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J474" sqref="J474"/>
+      <pane ySplit="1" topLeftCell="A441" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D449" sqref="D449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12608,7 +12603,7 @@
         <v>45819</v>
       </c>
       <c r="D448" s="7">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E448" s="9">
         <v>69.400000000000006</v>
@@ -13220,26 +13215,26 @@
   <sheetData>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="26">
+      <c r="C5" s="29">
         <v>0.85</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="29">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="32">
         <v>0.8</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="31" t="s">
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="31" t="s">
+      <c r="P5" s="26" t="s">
         <v>40</v>
       </c>
     </row>
@@ -13283,11 +13278,11 @@
       <c r="N6" s="20">
         <v>3</v>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="27">
         <f>ROUND(AVERAGE(C6:N6),0)</f>
         <v>4</v>
       </c>
-      <c r="P6" s="32">
+      <c r="P6" s="27">
         <f>ROUND(_xlfn.STDEV.P(D6:O6),2)</f>
         <v>2.4300000000000002</v>
       </c>
@@ -13329,11 +13324,11 @@
       <c r="N7" s="20">
         <v>2</v>
       </c>
-      <c r="O7" s="32">
+      <c r="O7" s="27">
         <f t="shared" ref="O7:O24" si="0">ROUND(AVERAGE(C7:N7),0)</f>
         <v>4</v>
       </c>
-      <c r="P7" s="32">
+      <c r="P7" s="27">
         <f t="shared" ref="P7:P26" si="1">ROUND(_xlfn.STDEV.P(D7:O7),2)</f>
         <v>2.62</v>
       </c>
@@ -13375,11 +13370,11 @@
       <c r="N8" s="20">
         <v>1</v>
       </c>
-      <c r="O8" s="32">
+      <c r="O8" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="P8" s="32">
+      <c r="P8" s="27">
         <f t="shared" si="1"/>
         <v>5.0199999999999996</v>
       </c>
@@ -13421,11 +13416,11 @@
       <c r="N9" s="20">
         <v>17</v>
       </c>
-      <c r="O9" s="32">
+      <c r="O9" s="27">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="P9" s="32">
+      <c r="P9" s="27">
         <f t="shared" si="1"/>
         <v>3.09</v>
       </c>
@@ -13467,11 +13462,11 @@
       <c r="N10" s="20">
         <v>39</v>
       </c>
-      <c r="O10" s="32">
+      <c r="O10" s="27">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="P10" s="32">
+      <c r="P10" s="27">
         <f t="shared" si="1"/>
         <v>20.100000000000001</v>
       </c>
@@ -13513,11 +13508,11 @@
       <c r="N11" s="20">
         <v>21</v>
       </c>
-      <c r="O11" s="32">
+      <c r="O11" s="27">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="P11" s="32">
+      <c r="P11" s="27">
         <f t="shared" si="1"/>
         <v>8.33</v>
       </c>
@@ -13559,11 +13554,11 @@
       <c r="N12" s="20">
         <v>27</v>
       </c>
-      <c r="O12" s="32">
+      <c r="O12" s="27">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="P12" s="32">
+      <c r="P12" s="27">
         <f t="shared" si="1"/>
         <v>6.02</v>
       </c>
@@ -13605,11 +13600,11 @@
       <c r="N13" s="20">
         <v>0</v>
       </c>
-      <c r="O13" s="32">
+      <c r="O13" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="P13" s="32">
+      <c r="P13" s="27">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
@@ -13651,11 +13646,11 @@
       <c r="N14" s="20">
         <v>19</v>
       </c>
-      <c r="O14" s="32">
+      <c r="O14" s="27">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="P14" s="32">
+      <c r="P14" s="27">
         <f t="shared" si="1"/>
         <v>4.71</v>
       </c>
@@ -13697,11 +13692,11 @@
       <c r="N15" s="20">
         <v>20</v>
       </c>
-      <c r="O15" s="32">
+      <c r="O15" s="27">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="P15" s="32">
+      <c r="P15" s="27">
         <f t="shared" si="1"/>
         <v>4.3499999999999996</v>
       </c>
@@ -13743,11 +13738,11 @@
       <c r="N16" s="20">
         <v>17</v>
       </c>
-      <c r="O16" s="32">
+      <c r="O16" s="27">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="P16" s="32">
+      <c r="P16" s="27">
         <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
@@ -13789,11 +13784,11 @@
       <c r="N17" s="20">
         <v>23</v>
       </c>
-      <c r="O17" s="32">
+      <c r="O17" s="27">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="P17" s="32">
+      <c r="P17" s="27">
         <f t="shared" si="1"/>
         <v>18.5</v>
       </c>
@@ -13835,11 +13830,11 @@
       <c r="N18" s="20">
         <v>19</v>
       </c>
-      <c r="O18" s="32">
+      <c r="O18" s="27">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="P18" s="32">
+      <c r="P18" s="27">
         <f t="shared" si="1"/>
         <v>6.56</v>
       </c>
@@ -13881,11 +13876,11 @@
       <c r="N19" s="20">
         <v>30</v>
       </c>
-      <c r="O19" s="32">
+      <c r="O19" s="27">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="P19" s="32">
+      <c r="P19" s="27">
         <f t="shared" si="1"/>
         <v>5.6</v>
       </c>
@@ -13927,11 +13922,11 @@
       <c r="N20" s="20">
         <v>33</v>
       </c>
-      <c r="O20" s="32">
+      <c r="O20" s="27">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="P20" s="32">
+      <c r="P20" s="27">
         <f t="shared" si="1"/>
         <v>5.7</v>
       </c>
@@ -13973,11 +13968,11 @@
       <c r="N21" s="20">
         <v>15</v>
       </c>
-      <c r="O21" s="32">
+      <c r="O21" s="27">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="P21" s="32">
+      <c r="P21" s="27">
         <f t="shared" si="1"/>
         <v>3.28</v>
       </c>
@@ -14019,11 +14014,11 @@
       <c r="N22" s="20">
         <v>5</v>
       </c>
-      <c r="O22" s="32">
+      <c r="O22" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="P22" s="32">
+      <c r="P22" s="27">
         <f t="shared" si="1"/>
         <v>4.17</v>
       </c>
@@ -14065,11 +14060,11 @@
       <c r="N23" s="20">
         <v>16</v>
       </c>
-      <c r="O23" s="32">
+      <c r="O23" s="27">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="P23" s="32">
+      <c r="P23" s="27">
         <f t="shared" si="1"/>
         <v>5.82</v>
       </c>
@@ -14111,11 +14106,11 @@
       <c r="N24" s="20">
         <v>17</v>
       </c>
-      <c r="O24" s="32">
+      <c r="O24" s="27">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="P24" s="32">
+      <c r="P24" s="27">
         <f t="shared" si="1"/>
         <v>7.2</v>
       </c>
@@ -14157,57 +14152,57 @@
       <c r="N25" s="23">
         <v>7</v>
       </c>
-      <c r="O25" s="33">
+      <c r="O25" s="28">
         <f>ROUND(AVERAGE(C25:N25),0)</f>
         <v>8</v>
       </c>
-      <c r="P25" s="33">
+      <c r="P25" s="28">
         <f t="shared" si="1"/>
         <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C26" s="35">
+      <c r="C26" s="18">
         <v>29.85</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="19">
         <v>22.39</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="19">
         <v>16.420000000000002</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="19">
         <v>20.9</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="19">
         <v>23.88</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="24">
         <v>29.85</v>
       </c>
-      <c r="I26" s="34">
+      <c r="I26" s="19">
         <v>30</v>
       </c>
-      <c r="J26" s="34">
+      <c r="J26" s="19">
         <v>25.56</v>
       </c>
-      <c r="K26" s="34">
+      <c r="K26" s="19">
         <v>25.56</v>
       </c>
-      <c r="L26" s="34">
+      <c r="L26" s="19">
         <v>28.89</v>
       </c>
-      <c r="M26" s="34">
+      <c r="M26" s="19">
         <v>27.78</v>
       </c>
-      <c r="N26" s="38">
+      <c r="N26" s="20">
         <v>22.22</v>
       </c>
-      <c r="O26" s="36">
+      <c r="O26" s="27">
         <f>ROUND(AVERAGE(C26:N26),2)</f>
         <v>25.28</v>
       </c>
-      <c r="P26" s="36">
+      <c r="P26" s="27">
         <f t="shared" si="1"/>
         <v>3.85</v>
       </c>

--- a/restaurant_analytics/mornings.xlsx
+++ b/restaurant_analytics/mornings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D746C0D-CCFC-47E2-AAB3-B48AC1D596CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047D8915-CABE-46DD-ACFE-BBA852A4814E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="720" windowWidth="18750" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>day</t>
   </si>
@@ -161,6 +161,15 @@
   <si>
     <t>std</t>
   </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
 </sst>
 </file>
 
@@ -201,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -265,32 +274,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -359,19 +348,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -407,11 +383,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -464,37 +451,94 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -795,11 +839,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K467"/>
+  <dimension ref="A1:K520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A441" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D449" sqref="D449"/>
+      <pane ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J474" sqref="J474:J511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8962,7 +9006,7 @@
         <v>45682</v>
       </c>
       <c r="D311" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E311" s="9">
         <v>27.3</v>
@@ -12270,7 +12314,7 @@
         <v>24</v>
       </c>
       <c r="E436" s="9">
-        <v>63.7</v>
+        <v>64</v>
       </c>
       <c r="F436" s="9">
         <v>0</v>
@@ -12298,7 +12342,7 @@
         <v>17</v>
       </c>
       <c r="E437" s="9">
-        <v>63.9</v>
+        <v>60.6</v>
       </c>
       <c r="F437" s="9">
         <v>0</v>
@@ -12307,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="H437" s="9">
-        <v>8.1999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="J437" s="15"/>
       <c r="K437" s="13"/>
@@ -12326,7 +12370,7 @@
         <v>54</v>
       </c>
       <c r="E438" s="9">
-        <v>58.3</v>
+        <v>57.6</v>
       </c>
       <c r="F438" s="9">
         <v>0</v>
@@ -12335,7 +12379,7 @@
         <v>0</v>
       </c>
       <c r="H438" s="9">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J438" s="15"/>
       <c r="K438" s="13"/>
@@ -12354,7 +12398,7 @@
         <v>16</v>
       </c>
       <c r="E439" s="9">
-        <v>69.400000000000006</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="F439" s="9">
         <v>0</v>
@@ -12363,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="H439" s="9">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="J439" s="15"/>
       <c r="K439" s="13"/>
@@ -12382,16 +12426,16 @@
         <v>15</v>
       </c>
       <c r="E440" s="9">
-        <v>77.400000000000006</v>
+        <v>76.8</v>
       </c>
       <c r="F440" s="9">
-        <v>1.2E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="G440" s="9">
         <v>0</v>
       </c>
       <c r="H440" s="9">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="J440" s="15"/>
       <c r="K440" s="13"/>
@@ -12410,16 +12454,16 @@
         <v>37</v>
       </c>
       <c r="E441" s="9">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F441" s="9">
-        <v>0.90900000000000003</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="G441" s="9">
         <v>0</v>
       </c>
       <c r="H441" s="9">
-        <v>9.1999999999999993</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="J441" s="15"/>
       <c r="K441" s="13"/>
@@ -12438,7 +12482,7 @@
         <v>9</v>
       </c>
       <c r="E442" s="9">
-        <v>64.599999999999994</v>
+        <v>63</v>
       </c>
       <c r="F442" s="9">
         <v>0</v>
@@ -12447,7 +12491,7 @@
         <v>0</v>
       </c>
       <c r="H442" s="9">
-        <v>8.8000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="J442" s="15"/>
       <c r="K442" s="13"/>
@@ -12466,7 +12510,7 @@
         <v>41</v>
       </c>
       <c r="E443" s="9">
-        <v>65.8</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="F443" s="9">
         <v>0</v>
@@ -12475,7 +12519,7 @@
         <v>0</v>
       </c>
       <c r="H443" s="9">
-        <v>7.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J443" s="9"/>
       <c r="K443" s="13"/>
@@ -12494,16 +12538,16 @@
         <v>36</v>
       </c>
       <c r="E444" s="9">
-        <v>65.5</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="F444" s="9">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G444" s="9">
         <v>0</v>
       </c>
       <c r="H444" s="9">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J444" s="9"/>
       <c r="K444" s="13"/>
@@ -12522,16 +12566,16 @@
         <v>47</v>
       </c>
       <c r="E445" s="9">
-        <v>66.7</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="F445" s="9">
-        <v>0</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="G445" s="9">
         <v>0</v>
       </c>
       <c r="H445" s="9">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="J445" s="15"/>
       <c r="K445" s="13"/>
@@ -12550,7 +12594,7 @@
         <v>11</v>
       </c>
       <c r="E446" s="9">
-        <v>64</v>
+        <v>63.7</v>
       </c>
       <c r="F446" s="9">
         <v>0</v>
@@ -12559,7 +12603,7 @@
         <v>0</v>
       </c>
       <c r="H446" s="9">
-        <v>10.5</v>
+        <v>11.2</v>
       </c>
       <c r="J446" s="15"/>
       <c r="K446" s="13"/>
@@ -12578,7 +12622,7 @@
         <v>11</v>
       </c>
       <c r="E447" s="9">
-        <v>66</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="F447" s="9">
         <v>0</v>
@@ -12587,7 +12631,7 @@
         <v>0</v>
       </c>
       <c r="H447" s="9">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="J447" s="15"/>
       <c r="K447" s="13"/>
@@ -12605,21 +12649,19 @@
       <c r="D448" s="7">
         <v>36</v>
       </c>
-      <c r="E448" s="9">
-        <v>69.400000000000006</v>
+      <c r="E448">
+        <v>74.099999999999994</v>
       </c>
       <c r="F448" s="9">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="G448" s="9">
         <v>0</v>
       </c>
       <c r="H448" s="9">
-        <v>7.6</v>
-      </c>
-      <c r="J448" s="15">
-        <v>2.4300000000000002</v>
-      </c>
+        <v>11.4</v>
+      </c>
+      <c r="J448" s="15"/>
       <c r="K448" s="13"/>
     </row>
     <row r="449" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12633,23 +12675,21 @@
         <v>45820</v>
       </c>
       <c r="D449" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E449" s="9">
-        <v>71.2</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="F449" s="9">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="G449" s="9">
         <v>0</v>
       </c>
       <c r="H449" s="9">
-        <v>8.6</v>
-      </c>
-      <c r="J449" s="15">
-        <v>2.62</v>
-      </c>
+        <v>8.9</v>
+      </c>
+      <c r="J449" s="15"/>
       <c r="K449" s="13"/>
     </row>
     <row r="450" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12663,23 +12703,21 @@
         <v>45821</v>
       </c>
       <c r="D450" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E450" s="9">
-        <v>72.3</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="F450" s="9">
-        <v>0.4</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="G450" s="9">
         <v>0</v>
       </c>
       <c r="H450" s="9">
-        <v>8.9</v>
-      </c>
-      <c r="J450" s="9">
-        <v>5.0199999999999996</v>
-      </c>
+        <v>7.4</v>
+      </c>
+      <c r="J450" s="9"/>
       <c r="K450" s="13"/>
     </row>
     <row r="451" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12693,10 +12731,10 @@
         <v>45822</v>
       </c>
       <c r="D451" s="7">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E451" s="9">
-        <v>69</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="F451" s="9">
         <v>0</v>
@@ -12705,11 +12743,9 @@
         <v>0</v>
       </c>
       <c r="H451" s="9">
-        <v>4</v>
-      </c>
-      <c r="J451" s="9">
-        <v>3.09</v>
-      </c>
+        <v>9.4</v>
+      </c>
+      <c r="J451" s="9"/>
       <c r="K451" s="13"/>
     </row>
     <row r="452" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12723,10 +12759,10 @@
         <v>45823</v>
       </c>
       <c r="D452" s="7">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="E452" s="9">
-        <v>67</v>
+        <v>68.5</v>
       </c>
       <c r="F452" s="9">
         <v>0</v>
@@ -12735,14 +12771,12 @@
         <v>0</v>
       </c>
       <c r="H452" s="9">
-        <v>4</v>
+        <v>7.1</v>
       </c>
       <c r="I452" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J452" s="15">
-        <v>20.100000000000001</v>
-      </c>
+      <c r="J452" s="15"/>
       <c r="K452" s="13"/>
     </row>
     <row r="453" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12756,10 +12790,10 @@
         <v>45824</v>
       </c>
       <c r="D453" s="7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E453" s="9">
-        <v>63</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="F453" s="9">
         <v>0</v>
@@ -12768,11 +12802,9 @@
         <v>0</v>
       </c>
       <c r="H453" s="9">
-        <v>6</v>
-      </c>
-      <c r="J453" s="15">
-        <v>8.33</v>
-      </c>
+        <v>6.3</v>
+      </c>
+      <c r="J453" s="15"/>
       <c r="K453" s="13"/>
     </row>
     <row r="454" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12786,23 +12818,21 @@
         <v>45825</v>
       </c>
       <c r="D454" s="7">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E454" s="9">
-        <v>70</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="F454" s="9">
-        <v>0</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="G454" s="9">
         <v>0</v>
       </c>
       <c r="H454" s="9">
-        <v>8</v>
-      </c>
-      <c r="J454" s="15">
-        <v>6.02</v>
-      </c>
+        <v>10.8</v>
+      </c>
+      <c r="J454" s="15"/>
       <c r="K454" s="13"/>
     </row>
     <row r="455" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12816,23 +12846,21 @@
         <v>45826</v>
       </c>
       <c r="D455" s="7">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E455" s="9">
-        <v>70</v>
+        <v>76.3</v>
       </c>
       <c r="F455" s="9">
-        <v>0.11</v>
+        <v>1.8580000000000001</v>
       </c>
       <c r="G455" s="9">
         <v>0</v>
       </c>
       <c r="H455" s="9">
-        <v>14</v>
-      </c>
-      <c r="J455" s="15">
-        <v>3.3</v>
-      </c>
+        <v>5.7</v>
+      </c>
+      <c r="J455" s="15"/>
       <c r="K455" s="13"/>
     </row>
     <row r="456" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12846,10 +12874,10 @@
         <v>45827</v>
       </c>
       <c r="D456" s="7">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E456" s="9">
-        <v>70</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="F456" s="9">
         <v>0</v>
@@ -12858,11 +12886,9 @@
         <v>0</v>
       </c>
       <c r="H456" s="9">
-        <v>9</v>
-      </c>
-      <c r="J456" s="15">
-        <v>4.71</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J456" s="15"/>
       <c r="K456" s="13"/>
     </row>
     <row r="457" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12876,23 +12902,21 @@
         <v>45828</v>
       </c>
       <c r="D457" s="7">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E457" s="9">
-        <v>69</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="F457" s="9">
-        <v>0.02</v>
+        <v>2.4E-2</v>
       </c>
       <c r="G457" s="9">
         <v>0</v>
       </c>
       <c r="H457" s="9">
-        <v>8</v>
-      </c>
-      <c r="J457" s="9">
-        <v>4.3499999999999996</v>
-      </c>
+        <v>10.4</v>
+      </c>
+      <c r="J457" s="9"/>
       <c r="K457" s="13"/>
     </row>
     <row r="458" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12906,10 +12930,10 @@
         <v>45829</v>
       </c>
       <c r="D458" s="7">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E458" s="9">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F458" s="9">
         <v>0</v>
@@ -12918,11 +12942,9 @@
         <v>0</v>
       </c>
       <c r="H458" s="9">
-        <v>5</v>
-      </c>
-      <c r="J458" s="9">
-        <v>1.7</v>
-      </c>
+        <v>16.8</v>
+      </c>
+      <c r="J458" s="9"/>
       <c r="K458" s="13"/>
     </row>
     <row r="459" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12936,23 +12958,21 @@
         <v>45830</v>
       </c>
       <c r="D459" s="7">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E459" s="9">
-        <v>74</v>
+        <v>87.1</v>
       </c>
       <c r="F459" s="9">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G459" s="9">
         <v>0</v>
       </c>
       <c r="H459" s="9">
-        <v>3</v>
-      </c>
-      <c r="J459" s="15">
-        <v>18.5</v>
-      </c>
+        <v>14.4</v>
+      </c>
+      <c r="J459" s="15"/>
       <c r="K459" s="13"/>
     </row>
     <row r="460" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12966,23 +12986,21 @@
         <v>45831</v>
       </c>
       <c r="D460" s="7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E460" s="9">
-        <v>75</v>
+        <v>87.3</v>
       </c>
       <c r="F460" s="9">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="G460" s="9">
         <v>0</v>
       </c>
       <c r="H460" s="9">
-        <v>2</v>
-      </c>
-      <c r="J460" s="15">
-        <v>6.56</v>
-      </c>
+        <v>12.9</v>
+      </c>
+      <c r="J460" s="15"/>
       <c r="K460" s="13"/>
     </row>
     <row r="461" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12996,23 +13014,21 @@
         <v>45832</v>
       </c>
       <c r="D461" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E461" s="9">
-        <v>75</v>
+        <v>82.9</v>
       </c>
       <c r="F461" s="9">
-        <v>0</v>
+        <v>0.622</v>
       </c>
       <c r="G461" s="9">
         <v>0</v>
       </c>
       <c r="H461" s="9">
-        <v>8</v>
-      </c>
-      <c r="J461" s="15">
-        <v>5.6</v>
-      </c>
+        <v>7.1</v>
+      </c>
+      <c r="J461" s="15"/>
       <c r="K461" s="13"/>
     </row>
     <row r="462" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13026,23 +13042,21 @@
         <v>45833</v>
       </c>
       <c r="D462" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E462" s="9">
-        <v>76</v>
+        <v>77.5</v>
       </c>
       <c r="F462" s="9">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="G462" s="9">
         <v>0</v>
       </c>
       <c r="H462" s="9">
-        <v>8</v>
-      </c>
-      <c r="J462" s="15">
-        <v>5.7</v>
-      </c>
+        <v>5.6</v>
+      </c>
+      <c r="J462" s="15"/>
       <c r="K462" s="13"/>
     </row>
     <row r="463" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13056,23 +13070,21 @@
         <v>45834</v>
       </c>
       <c r="D463" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E463" s="9">
-        <v>76</v>
+        <v>82.8</v>
       </c>
       <c r="F463" s="9">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G463" s="9">
         <v>0</v>
       </c>
       <c r="H463" s="9">
-        <v>4</v>
-      </c>
-      <c r="J463" s="15">
-        <v>3.28</v>
-      </c>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J463" s="15"/>
       <c r="K463" s="13"/>
     </row>
     <row r="464" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13086,23 +13098,21 @@
         <v>45835</v>
       </c>
       <c r="D464" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E464" s="9">
-        <v>75</v>
+        <v>82.6</v>
       </c>
       <c r="F464" s="9">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="G464" s="9">
         <v>0</v>
       </c>
       <c r="H464" s="9">
-        <v>6</v>
-      </c>
-      <c r="J464" s="9">
-        <v>4.17</v>
-      </c>
+        <v>10.9</v>
+      </c>
+      <c r="J464" s="9"/>
       <c r="K464" s="13"/>
     </row>
     <row r="465" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13116,10 +13126,10 @@
         <v>45836</v>
       </c>
       <c r="D465" s="7">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E465" s="9">
-        <v>71</v>
+        <v>77.5</v>
       </c>
       <c r="F465" s="9">
         <v>0</v>
@@ -13128,11 +13138,9 @@
         <v>0</v>
       </c>
       <c r="H465" s="9">
-        <v>8</v>
-      </c>
-      <c r="J465" s="9">
-        <v>5.82</v>
-      </c>
+        <v>5.8</v>
+      </c>
+      <c r="J465" s="9"/>
       <c r="K465" s="13"/>
     </row>
     <row r="466" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13146,23 +13154,21 @@
         <v>45837</v>
       </c>
       <c r="D466" s="7">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E466" s="9">
-        <v>71</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="F466" s="9">
-        <v>0.38</v>
+        <v>3.1E-2</v>
       </c>
       <c r="G466" s="9">
         <v>0</v>
       </c>
       <c r="H466" s="9">
-        <v>6</v>
-      </c>
-      <c r="J466" s="15">
-        <v>7.2</v>
-      </c>
+        <v>7.6</v>
+      </c>
+      <c r="J466" s="15"/>
       <c r="K466" s="13"/>
     </row>
     <row r="467" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13176,24 +13182,1310 @@
         <v>45838</v>
       </c>
       <c r="D467" s="7">
+        <v>13</v>
+      </c>
+      <c r="E467" s="9">
+        <v>79.7</v>
+      </c>
+      <c r="F467" s="9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G467" s="9">
+        <v>0</v>
+      </c>
+      <c r="H467" s="9">
+        <v>7.9</v>
+      </c>
+      <c r="J467" s="15"/>
+      <c r="K467" s="13"/>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A468" s="7">
+        <v>3</v>
+      </c>
+      <c r="B468" s="7">
+        <v>467</v>
+      </c>
+      <c r="C468" s="8">
+        <v>45839</v>
+      </c>
+      <c r="D468">
+        <v>10</v>
+      </c>
+      <c r="E468" s="11">
+        <v>79.5</v>
+      </c>
+      <c r="F468" s="11">
+        <v>0</v>
+      </c>
+      <c r="G468" s="9">
+        <v>0</v>
+      </c>
+      <c r="H468" s="11">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A469" s="7">
+        <v>4</v>
+      </c>
+      <c r="B469" s="7">
+        <v>468</v>
+      </c>
+      <c r="C469" s="8">
+        <v>45840</v>
+      </c>
+      <c r="D469">
+        <v>25</v>
+      </c>
+      <c r="E469" s="11">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="F469" s="11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G469" s="9">
+        <v>0</v>
+      </c>
+      <c r="H469" s="11">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A470" s="7">
+        <v>5</v>
+      </c>
+      <c r="B470" s="7">
+        <v>469</v>
+      </c>
+      <c r="C470" s="8">
+        <v>45841</v>
+      </c>
+      <c r="D470">
+        <v>6</v>
+      </c>
+      <c r="E470" s="11">
+        <v>83.1</v>
+      </c>
+      <c r="F470" s="11">
+        <v>0</v>
+      </c>
+      <c r="G470" s="9">
+        <v>0</v>
+      </c>
+      <c r="H470" s="11">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A471" s="7">
+        <v>6</v>
+      </c>
+      <c r="B471" s="7">
+        <v>470</v>
+      </c>
+      <c r="C471" s="8">
+        <v>45842</v>
+      </c>
+      <c r="D471">
+        <v>0</v>
+      </c>
+      <c r="E471" s="11">
+        <v>82</v>
+      </c>
+      <c r="F471" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="G471" s="9">
+        <v>0</v>
+      </c>
+      <c r="H471" s="11">
+        <v>7.2</v>
+      </c>
+      <c r="I471" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A472" s="7">
+        <v>7</v>
+      </c>
+      <c r="B472" s="7">
+        <v>471</v>
+      </c>
+      <c r="C472" s="8">
+        <v>45843</v>
+      </c>
+      <c r="D472">
+        <v>10</v>
+      </c>
+      <c r="E472" s="11">
+        <v>85.5</v>
+      </c>
+      <c r="F472" s="11">
+        <v>0</v>
+      </c>
+      <c r="G472" s="9">
+        <v>0</v>
+      </c>
+      <c r="H472" s="11">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A473" s="7">
+        <v>6</v>
+      </c>
+      <c r="B473" s="7">
+        <v>472</v>
+      </c>
+      <c r="C473" s="8">
+        <v>45844</v>
+      </c>
+      <c r="D473">
+        <v>50</v>
+      </c>
+      <c r="E473" s="11">
+        <v>76.5</v>
+      </c>
+      <c r="F473" s="11">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="G473" s="11">
+        <v>0</v>
+      </c>
+      <c r="H473" s="11">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A474" s="7">
+        <v>7</v>
+      </c>
+      <c r="B474" s="7">
+        <v>473</v>
+      </c>
+      <c r="C474" s="8">
+        <v>45845</v>
+      </c>
+      <c r="D474" s="16">
+        <v>25</v>
+      </c>
+      <c r="E474" s="11">
+        <v>72.5</v>
+      </c>
+      <c r="F474" s="11">
+        <v>0</v>
+      </c>
+      <c r="G474" s="11">
+        <v>0</v>
+      </c>
+      <c r="H474" s="11">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J474" s="11">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A475" s="7">
+        <v>1</v>
+      </c>
+      <c r="B475" s="7">
+        <v>474</v>
+      </c>
+      <c r="C475" s="8">
+        <v>45846</v>
+      </c>
+      <c r="D475" s="16">
+        <v>39</v>
+      </c>
+      <c r="E475" s="11">
+        <v>75.2</v>
+      </c>
+      <c r="F475" s="11">
+        <v>0</v>
+      </c>
+      <c r="G475" s="11">
+        <v>0</v>
+      </c>
+      <c r="H475" s="11">
+        <v>5.2</v>
+      </c>
+      <c r="J475" s="11">
+        <v>19.93</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A476" s="7">
+        <v>2</v>
+      </c>
+      <c r="B476" s="7">
+        <v>475</v>
+      </c>
+      <c r="C476" s="8">
+        <v>45847</v>
+      </c>
+      <c r="D476" s="16">
+        <v>26</v>
+      </c>
+      <c r="E476" s="11">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="F476" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="G476" s="11">
+        <v>0</v>
+      </c>
+      <c r="H476" s="11">
+        <v>6.1</v>
+      </c>
+      <c r="J476" s="11">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A477" s="7">
+        <v>3</v>
+      </c>
+      <c r="B477" s="7">
+        <v>476</v>
+      </c>
+      <c r="C477" s="8">
+        <v>45848</v>
+      </c>
+      <c r="D477" s="16">
+        <v>29</v>
+      </c>
+      <c r="E477" s="11">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="F477" s="11">
+        <v>0</v>
+      </c>
+      <c r="G477" s="11">
+        <v>0</v>
+      </c>
+      <c r="H477" s="11">
+        <v>6.6</v>
+      </c>
+      <c r="J477" s="11">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A478" s="7">
+        <v>4</v>
+      </c>
+      <c r="B478" s="7">
+        <v>477</v>
+      </c>
+      <c r="C478" s="8">
+        <v>45849</v>
+      </c>
+      <c r="D478" s="16">
+        <v>11</v>
+      </c>
+      <c r="E478" s="11">
+        <v>77.5</v>
+      </c>
+      <c r="F478" s="11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G478" s="11">
+        <v>0</v>
+      </c>
+      <c r="H478" s="11">
+        <v>6.4</v>
+      </c>
+      <c r="J478" s="11">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A479" s="7">
+        <v>5</v>
+      </c>
+      <c r="B479" s="7">
+        <v>478</v>
+      </c>
+      <c r="C479" s="8">
+        <v>45850</v>
+      </c>
+      <c r="D479" s="16">
+        <v>25</v>
+      </c>
+      <c r="E479" s="11">
+        <v>76.8</v>
+      </c>
+      <c r="F479" s="11">
+        <v>0</v>
+      </c>
+      <c r="G479" s="11">
+        <v>0</v>
+      </c>
+      <c r="H479" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="J479" s="11">
+        <v>9.2899999999999991</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A480" s="7">
+        <v>6</v>
+      </c>
+      <c r="B480" s="7">
+        <v>479</v>
+      </c>
+      <c r="C480" s="8">
+        <v>45851</v>
+      </c>
+      <c r="D480" s="16">
+        <v>23</v>
+      </c>
+      <c r="E480" s="11">
+        <v>75.7</v>
+      </c>
+      <c r="F480" s="11">
+        <v>0</v>
+      </c>
+      <c r="G480" s="11">
+        <v>0</v>
+      </c>
+      <c r="H480" s="11">
         <v>8</v>
       </c>
-      <c r="E467" s="9">
+      <c r="J480" s="11">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A481" s="7">
+        <v>7</v>
+      </c>
+      <c r="B481" s="7">
+        <v>480</v>
+      </c>
+      <c r="C481" s="8">
+        <v>45852</v>
+      </c>
+      <c r="D481" s="16">
+        <v>22</v>
+      </c>
+      <c r="E481" s="11">
+        <v>75.7</v>
+      </c>
+      <c r="F481" s="11">
+        <v>0</v>
+      </c>
+      <c r="G481" s="11">
+        <v>0</v>
+      </c>
+      <c r="H481" s="11">
+        <v>7.7</v>
+      </c>
+      <c r="J481" s="11">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A482" s="7">
+        <v>1</v>
+      </c>
+      <c r="B482" s="7">
+        <v>481</v>
+      </c>
+      <c r="C482" s="8">
+        <v>45853</v>
+      </c>
+      <c r="D482" s="16">
+        <v>47</v>
+      </c>
+      <c r="E482" s="11">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="F482" s="11">
+        <v>0</v>
+      </c>
+      <c r="G482" s="11">
+        <v>0</v>
+      </c>
+      <c r="H482" s="11">
+        <v>8.4</v>
+      </c>
+      <c r="J482" s="11">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A483" s="7">
+        <v>2</v>
+      </c>
+      <c r="B483" s="7">
+        <v>482</v>
+      </c>
+      <c r="C483" s="8">
+        <v>45854</v>
+      </c>
+      <c r="D483" s="16">
+        <v>19</v>
+      </c>
+      <c r="E483" s="11">
+        <v>75.5</v>
+      </c>
+      <c r="F483" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="G483" s="11">
+        <v>0</v>
+      </c>
+      <c r="H483" s="11">
+        <v>6</v>
+      </c>
+      <c r="J483" s="11">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A484" s="7">
+        <v>3</v>
+      </c>
+      <c r="B484" s="7">
+        <v>483</v>
+      </c>
+      <c r="C484" s="8">
+        <v>45855</v>
+      </c>
+      <c r="D484" s="16">
+        <v>23</v>
+      </c>
+      <c r="E484" s="11">
+        <v>74.5</v>
+      </c>
+      <c r="F484" s="11">
+        <v>0</v>
+      </c>
+      <c r="G484" s="11">
+        <v>0</v>
+      </c>
+      <c r="H484" s="11">
+        <v>5</v>
+      </c>
+      <c r="J484" s="11">
+        <v>8.02</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A485" s="7">
+        <v>4</v>
+      </c>
+      <c r="B485" s="7">
+        <v>484</v>
+      </c>
+      <c r="C485" s="8">
+        <v>45856</v>
+      </c>
+      <c r="D485" s="16">
+        <v>15</v>
+      </c>
+      <c r="E485" s="11">
+        <v>76</v>
+      </c>
+      <c r="F485" s="11">
+        <v>0</v>
+      </c>
+      <c r="G485" s="11">
+        <v>0</v>
+      </c>
+      <c r="H485" s="11">
+        <v>13</v>
+      </c>
+      <c r="J485" s="11">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A486" s="7">
+        <v>5</v>
+      </c>
+      <c r="B486" s="7">
+        <v>485</v>
+      </c>
+      <c r="C486" s="8">
+        <v>45857</v>
+      </c>
+      <c r="D486" s="16">
+        <v>28</v>
+      </c>
+      <c r="E486" s="11">
+        <v>75</v>
+      </c>
+      <c r="F486" s="11">
+        <v>0</v>
+      </c>
+      <c r="G486" s="11">
+        <v>0</v>
+      </c>
+      <c r="H486" s="11">
+        <v>7</v>
+      </c>
+      <c r="J486" s="11">
+        <v>8.0299999999999994</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A487" s="7">
+        <v>6</v>
+      </c>
+      <c r="B487" s="7">
+        <v>486</v>
+      </c>
+      <c r="C487" s="8">
+        <v>45858</v>
+      </c>
+      <c r="D487" s="16">
+        <v>20</v>
+      </c>
+      <c r="E487" s="11">
+        <v>69.5</v>
+      </c>
+      <c r="F487" s="11">
+        <v>0</v>
+      </c>
+      <c r="G487" s="11">
+        <v>0</v>
+      </c>
+      <c r="H487" s="11">
+        <v>6</v>
+      </c>
+      <c r="J487" s="11">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A488" s="7">
+        <v>7</v>
+      </c>
+      <c r="B488" s="7">
+        <v>487</v>
+      </c>
+      <c r="C488" s="8">
+        <v>45859</v>
+      </c>
+      <c r="D488" s="16">
+        <v>15</v>
+      </c>
+      <c r="E488" s="11">
+        <v>69</v>
+      </c>
+      <c r="F488" s="11">
+        <v>0</v>
+      </c>
+      <c r="G488" s="11">
+        <v>0</v>
+      </c>
+      <c r="H488" s="11">
+        <v>4</v>
+      </c>
+      <c r="J488" s="11">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A489" s="7">
+        <v>6</v>
+      </c>
+      <c r="B489" s="7">
+        <v>488</v>
+      </c>
+      <c r="C489" s="8">
+        <v>45860</v>
+      </c>
+      <c r="D489" s="16">
+        <v>25</v>
+      </c>
+      <c r="E489" s="11">
+        <v>74.5</v>
+      </c>
+      <c r="F489" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="G489" s="11">
+        <v>0</v>
+      </c>
+      <c r="H489" s="11">
+        <v>7</v>
+      </c>
+      <c r="J489" s="11">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A490" s="7">
+        <v>7</v>
+      </c>
+      <c r="B490" s="7">
+        <v>489</v>
+      </c>
+      <c r="C490" s="8">
+        <v>45861</v>
+      </c>
+      <c r="D490" s="16">
+        <v>16</v>
+      </c>
+      <c r="E490" s="11">
+        <v>76</v>
+      </c>
+      <c r="F490" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="G490" s="11">
+        <v>0</v>
+      </c>
+      <c r="H490" s="11">
+        <v>5</v>
+      </c>
+      <c r="J490" s="11">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A491" s="7">
+        <v>1</v>
+      </c>
+      <c r="B491" s="7">
+        <v>490</v>
+      </c>
+      <c r="C491" s="8">
+        <v>45862</v>
+      </c>
+      <c r="D491" s="16">
+        <v>60</v>
+      </c>
+      <c r="E491" s="11">
         <v>73</v>
       </c>
-      <c r="F467" s="9">
-        <v>0.38</v>
-      </c>
-      <c r="G467" s="9">
-        <v>0</v>
-      </c>
-      <c r="H467" s="9">
+      <c r="F491" s="11">
+        <v>0</v>
+      </c>
+      <c r="G491" s="11">
+        <v>0</v>
+      </c>
+      <c r="H491" s="11">
         <v>5</v>
       </c>
-      <c r="J467" s="15">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="K467" s="13"/>
+      <c r="J491" s="11">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A492" s="7">
+        <v>2</v>
+      </c>
+      <c r="B492" s="7">
+        <v>491</v>
+      </c>
+      <c r="C492" s="8">
+        <v>45863</v>
+      </c>
+      <c r="D492" s="16">
+        <v>29</v>
+      </c>
+      <c r="E492" s="11">
+        <v>72</v>
+      </c>
+      <c r="F492" s="11">
+        <v>0</v>
+      </c>
+      <c r="G492" s="11">
+        <v>0</v>
+      </c>
+      <c r="H492" s="11">
+        <v>7</v>
+      </c>
+      <c r="J492" s="11">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A493" s="7">
+        <v>3</v>
+      </c>
+      <c r="B493" s="7">
+        <v>492</v>
+      </c>
+      <c r="C493" s="8">
+        <v>45864</v>
+      </c>
+      <c r="D493" s="16">
+        <v>19</v>
+      </c>
+      <c r="E493" s="11">
+        <v>70</v>
+      </c>
+      <c r="F493" s="11">
+        <v>0</v>
+      </c>
+      <c r="G493" s="11">
+        <v>0</v>
+      </c>
+      <c r="H493" s="11">
+        <v>5</v>
+      </c>
+      <c r="J493" s="11">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A494" s="7">
+        <v>4</v>
+      </c>
+      <c r="B494" s="7">
+        <v>493</v>
+      </c>
+      <c r="C494" s="8">
+        <v>45865</v>
+      </c>
+      <c r="D494" s="16">
+        <v>9</v>
+      </c>
+      <c r="E494" s="11">
+        <v>73.5</v>
+      </c>
+      <c r="F494" s="11">
+        <v>0.63</v>
+      </c>
+      <c r="G494" s="11">
+        <v>0</v>
+      </c>
+      <c r="H494" s="11">
+        <v>9</v>
+      </c>
+      <c r="J494" s="11">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A495" s="7">
+        <v>5</v>
+      </c>
+      <c r="B495" s="7">
+        <v>494</v>
+      </c>
+      <c r="C495" s="8">
+        <v>45866</v>
+      </c>
+      <c r="D495" s="16">
+        <v>25</v>
+      </c>
+      <c r="E495" s="11">
+        <v>71</v>
+      </c>
+      <c r="F495" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="G495" s="11">
+        <v>0</v>
+      </c>
+      <c r="H495" s="11">
+        <v>10</v>
+      </c>
+      <c r="J495" s="11">
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A496" s="7">
+        <v>6</v>
+      </c>
+      <c r="B496" s="7">
+        <v>495</v>
+      </c>
+      <c r="C496" s="8">
+        <v>45867</v>
+      </c>
+      <c r="D496" s="16">
+        <v>29</v>
+      </c>
+      <c r="E496" s="11">
+        <v>73.5</v>
+      </c>
+      <c r="F496" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="G496" s="11">
+        <v>0</v>
+      </c>
+      <c r="H496" s="11">
+        <v>9</v>
+      </c>
+      <c r="J496" s="11">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A497" s="7">
+        <v>7</v>
+      </c>
+      <c r="B497" s="7">
+        <v>496</v>
+      </c>
+      <c r="C497" s="8">
+        <v>45868</v>
+      </c>
+      <c r="D497" s="16">
+        <v>28</v>
+      </c>
+      <c r="E497" s="11">
+        <v>73</v>
+      </c>
+      <c r="F497" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="G497" s="11">
+        <v>0</v>
+      </c>
+      <c r="H497" s="11">
+        <v>8</v>
+      </c>
+      <c r="J497" s="11">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A498" s="7">
+        <v>1</v>
+      </c>
+      <c r="B498" s="7">
+        <v>497</v>
+      </c>
+      <c r="C498" s="8">
+        <v>45869</v>
+      </c>
+      <c r="D498" s="16">
+        <v>41</v>
+      </c>
+      <c r="E498" s="11">
+        <v>70</v>
+      </c>
+      <c r="F498" s="11">
+        <v>0</v>
+      </c>
+      <c r="G498" s="11">
+        <v>0</v>
+      </c>
+      <c r="H498" s="11">
+        <v>9</v>
+      </c>
+      <c r="J498" s="11">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A499" s="7">
+        <v>2</v>
+      </c>
+      <c r="B499" s="7">
+        <v>498</v>
+      </c>
+      <c r="C499" s="8">
+        <v>45870</v>
+      </c>
+      <c r="D499" s="16">
+        <v>31</v>
+      </c>
+      <c r="E499" s="11">
+        <v>70</v>
+      </c>
+      <c r="F499" s="11">
+        <v>0</v>
+      </c>
+      <c r="G499" s="11">
+        <v>0</v>
+      </c>
+      <c r="H499" s="11">
+        <v>8</v>
+      </c>
+      <c r="J499" s="11">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A500" s="7">
+        <v>3</v>
+      </c>
+      <c r="B500" s="7">
+        <v>499</v>
+      </c>
+      <c r="C500" s="8">
+        <v>45871</v>
+      </c>
+      <c r="D500" s="16">
+        <v>19</v>
+      </c>
+      <c r="E500" s="11">
+        <v>69</v>
+      </c>
+      <c r="F500" s="11">
+        <v>0</v>
+      </c>
+      <c r="G500" s="11">
+        <v>0</v>
+      </c>
+      <c r="H500" s="11">
+        <v>4</v>
+      </c>
+      <c r="J500" s="11">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A501" s="7">
+        <v>4</v>
+      </c>
+      <c r="B501" s="7">
+        <v>500</v>
+      </c>
+      <c r="C501" s="8">
+        <v>45872</v>
+      </c>
+      <c r="D501" s="16">
+        <v>20</v>
+      </c>
+      <c r="E501" s="11">
+        <v>71</v>
+      </c>
+      <c r="F501" s="11">
+        <v>0</v>
+      </c>
+      <c r="G501" s="11">
+        <v>0</v>
+      </c>
+      <c r="H501" s="11">
+        <v>6</v>
+      </c>
+      <c r="J501" s="11">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A502" s="7">
+        <v>5</v>
+      </c>
+      <c r="B502" s="7">
+        <v>501</v>
+      </c>
+      <c r="C502" s="8">
+        <v>45873</v>
+      </c>
+      <c r="D502" s="16">
+        <v>20</v>
+      </c>
+      <c r="E502" s="11">
+        <v>74.5</v>
+      </c>
+      <c r="F502" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="G502" s="11">
+        <v>0</v>
+      </c>
+      <c r="H502" s="11">
+        <v>5</v>
+      </c>
+      <c r="J502" s="11">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A503" s="7">
+        <v>6</v>
+      </c>
+      <c r="B503" s="7">
+        <v>502</v>
+      </c>
+      <c r="C503" s="8">
+        <v>45874</v>
+      </c>
+      <c r="D503" s="16">
+        <v>18</v>
+      </c>
+      <c r="E503" s="11">
+        <v>73.5</v>
+      </c>
+      <c r="F503" s="11">
+        <v>0.39</v>
+      </c>
+      <c r="G503" s="11">
+        <v>0</v>
+      </c>
+      <c r="H503" s="11">
+        <v>5</v>
+      </c>
+      <c r="J503" s="11">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A504" s="7">
+        <v>7</v>
+      </c>
+      <c r="B504" s="7">
+        <v>503</v>
+      </c>
+      <c r="C504" s="8">
+        <v>45875</v>
+      </c>
+      <c r="D504" s="16">
+        <v>30</v>
+      </c>
+      <c r="E504" s="11">
+        <v>69</v>
+      </c>
+      <c r="F504" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="G504" s="11">
+        <v>0</v>
+      </c>
+      <c r="H504" s="11">
+        <v>9</v>
+      </c>
+      <c r="J504" s="11">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A505" s="7">
+        <v>6</v>
+      </c>
+      <c r="B505" s="7">
+        <v>504</v>
+      </c>
+      <c r="C505" s="8">
+        <v>45876</v>
+      </c>
+      <c r="D505" s="16">
+        <v>19</v>
+      </c>
+      <c r="E505" s="11">
+        <v>68.5</v>
+      </c>
+      <c r="F505" s="11">
+        <v>0</v>
+      </c>
+      <c r="G505" s="11">
+        <v>0</v>
+      </c>
+      <c r="H505" s="11">
+        <v>5</v>
+      </c>
+      <c r="J505" s="11">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A506" s="7">
+        <v>7</v>
+      </c>
+      <c r="B506" s="7">
+        <v>505</v>
+      </c>
+      <c r="C506" s="8">
+        <v>45877</v>
+      </c>
+      <c r="D506" s="16">
+        <v>15</v>
+      </c>
+      <c r="E506" s="11">
+        <v>69.5</v>
+      </c>
+      <c r="F506" s="11">
+        <v>0</v>
+      </c>
+      <c r="G506" s="11">
+        <v>0</v>
+      </c>
+      <c r="H506" s="11">
+        <v>6</v>
+      </c>
+      <c r="J506" s="11">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A507" s="7">
+        <v>1</v>
+      </c>
+      <c r="B507" s="7">
+        <v>506</v>
+      </c>
+      <c r="C507" s="8">
+        <v>45878</v>
+      </c>
+      <c r="D507" s="16">
+        <v>17</v>
+      </c>
+      <c r="E507" s="11">
+        <v>72</v>
+      </c>
+      <c r="F507" s="11">
+        <v>0.26</v>
+      </c>
+      <c r="G507" s="11">
+        <v>0</v>
+      </c>
+      <c r="H507" s="11">
+        <v>15</v>
+      </c>
+      <c r="J507" s="11">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A508" s="7">
+        <v>2</v>
+      </c>
+      <c r="B508" s="7">
+        <v>507</v>
+      </c>
+      <c r="C508" s="8">
+        <v>45879</v>
+      </c>
+      <c r="D508" s="16">
+        <v>11</v>
+      </c>
+      <c r="E508" s="11">
+        <v>74.5</v>
+      </c>
+      <c r="F508" s="11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G508" s="11">
+        <v>0</v>
+      </c>
+      <c r="H508" s="11">
+        <v>12</v>
+      </c>
+      <c r="J508" s="11">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A509" s="7">
+        <v>3</v>
+      </c>
+      <c r="B509" s="7">
+        <v>508</v>
+      </c>
+      <c r="C509" s="8">
+        <v>45880</v>
+      </c>
+      <c r="D509" s="16">
+        <v>10</v>
+      </c>
+      <c r="E509" s="11">
+        <v>69.5</v>
+      </c>
+      <c r="F509" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="G509" s="11">
+        <v>0</v>
+      </c>
+      <c r="H509" s="11">
+        <v>8</v>
+      </c>
+      <c r="J509" s="11">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A510" s="7">
+        <v>4</v>
+      </c>
+      <c r="B510" s="7">
+        <v>509</v>
+      </c>
+      <c r="C510" s="8">
+        <v>45881</v>
+      </c>
+      <c r="D510" s="16">
+        <v>23</v>
+      </c>
+      <c r="E510" s="11">
+        <v>71.5</v>
+      </c>
+      <c r="F510" s="11">
+        <v>0</v>
+      </c>
+      <c r="G510" s="11">
+        <v>0</v>
+      </c>
+      <c r="H510" s="11">
+        <v>5</v>
+      </c>
+      <c r="J510" s="11">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A511" s="7">
+        <v>5</v>
+      </c>
+      <c r="B511" s="7">
+        <v>510</v>
+      </c>
+      <c r="C511" s="8">
+        <v>45882</v>
+      </c>
+      <c r="D511" s="16">
+        <v>24</v>
+      </c>
+      <c r="E511" s="11">
+        <v>74</v>
+      </c>
+      <c r="F511" s="11">
+        <v>0</v>
+      </c>
+      <c r="G511" s="11">
+        <v>0</v>
+      </c>
+      <c r="H511" s="11">
+        <v>5</v>
+      </c>
+      <c r="J511" s="11">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A512" s="7"/>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="7"/>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="7"/>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="7"/>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="7"/>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="7"/>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="7"/>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="7"/>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13202,10 +14494,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6638D5E3-C858-457D-8856-EE1DEA6B94D7}">
-  <dimension ref="B4:P28"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6:P25"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8:P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13213,1037 +14505,2327 @@
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="29">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="29">
         <v>0.85</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="26" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="26" t="s">
+      <c r="P1" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
-        <v>45819</v>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" s="27">
+        <v>45839</v>
+      </c>
+      <c r="C2" s="18">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>27</v>
+      </c>
+      <c r="H2">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>14</v>
+      </c>
+      <c r="K2">
+        <v>13</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>19</v>
+      </c>
+      <c r="N2">
+        <v>21</v>
+      </c>
+      <c r="O2" s="25">
+        <f t="shared" ref="O2:O25" si="0">ROUND(AVERAGE(C2:N2),0)</f>
+        <v>18</v>
+      </c>
+      <c r="P2" s="25">
+        <f t="shared" ref="P2:P26" si="1">ROUND(_xlfn.STDEV.P(D2:O2),2)</f>
+        <v>4.51</v>
+      </c>
+      <c r="Q2">
+        <f>O2-A2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3" s="27">
+        <v>45840</v>
+      </c>
+      <c r="C3" s="18">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>26</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>17</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>24</v>
+      </c>
+      <c r="O3" s="25">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="P3" s="25">
+        <f t="shared" si="1"/>
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q7" si="2">O3-A3</f>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="27">
+        <v>45841</v>
+      </c>
+      <c r="C4" s="18">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>29</v>
+      </c>
+      <c r="I4">
+        <v>27</v>
+      </c>
+      <c r="J4">
+        <v>31</v>
+      </c>
+      <c r="K4">
+        <v>14</v>
+      </c>
+      <c r="L4">
+        <v>30</v>
+      </c>
+      <c r="M4">
+        <v>11</v>
+      </c>
+      <c r="N4">
+        <v>19</v>
+      </c>
+      <c r="O4" s="25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="P4" s="25">
+        <f t="shared" si="1"/>
+        <v>7.02</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="27">
+        <v>45842</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>12</v>
+      </c>
+      <c r="O5" s="25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P5" s="25">
+        <f t="shared" si="1"/>
+        <v>5.66</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" s="27">
+        <v>45843</v>
       </c>
       <c r="C6" s="18">
         <v>2</v>
       </c>
-      <c r="D6" s="19">
-        <v>1</v>
-      </c>
-      <c r="E6" s="19">
-        <v>7</v>
-      </c>
-      <c r="F6" s="19">
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>14</v>
+      </c>
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="G6" s="19">
-        <v>2</v>
-      </c>
-      <c r="H6" s="24">
-        <v>0</v>
-      </c>
-      <c r="I6" s="19">
-        <v>5</v>
-      </c>
-      <c r="J6" s="19">
-        <v>2</v>
-      </c>
-      <c r="K6" s="19">
+      <c r="K6">
         <v>9</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>-7</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6" s="25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P6" s="25">
+        <f t="shared" si="1"/>
+        <v>5.9</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7" s="27">
+        <v>45844</v>
+      </c>
+      <c r="C7" s="18">
+        <v>11</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="M6" s="19">
-        <v>3</v>
-      </c>
-      <c r="N6" s="20">
-        <v>3</v>
-      </c>
-      <c r="O6" s="27">
-        <f>ROUND(AVERAGE(C6:N6),0)</f>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>14</v>
+      </c>
+      <c r="J7">
         <v>4</v>
       </c>
-      <c r="P6" s="27">
-        <f>ROUND(_xlfn.STDEV.P(D6:O6),2)</f>
-        <v>2.4300000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C7" s="18">
-        <v>0</v>
-      </c>
-      <c r="D7" s="19">
-        <v>9</v>
-      </c>
-      <c r="E7" s="19">
-        <v>6</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0</v>
-      </c>
-      <c r="G7" s="19">
-        <v>3</v>
-      </c>
-      <c r="H7" s="24">
-        <v>5</v>
-      </c>
-      <c r="I7" s="19">
-        <v>2</v>
-      </c>
-      <c r="J7" s="19">
-        <v>9</v>
-      </c>
-      <c r="K7" s="19">
-        <v>6</v>
-      </c>
-      <c r="L7" s="19">
+      <c r="K7">
         <v>4</v>
       </c>
-      <c r="M7" s="19">
-        <v>6</v>
-      </c>
-      <c r="N7" s="20">
-        <v>2</v>
-      </c>
-      <c r="O7" s="27">
-        <f t="shared" ref="O7:O24" si="0">ROUND(AVERAGE(C7:N7),0)</f>
-        <v>4</v>
-      </c>
-      <c r="P7" s="27">
-        <f t="shared" ref="P7:P26" si="1">ROUND(_xlfn.STDEV.P(D7:O7),2)</f>
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C8" s="18">
-        <v>16</v>
-      </c>
-      <c r="D8" s="19">
-        <v>21</v>
-      </c>
-      <c r="E8" s="19">
-        <v>7</v>
-      </c>
-      <c r="F8" s="19">
-        <v>11</v>
-      </c>
-      <c r="G8" s="19">
+      <c r="L7">
+        <v>17</v>
+      </c>
+      <c r="M7">
         <v>10</v>
       </c>
-      <c r="H8" s="24">
-        <v>2</v>
-      </c>
-      <c r="I8" s="19">
-        <v>7</v>
-      </c>
-      <c r="J8" s="19">
-        <v>14</v>
-      </c>
-      <c r="K8" s="19">
-        <v>7</v>
-      </c>
-      <c r="L8" s="19">
-        <v>7</v>
-      </c>
-      <c r="M8" s="19">
+      <c r="N7">
         <v>8</v>
       </c>
-      <c r="N8" s="20">
-        <v>1</v>
-      </c>
-      <c r="O8" s="27">
+      <c r="O7" s="25">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P7" s="25">
         <f t="shared" si="1"/>
-        <v>5.0199999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+        <v>5.36</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="27">
+        <v>45845</v>
+      </c>
+      <c r="C8" s="18">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>21</v>
+      </c>
+      <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>34</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>32</v>
+      </c>
+      <c r="L8">
+        <v>36</v>
+      </c>
+      <c r="M8">
+        <v>39</v>
+      </c>
+      <c r="N8">
+        <v>23</v>
+      </c>
+      <c r="O8" s="25">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="P8" s="25">
+        <f t="shared" si="1"/>
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="27">
+        <v>45846</v>
+      </c>
       <c r="C9" s="18">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>23</v>
+      </c>
+      <c r="G9">
+        <v>79</v>
+      </c>
+      <c r="H9">
+        <v>45</v>
+      </c>
+      <c r="I9">
+        <v>16</v>
+      </c>
+      <c r="J9">
+        <v>29</v>
+      </c>
+      <c r="K9">
+        <v>23</v>
+      </c>
+      <c r="L9">
+        <v>48</v>
+      </c>
+      <c r="M9">
+        <v>78</v>
+      </c>
+      <c r="N9">
+        <v>36</v>
+      </c>
+      <c r="O9" s="25">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="P9" s="25">
+        <f t="shared" si="1"/>
+        <v>19.93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="27">
+        <v>45847</v>
+      </c>
+      <c r="C10" s="18">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>29</v>
+      </c>
+      <c r="I10">
+        <v>24</v>
+      </c>
+      <c r="J10">
+        <v>28</v>
+      </c>
+      <c r="K10">
+        <v>25</v>
+      </c>
+      <c r="L10">
+        <v>31</v>
+      </c>
+      <c r="M10">
+        <v>26</v>
+      </c>
+      <c r="N10">
+        <v>21</v>
+      </c>
+      <c r="O10" s="25">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="P10" s="25">
+        <f t="shared" si="1"/>
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="27">
+        <v>45848</v>
+      </c>
+      <c r="C11" s="18">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>41</v>
+      </c>
+      <c r="E11">
+        <v>37</v>
+      </c>
+      <c r="F11">
+        <v>23</v>
+      </c>
+      <c r="G11">
+        <v>21</v>
+      </c>
+      <c r="H11">
+        <v>29</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>43</v>
+      </c>
+      <c r="K11">
+        <v>26</v>
+      </c>
+      <c r="L11">
+        <v>28</v>
+      </c>
+      <c r="M11">
+        <v>31</v>
+      </c>
+      <c r="N11">
+        <v>25</v>
+      </c>
+      <c r="O11" s="25">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="P11" s="25">
+        <f t="shared" si="1"/>
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="27">
+        <v>45849</v>
+      </c>
+      <c r="C12" s="18">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
         <v>15</v>
       </c>
-      <c r="D9" s="19">
-        <v>16</v>
-      </c>
-      <c r="E9" s="19">
+      <c r="K12">
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <v>17</v>
+      </c>
+      <c r="M12">
+        <v>9</v>
+      </c>
+      <c r="N12">
         <v>14</v>
       </c>
-      <c r="F9" s="19">
-        <v>16</v>
-      </c>
-      <c r="G9" s="19">
+      <c r="O12" s="25">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="P12" s="25">
+        <f t="shared" si="1"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="27">
+        <v>45850</v>
+      </c>
+      <c r="C13" s="18">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>36</v>
+      </c>
+      <c r="F13">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>29</v>
+      </c>
+      <c r="J13">
+        <v>45</v>
+      </c>
+      <c r="K13">
+        <v>36</v>
+      </c>
+      <c r="L13">
+        <v>19</v>
+      </c>
+      <c r="M13">
+        <v>23</v>
+      </c>
+      <c r="N13">
+        <v>30</v>
+      </c>
+      <c r="O13" s="25">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="P13" s="25">
+        <f t="shared" si="1"/>
+        <v>9.2899999999999991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="27">
+        <v>45851</v>
+      </c>
+      <c r="C14" s="18">
+        <v>27</v>
+      </c>
+      <c r="D14">
         <v>17</v>
       </c>
-      <c r="H9" s="24">
+      <c r="E14">
+        <v>21</v>
+      </c>
+      <c r="F14">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>17</v>
+      </c>
+      <c r="H14">
+        <v>21</v>
+      </c>
+      <c r="I14">
+        <v>22</v>
+      </c>
+      <c r="J14">
+        <v>21</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <v>42</v>
+      </c>
+      <c r="M14">
+        <v>28</v>
+      </c>
+      <c r="N14">
+        <v>28</v>
+      </c>
+      <c r="O14" s="25">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="I9" s="19">
+      <c r="P14" s="25">
+        <f t="shared" si="1"/>
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="27">
+        <v>45852</v>
+      </c>
+      <c r="C15" s="18">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
+      <c r="F15">
         <v>21</v>
       </c>
-      <c r="J9" s="19">
-        <v>16</v>
-      </c>
-      <c r="K9" s="19">
-        <v>16</v>
-      </c>
-      <c r="L9" s="19">
-        <v>13</v>
-      </c>
-      <c r="M9" s="19">
+      <c r="G15">
+        <v>19</v>
+      </c>
+      <c r="H15">
+        <v>18</v>
+      </c>
+      <c r="I15">
         <v>23</v>
       </c>
-      <c r="N9" s="20">
+      <c r="J15">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <v>12</v>
+      </c>
+      <c r="L15">
+        <v>23</v>
+      </c>
+      <c r="M15">
+        <v>32</v>
+      </c>
+      <c r="N15">
+        <v>33</v>
+      </c>
+      <c r="O15" s="25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="P15" s="25">
+        <f t="shared" si="1"/>
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="27">
+        <v>45853</v>
+      </c>
+      <c r="C16" s="18">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <v>54</v>
+      </c>
+      <c r="F16">
+        <v>35</v>
+      </c>
+      <c r="G16">
+        <v>39</v>
+      </c>
+      <c r="H16">
+        <v>79</v>
+      </c>
+      <c r="I16">
+        <v>38</v>
+      </c>
+      <c r="J16">
+        <v>75</v>
+      </c>
+      <c r="K16">
+        <v>36</v>
+      </c>
+      <c r="L16">
+        <v>44</v>
+      </c>
+      <c r="M16">
+        <v>37</v>
+      </c>
+      <c r="N16">
+        <v>36</v>
+      </c>
+      <c r="O16" s="25">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="P16" s="25">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="27">
+        <v>45854</v>
+      </c>
+      <c r="C17" s="18">
+        <v>22</v>
+      </c>
+      <c r="D17">
         <v>17</v>
       </c>
-      <c r="O9" s="27">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="P9" s="27">
-        <f t="shared" si="1"/>
-        <v>3.09</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C10" s="18">
-        <v>44</v>
-      </c>
-      <c r="D10" s="19">
-        <v>96</v>
-      </c>
-      <c r="E10" s="19">
-        <v>33</v>
-      </c>
-      <c r="F10" s="19">
-        <v>55</v>
-      </c>
-      <c r="G10" s="19">
-        <v>87</v>
-      </c>
-      <c r="H10" s="24">
-        <v>68</v>
-      </c>
-      <c r="I10" s="19">
-        <v>49</v>
-      </c>
-      <c r="J10" s="19">
-        <v>93</v>
-      </c>
-      <c r="K10" s="19">
-        <v>85</v>
-      </c>
-      <c r="L10" s="19">
-        <v>69</v>
-      </c>
-      <c r="M10" s="19">
-        <v>82</v>
-      </c>
-      <c r="N10" s="20">
-        <v>39</v>
-      </c>
-      <c r="O10" s="27">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="P10" s="27">
-        <f t="shared" si="1"/>
-        <v>20.100000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C11" s="18">
-        <v>17</v>
-      </c>
-      <c r="D11" s="19">
-        <v>11</v>
-      </c>
-      <c r="E11" s="19">
-        <v>15</v>
-      </c>
-      <c r="F11" s="19">
-        <v>13</v>
-      </c>
-      <c r="G11" s="19">
+      <c r="E17">
         <v>18</v>
       </c>
-      <c r="H11" s="24">
-        <v>15</v>
-      </c>
-      <c r="I11" s="19">
-        <v>16</v>
-      </c>
-      <c r="J11" s="19">
-        <v>44</v>
-      </c>
-      <c r="K11" s="19">
-        <v>19</v>
-      </c>
-      <c r="L11" s="19">
-        <v>13</v>
-      </c>
-      <c r="M11" s="19">
-        <v>24</v>
-      </c>
-      <c r="N11" s="20">
+      <c r="F17">
+        <v>22</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>18</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>30</v>
+      </c>
+      <c r="K17">
+        <v>22</v>
+      </c>
+      <c r="L17">
+        <v>22</v>
+      </c>
+      <c r="M17">
         <v>21</v>
       </c>
-      <c r="O11" s="27">
+      <c r="N17">
+        <v>12</v>
+      </c>
+      <c r="O17" s="25">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="P11" s="27">
+      <c r="P17" s="25">
         <f t="shared" si="1"/>
-        <v>8.33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C12" s="18">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="27">
+        <v>45855</v>
+      </c>
+      <c r="C18" s="18">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>26</v>
+      </c>
+      <c r="F18">
+        <v>23</v>
+      </c>
+      <c r="G18">
+        <v>14</v>
+      </c>
+      <c r="H18">
+        <v>19</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>16</v>
+      </c>
+      <c r="K18">
+        <v>24</v>
+      </c>
+      <c r="L18">
+        <v>25</v>
+      </c>
+      <c r="M18">
+        <v>47</v>
+      </c>
+      <c r="N18">
+        <v>18</v>
+      </c>
+      <c r="O18" s="25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="P18" s="25">
+        <f t="shared" si="1"/>
+        <v>8.02</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="27">
+        <v>45856</v>
+      </c>
+      <c r="C19" s="18">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <v>11</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
         <v>15</v>
       </c>
-      <c r="D12" s="19">
-        <v>12</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="J19">
+        <v>17</v>
+      </c>
+      <c r="K19">
+        <v>16</v>
+      </c>
+      <c r="L19">
+        <v>20</v>
+      </c>
+      <c r="M19">
+        <v>19</v>
+      </c>
+      <c r="N19">
+        <v>6</v>
+      </c>
+      <c r="O19" s="25">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="P19" s="25">
+        <f t="shared" si="1"/>
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="27">
+        <v>45857</v>
+      </c>
+      <c r="C20" s="18">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>34</v>
+      </c>
+      <c r="F20">
+        <v>24</v>
+      </c>
+      <c r="G20">
+        <v>17</v>
+      </c>
+      <c r="H20">
         <v>22</v>
       </c>
-      <c r="F12" s="19">
+      <c r="I20">
         <v>28</v>
       </c>
-      <c r="G12" s="19">
-        <v>13</v>
-      </c>
-      <c r="H12" s="24">
-        <v>12</v>
-      </c>
-      <c r="I12" s="19">
+      <c r="J20">
+        <v>40</v>
+      </c>
+      <c r="K20">
+        <v>46</v>
+      </c>
+      <c r="L20">
+        <v>28</v>
+      </c>
+      <c r="M20">
+        <v>25</v>
+      </c>
+      <c r="N20">
+        <v>31</v>
+      </c>
+      <c r="O20" s="25">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="P20" s="25">
+        <f t="shared" si="1"/>
+        <v>8.0299999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="27">
+        <v>45858</v>
+      </c>
+      <c r="C21" s="18">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>22</v>
+      </c>
+      <c r="F21">
+        <v>25</v>
+      </c>
+      <c r="G21">
+        <v>21</v>
+      </c>
+      <c r="H21">
+        <v>22</v>
+      </c>
+      <c r="I21">
         <v>16</v>
       </c>
-      <c r="J12" s="19">
-        <v>26</v>
-      </c>
-      <c r="K12" s="19">
-        <v>14</v>
-      </c>
-      <c r="L12" s="19">
-        <v>11</v>
-      </c>
-      <c r="M12" s="19">
+      <c r="J21">
         <v>21</v>
       </c>
-      <c r="N12" s="20">
-        <v>27</v>
-      </c>
-      <c r="O12" s="27">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="P12" s="27">
-        <f t="shared" si="1"/>
-        <v>6.02</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C13" s="18">
-        <v>12</v>
-      </c>
-      <c r="D13" s="19">
-        <v>8</v>
-      </c>
-      <c r="E13" s="19">
-        <v>11</v>
-      </c>
-      <c r="F13" s="19">
-        <v>2</v>
-      </c>
-      <c r="G13" s="19">
-        <v>4</v>
-      </c>
-      <c r="H13" s="24">
-        <v>7</v>
-      </c>
-      <c r="I13" s="19">
-        <v>6</v>
-      </c>
-      <c r="J13" s="19">
-        <v>11</v>
-      </c>
-      <c r="K13" s="19">
-        <v>3</v>
-      </c>
-      <c r="L13" s="19">
-        <v>9</v>
-      </c>
-      <c r="M13" s="19">
-        <v>5</v>
-      </c>
-      <c r="N13" s="20">
-        <v>0</v>
-      </c>
-      <c r="O13" s="27">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="P13" s="27">
-        <f t="shared" si="1"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C14" s="18">
-        <v>17</v>
-      </c>
-      <c r="D14" s="19">
+      <c r="K21">
+        <v>21</v>
+      </c>
+      <c r="L21">
+        <v>21</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21">
         <v>16</v>
       </c>
-      <c r="E14" s="19">
-        <v>16</v>
-      </c>
-      <c r="F14" s="19">
-        <v>34</v>
-      </c>
-      <c r="G14" s="19">
-        <v>22</v>
-      </c>
-      <c r="H14" s="24">
-        <v>21</v>
-      </c>
-      <c r="I14" s="19">
-        <v>15</v>
-      </c>
-      <c r="J14" s="19">
-        <v>20</v>
-      </c>
-      <c r="K14" s="19">
-        <v>20</v>
-      </c>
-      <c r="L14" s="19">
-        <v>18</v>
-      </c>
-      <c r="M14" s="19">
-        <v>22</v>
-      </c>
-      <c r="N14" s="20">
-        <v>19</v>
-      </c>
-      <c r="O14" s="27">
+      <c r="O21" s="25">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="P14" s="27">
+      <c r="P21" s="25">
+        <f t="shared" si="1"/>
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="27">
+        <v>45859</v>
+      </c>
+      <c r="C22" s="18">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>17</v>
+      </c>
+      <c r="G22">
+        <v>14</v>
+      </c>
+      <c r="H22">
+        <v>17</v>
+      </c>
+      <c r="I22">
+        <v>11</v>
+      </c>
+      <c r="J22">
+        <v>17</v>
+      </c>
+      <c r="K22">
+        <v>13</v>
+      </c>
+      <c r="L22">
+        <v>13</v>
+      </c>
+      <c r="M22">
+        <v>17</v>
+      </c>
+      <c r="N22">
+        <v>14</v>
+      </c>
+      <c r="O22" s="25">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="P22" s="25">
+        <f t="shared" si="1"/>
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="27">
+        <v>45860</v>
+      </c>
+      <c r="C23" s="18">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <v>31</v>
+      </c>
+      <c r="F23">
+        <v>29</v>
+      </c>
+      <c r="G23">
+        <v>18</v>
+      </c>
+      <c r="H23">
+        <v>30</v>
+      </c>
+      <c r="I23">
+        <v>25</v>
+      </c>
+      <c r="J23">
+        <v>38</v>
+      </c>
+      <c r="K23">
+        <v>28</v>
+      </c>
+      <c r="L23">
+        <v>24</v>
+      </c>
+      <c r="M23">
+        <v>19</v>
+      </c>
+      <c r="N23">
+        <v>18</v>
+      </c>
+      <c r="O23" s="25">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="P23" s="25">
+        <f t="shared" si="1"/>
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="27">
+        <v>45861</v>
+      </c>
+      <c r="C24" s="18">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>17</v>
+      </c>
+      <c r="G24">
+        <v>22</v>
+      </c>
+      <c r="H24">
+        <v>16</v>
+      </c>
+      <c r="I24">
+        <v>11</v>
+      </c>
+      <c r="J24">
+        <v>21</v>
+      </c>
+      <c r="K24">
+        <v>13</v>
+      </c>
+      <c r="L24">
+        <v>22</v>
+      </c>
+      <c r="M24">
+        <v>11</v>
+      </c>
+      <c r="N24">
+        <v>12</v>
+      </c>
+      <c r="O24" s="25">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="P24" s="25">
+        <f t="shared" si="1"/>
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="27">
+        <v>45862</v>
+      </c>
+      <c r="C25" s="18">
+        <v>52</v>
+      </c>
+      <c r="D25">
+        <v>51</v>
+      </c>
+      <c r="E25">
+        <v>65</v>
+      </c>
+      <c r="F25">
+        <v>36</v>
+      </c>
+      <c r="G25">
+        <v>82</v>
+      </c>
+      <c r="H25">
+        <v>78</v>
+      </c>
+      <c r="I25">
+        <v>39</v>
+      </c>
+      <c r="J25">
+        <v>86</v>
+      </c>
+      <c r="K25">
+        <v>46</v>
+      </c>
+      <c r="L25">
+        <v>54</v>
+      </c>
+      <c r="M25">
+        <v>88</v>
+      </c>
+      <c r="N25">
+        <v>38</v>
+      </c>
+      <c r="O25" s="25">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="P25" s="25">
+        <f t="shared" si="1"/>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="27">
+        <v>45863</v>
+      </c>
+      <c r="C26" s="18">
+        <v>25</v>
+      </c>
+      <c r="D26" s="18">
+        <v>27</v>
+      </c>
+      <c r="E26" s="18">
+        <v>26</v>
+      </c>
+      <c r="F26" s="18">
+        <v>21</v>
+      </c>
+      <c r="G26" s="18">
+        <v>33</v>
+      </c>
+      <c r="H26" s="22">
+        <v>25</v>
+      </c>
+      <c r="I26" s="18">
+        <v>27</v>
+      </c>
+      <c r="J26" s="18">
+        <v>30</v>
+      </c>
+      <c r="K26" s="18">
+        <v>31</v>
+      </c>
+      <c r="L26" s="18">
+        <v>29</v>
+      </c>
+      <c r="M26" s="18">
+        <v>41</v>
+      </c>
+      <c r="N26" s="19">
+        <v>27</v>
+      </c>
+      <c r="O26" s="25">
+        <f t="shared" ref="O26:O45" si="3">ROUND(AVERAGE(C26:N26),0)</f>
+        <v>29</v>
+      </c>
+      <c r="P26" s="25">
         <f t="shared" si="1"/>
         <v>4.71</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C15" s="18">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="27">
+        <v>45864</v>
+      </c>
+      <c r="C27" s="18">
+        <v>21</v>
+      </c>
+      <c r="D27" s="18">
+        <v>14</v>
+      </c>
+      <c r="E27" s="18">
+        <v>23</v>
+      </c>
+      <c r="F27" s="18">
+        <v>18</v>
+      </c>
+      <c r="G27" s="18">
+        <v>19</v>
+      </c>
+      <c r="H27" s="22">
+        <v>16</v>
+      </c>
+      <c r="I27" s="18">
+        <v>18</v>
+      </c>
+      <c r="J27" s="18">
         <v>12</v>
       </c>
-      <c r="D15" s="19">
+      <c r="K27" s="18">
+        <v>22</v>
+      </c>
+      <c r="L27" s="18">
+        <v>18</v>
+      </c>
+      <c r="M27" s="18">
+        <v>40</v>
+      </c>
+      <c r="N27" s="19">
+        <v>12</v>
+      </c>
+      <c r="O27" s="25">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="P27" s="25">
+        <f t="shared" ref="P27:P47" si="4">ROUND(_xlfn.STDEV.P(D27:O27),2)</f>
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="27">
+        <v>45865</v>
+      </c>
+      <c r="C28" s="18">
+        <v>18</v>
+      </c>
+      <c r="D28" s="18">
+        <v>10</v>
+      </c>
+      <c r="E28" s="18">
+        <v>11</v>
+      </c>
+      <c r="F28" s="18">
+        <v>7</v>
+      </c>
+      <c r="G28" s="18">
+        <v>11</v>
+      </c>
+      <c r="H28" s="22">
+        <v>11</v>
+      </c>
+      <c r="I28" s="18">
+        <v>4</v>
+      </c>
+      <c r="J28" s="18">
+        <v>8</v>
+      </c>
+      <c r="K28" s="18">
+        <v>2</v>
+      </c>
+      <c r="L28" s="18">
+        <v>8</v>
+      </c>
+      <c r="M28" s="18">
+        <v>11</v>
+      </c>
+      <c r="N28" s="19">
+        <v>7</v>
+      </c>
+      <c r="O28" s="25">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="P28" s="25">
+        <f t="shared" si="4"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="27">
+        <v>45866</v>
+      </c>
+      <c r="C29" s="18">
+        <v>19</v>
+      </c>
+      <c r="D29" s="18">
+        <v>25</v>
+      </c>
+      <c r="E29" s="18">
+        <v>50</v>
+      </c>
+      <c r="F29" s="18">
+        <v>26</v>
+      </c>
+      <c r="G29" s="18">
+        <v>27</v>
+      </c>
+      <c r="H29" s="22">
+        <v>24</v>
+      </c>
+      <c r="I29" s="18">
+        <v>18</v>
+      </c>
+      <c r="J29" s="18">
+        <v>30</v>
+      </c>
+      <c r="K29" s="18">
+        <v>25</v>
+      </c>
+      <c r="L29" s="18">
         <v>23</v>
       </c>
-      <c r="E15" s="19">
+      <c r="M29" s="18">
+        <v>11</v>
+      </c>
+      <c r="N29" s="19">
+        <v>16</v>
+      </c>
+      <c r="O29" s="25">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="P29" s="25">
+        <f t="shared" si="4"/>
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="27">
+        <v>45867</v>
+      </c>
+      <c r="C30" s="18">
+        <v>26</v>
+      </c>
+      <c r="D30" s="18">
+        <v>20</v>
+      </c>
+      <c r="E30" s="18">
+        <v>30</v>
+      </c>
+      <c r="F30" s="18">
+        <v>34</v>
+      </c>
+      <c r="G30" s="18">
         <v>21</v>
       </c>
-      <c r="F15" s="19">
+      <c r="H30" s="22">
+        <v>27</v>
+      </c>
+      <c r="I30" s="18">
+        <v>20</v>
+      </c>
+      <c r="J30" s="18">
+        <v>33</v>
+      </c>
+      <c r="K30" s="18">
+        <v>28</v>
+      </c>
+      <c r="L30" s="18">
+        <v>41</v>
+      </c>
+      <c r="M30" s="18">
+        <v>35</v>
+      </c>
+      <c r="N30" s="19">
+        <v>32</v>
+      </c>
+      <c r="O30" s="25">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="P30" s="25">
+        <f t="shared" si="4"/>
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="27">
+        <v>45868</v>
+      </c>
+      <c r="C31" s="18">
+        <v>33</v>
+      </c>
+      <c r="D31" s="18">
+        <v>41</v>
+      </c>
+      <c r="E31" s="18">
+        <v>26</v>
+      </c>
+      <c r="F31" s="18">
+        <v>33</v>
+      </c>
+      <c r="G31" s="18">
+        <v>20</v>
+      </c>
+      <c r="H31" s="22">
+        <v>27</v>
+      </c>
+      <c r="I31" s="18">
+        <v>14</v>
+      </c>
+      <c r="J31" s="18">
+        <v>33</v>
+      </c>
+      <c r="K31" s="18">
+        <v>19</v>
+      </c>
+      <c r="L31" s="18">
+        <v>23</v>
+      </c>
+      <c r="M31" s="18">
+        <v>31</v>
+      </c>
+      <c r="N31" s="19">
+        <v>32</v>
+      </c>
+      <c r="O31" s="25">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="P31" s="25">
+        <f t="shared" si="4"/>
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="27">
+        <v>45869</v>
+      </c>
+      <c r="C32" s="18">
+        <v>40</v>
+      </c>
+      <c r="D32" s="18">
+        <v>49</v>
+      </c>
+      <c r="E32" s="18">
+        <v>50</v>
+      </c>
+      <c r="F32" s="18">
+        <v>36</v>
+      </c>
+      <c r="G32" s="18">
+        <v>37</v>
+      </c>
+      <c r="H32" s="22">
+        <v>33</v>
+      </c>
+      <c r="I32" s="18">
+        <v>40</v>
+      </c>
+      <c r="J32" s="18">
+        <v>32</v>
+      </c>
+      <c r="K32" s="18">
+        <v>40</v>
+      </c>
+      <c r="L32" s="18">
+        <v>44</v>
+      </c>
+      <c r="M32" s="18">
+        <v>44</v>
+      </c>
+      <c r="N32" s="19">
+        <v>42</v>
+      </c>
+      <c r="O32" s="25">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="P32" s="25">
+        <f t="shared" si="4"/>
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="27">
+        <v>45870</v>
+      </c>
+      <c r="C33" s="18">
+        <v>32</v>
+      </c>
+      <c r="D33" s="18">
+        <v>40</v>
+      </c>
+      <c r="E33" s="18">
+        <v>24</v>
+      </c>
+      <c r="F33" s="18">
+        <v>23</v>
+      </c>
+      <c r="G33" s="18">
+        <v>33</v>
+      </c>
+      <c r="H33" s="22">
+        <v>31</v>
+      </c>
+      <c r="I33" s="18">
+        <v>27</v>
+      </c>
+      <c r="J33" s="18">
+        <v>34</v>
+      </c>
+      <c r="K33" s="18">
+        <v>29</v>
+      </c>
+      <c r="L33" s="18">
+        <v>32</v>
+      </c>
+      <c r="M33" s="18">
+        <v>35</v>
+      </c>
+      <c r="N33" s="19">
+        <v>29</v>
+      </c>
+      <c r="O33" s="25">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="P33" s="25">
+        <f t="shared" si="4"/>
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="27">
+        <v>45871</v>
+      </c>
+      <c r="C34" s="18">
+        <v>19</v>
+      </c>
+      <c r="D34" s="18">
         <v>16</v>
       </c>
-      <c r="G15" s="19">
+      <c r="E34" s="18">
+        <v>21</v>
+      </c>
+      <c r="F34" s="18">
+        <v>21</v>
+      </c>
+      <c r="G34" s="18">
+        <v>26</v>
+      </c>
+      <c r="H34" s="22">
+        <v>18</v>
+      </c>
+      <c r="I34" s="18">
+        <v>17</v>
+      </c>
+      <c r="J34" s="18">
+        <v>11</v>
+      </c>
+      <c r="K34" s="18">
+        <v>17</v>
+      </c>
+      <c r="L34" s="18">
+        <v>17</v>
+      </c>
+      <c r="M34" s="18">
+        <v>31</v>
+      </c>
+      <c r="N34" s="19">
+        <v>12</v>
+      </c>
+      <c r="O34" s="25">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="P34" s="25">
+        <f t="shared" si="4"/>
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="27">
+        <v>45872</v>
+      </c>
+      <c r="C35" s="18">
+        <v>20</v>
+      </c>
+      <c r="D35" s="18">
+        <v>15</v>
+      </c>
+      <c r="E35" s="18">
+        <v>21</v>
+      </c>
+      <c r="F35" s="18">
+        <v>17</v>
+      </c>
+      <c r="G35" s="18">
+        <v>23</v>
+      </c>
+      <c r="H35" s="22">
+        <v>18</v>
+      </c>
+      <c r="I35" s="18">
+        <v>20</v>
+      </c>
+      <c r="J35" s="18">
+        <v>18</v>
+      </c>
+      <c r="K35" s="18">
+        <v>15</v>
+      </c>
+      <c r="L35" s="18">
+        <v>19</v>
+      </c>
+      <c r="M35" s="18">
+        <v>28</v>
+      </c>
+      <c r="N35" s="19">
+        <v>25</v>
+      </c>
+      <c r="O35" s="25">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="P35" s="25">
+        <f t="shared" si="4"/>
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="27">
+        <v>45873</v>
+      </c>
+      <c r="C36" s="18">
+        <v>26</v>
+      </c>
+      <c r="D36" s="18">
+        <v>16</v>
+      </c>
+      <c r="E36" s="18">
+        <v>10</v>
+      </c>
+      <c r="F36" s="18">
+        <v>25</v>
+      </c>
+      <c r="G36" s="18">
+        <v>20</v>
+      </c>
+      <c r="H36" s="22">
+        <v>20</v>
+      </c>
+      <c r="I36" s="18">
         <v>27</v>
       </c>
-      <c r="H15" s="24">
+      <c r="J36" s="18">
+        <v>32</v>
+      </c>
+      <c r="K36" s="18">
+        <v>11</v>
+      </c>
+      <c r="L36" s="18">
+        <v>19</v>
+      </c>
+      <c r="M36" s="18">
+        <v>19</v>
+      </c>
+      <c r="N36" s="19">
+        <v>17</v>
+      </c>
+      <c r="O36" s="25">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="P36" s="25">
+        <f t="shared" si="4"/>
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="27">
+        <v>45874</v>
+      </c>
+      <c r="C37" s="18">
+        <v>11</v>
+      </c>
+      <c r="D37" s="18">
         <v>26</v>
       </c>
-      <c r="I15" s="19">
+      <c r="E37" s="18">
+        <v>23</v>
+      </c>
+      <c r="F37" s="18">
+        <v>17</v>
+      </c>
+      <c r="G37" s="18">
+        <v>21</v>
+      </c>
+      <c r="H37" s="22">
+        <v>18</v>
+      </c>
+      <c r="I37" s="18">
+        <v>13</v>
+      </c>
+      <c r="J37" s="18">
+        <v>22</v>
+      </c>
+      <c r="K37" s="18">
+        <v>16</v>
+      </c>
+      <c r="L37" s="18">
+        <v>21</v>
+      </c>
+      <c r="M37" s="18">
+        <v>11</v>
+      </c>
+      <c r="N37" s="19">
+        <v>12</v>
+      </c>
+      <c r="O37" s="25">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="P37" s="25">
+        <f t="shared" si="4"/>
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="27">
+        <v>45875</v>
+      </c>
+      <c r="C38" s="18">
+        <v>14</v>
+      </c>
+      <c r="D38" s="18">
+        <v>33</v>
+      </c>
+      <c r="E38" s="18">
+        <v>31</v>
+      </c>
+      <c r="F38" s="18">
+        <v>45</v>
+      </c>
+      <c r="G38" s="18">
+        <v>28</v>
+      </c>
+      <c r="H38" s="22">
+        <v>27</v>
+      </c>
+      <c r="I38" s="18">
+        <v>22</v>
+      </c>
+      <c r="J38" s="18">
+        <v>37</v>
+      </c>
+      <c r="K38" s="18">
+        <v>22</v>
+      </c>
+      <c r="L38" s="18">
+        <v>34</v>
+      </c>
+      <c r="M38" s="18">
+        <v>35</v>
+      </c>
+      <c r="N38" s="19">
+        <v>36</v>
+      </c>
+      <c r="O38" s="25">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="P38" s="25">
+        <f t="shared" si="4"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="27">
+        <v>45876</v>
+      </c>
+      <c r="C39" s="18">
+        <v>19</v>
+      </c>
+      <c r="D39" s="18">
+        <v>17</v>
+      </c>
+      <c r="E39" s="18">
+        <v>16</v>
+      </c>
+      <c r="F39" s="18">
+        <v>20</v>
+      </c>
+      <c r="G39" s="18">
+        <v>23</v>
+      </c>
+      <c r="H39" s="22">
+        <v>19</v>
+      </c>
+      <c r="I39" s="18">
+        <v>19</v>
+      </c>
+      <c r="J39" s="18">
+        <v>21</v>
+      </c>
+      <c r="K39" s="18">
+        <v>18</v>
+      </c>
+      <c r="L39" s="18">
+        <v>19</v>
+      </c>
+      <c r="M39" s="18">
+        <v>17</v>
+      </c>
+      <c r="N39" s="19">
+        <v>18</v>
+      </c>
+      <c r="O39" s="25">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="P39" s="25">
+        <f t="shared" si="4"/>
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="27">
+        <v>45877</v>
+      </c>
+      <c r="C40" s="18">
+        <v>18</v>
+      </c>
+      <c r="D40" s="18">
+        <v>13</v>
+      </c>
+      <c r="E40" s="18">
+        <v>27</v>
+      </c>
+      <c r="F40" s="18">
+        <v>19</v>
+      </c>
+      <c r="G40" s="18">
+        <v>17</v>
+      </c>
+      <c r="H40" s="22">
+        <v>12</v>
+      </c>
+      <c r="I40" s="18">
+        <v>11</v>
+      </c>
+      <c r="J40" s="18">
         <v>15</v>
       </c>
-      <c r="J15" s="19">
-        <v>20</v>
-      </c>
-      <c r="K15" s="19">
+      <c r="K40" s="18">
         <v>11</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L40" s="18">
+        <v>11</v>
+      </c>
+      <c r="M40" s="18">
+        <v>19</v>
+      </c>
+      <c r="N40" s="19">
+        <v>12</v>
+      </c>
+      <c r="O40" s="25">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="P40" s="25">
+        <f t="shared" si="4"/>
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="27">
+        <v>45878</v>
+      </c>
+      <c r="C41" s="18">
+        <v>7</v>
+      </c>
+      <c r="D41" s="18">
+        <v>11</v>
+      </c>
+      <c r="E41" s="18">
+        <v>24</v>
+      </c>
+      <c r="F41" s="18">
+        <v>17</v>
+      </c>
+      <c r="G41" s="18">
+        <v>30</v>
+      </c>
+      <c r="H41" s="22">
+        <v>14</v>
+      </c>
+      <c r="I41" s="18">
+        <v>2</v>
+      </c>
+      <c r="J41" s="18">
+        <v>14</v>
+      </c>
+      <c r="K41" s="18">
+        <v>30</v>
+      </c>
+      <c r="L41" s="18">
+        <v>12</v>
+      </c>
+      <c r="M41" s="18">
+        <v>14</v>
+      </c>
+      <c r="N41" s="19">
+        <v>29</v>
+      </c>
+      <c r="O41" s="25">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="P41" s="25">
+        <f t="shared" si="4"/>
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="27">
+        <v>45879</v>
+      </c>
+      <c r="C42" s="18">
+        <v>10</v>
+      </c>
+      <c r="D42" s="18">
+        <v>10</v>
+      </c>
+      <c r="E42" s="18">
+        <v>10</v>
+      </c>
+      <c r="F42" s="18">
+        <v>9</v>
+      </c>
+      <c r="G42" s="18">
+        <v>12</v>
+      </c>
+      <c r="H42" s="22">
+        <v>19</v>
+      </c>
+      <c r="I42" s="18">
+        <v>11</v>
+      </c>
+      <c r="J42" s="18">
+        <v>11</v>
+      </c>
+      <c r="K42" s="18">
+        <v>16</v>
+      </c>
+      <c r="L42" s="18">
+        <v>10</v>
+      </c>
+      <c r="M42" s="18">
+        <v>10</v>
+      </c>
+      <c r="N42" s="19">
+        <v>8</v>
+      </c>
+      <c r="O42" s="25">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="P42" s="25">
+        <f t="shared" si="4"/>
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="27">
+        <v>45880</v>
+      </c>
+      <c r="C43" s="18">
+        <v>18</v>
+      </c>
+      <c r="D43" s="18">
+        <v>13</v>
+      </c>
+      <c r="E43" s="18">
+        <v>12</v>
+      </c>
+      <c r="F43" s="18">
+        <v>10</v>
+      </c>
+      <c r="G43" s="18">
+        <v>14</v>
+      </c>
+      <c r="H43" s="22">
+        <v>11</v>
+      </c>
+      <c r="I43" s="18">
+        <v>6</v>
+      </c>
+      <c r="J43" s="18">
+        <v>11</v>
+      </c>
+      <c r="K43" s="18">
+        <v>3</v>
+      </c>
+      <c r="L43" s="18">
+        <v>10</v>
+      </c>
+      <c r="M43" s="18">
+        <v>2</v>
+      </c>
+      <c r="N43" s="19">
+        <v>12</v>
+      </c>
+      <c r="O43" s="25">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="P43" s="25">
+        <f t="shared" si="4"/>
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="27">
+        <v>45881</v>
+      </c>
+      <c r="C44" s="18">
+        <v>26</v>
+      </c>
+      <c r="D44" s="18">
+        <v>17</v>
+      </c>
+      <c r="E44" s="18">
+        <v>23</v>
+      </c>
+      <c r="F44" s="18">
+        <v>16</v>
+      </c>
+      <c r="G44" s="18">
+        <v>28</v>
+      </c>
+      <c r="H44" s="22">
+        <v>22</v>
+      </c>
+      <c r="I44" s="18">
+        <v>25</v>
+      </c>
+      <c r="J44" s="18">
+        <v>18</v>
+      </c>
+      <c r="K44" s="18">
         <v>21</v>
       </c>
-      <c r="M15" s="19">
+      <c r="L44" s="18">
+        <v>14</v>
+      </c>
+      <c r="M44" s="18">
+        <v>39</v>
+      </c>
+      <c r="N44" s="19">
+        <v>24</v>
+      </c>
+      <c r="O44" s="25">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="P44" s="25">
+        <f t="shared" si="4"/>
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="27">
+        <v>45882</v>
+      </c>
+      <c r="C45" s="28">
+        <v>31</v>
+      </c>
+      <c r="D45" s="20">
+        <v>23</v>
+      </c>
+      <c r="E45" s="20">
+        <v>27</v>
+      </c>
+      <c r="F45" s="20">
         <v>17</v>
       </c>
-      <c r="N15" s="20">
-        <v>20</v>
-      </c>
-      <c r="O15" s="27">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="P15" s="27">
-        <f t="shared" si="1"/>
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="18">
-        <v>16</v>
-      </c>
-      <c r="D16" s="19">
-        <v>15</v>
-      </c>
-      <c r="E16" s="19">
-        <v>16</v>
-      </c>
-      <c r="F16" s="19">
-        <v>16</v>
-      </c>
-      <c r="G16" s="19">
+      <c r="G45" s="20">
+        <v>25</v>
+      </c>
+      <c r="H45" s="23">
+        <v>25</v>
+      </c>
+      <c r="I45" s="20">
+        <v>22</v>
+      </c>
+      <c r="J45" s="20">
+        <v>28</v>
+      </c>
+      <c r="K45" s="20">
         <v>18</v>
       </c>
-      <c r="H16" s="24">
-        <v>19</v>
-      </c>
-      <c r="I16" s="19">
-        <v>19</v>
-      </c>
-      <c r="J16" s="19">
-        <v>15</v>
-      </c>
-      <c r="K16" s="19">
-        <v>17</v>
-      </c>
-      <c r="L16" s="19">
-        <v>15</v>
-      </c>
-      <c r="M16" s="19">
-        <v>13</v>
-      </c>
-      <c r="N16" s="20">
-        <v>17</v>
-      </c>
-      <c r="O16" s="27">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="P16" s="27">
-        <f t="shared" si="1"/>
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C17" s="18">
-        <v>67</v>
-      </c>
-      <c r="D17" s="19">
-        <v>23</v>
-      </c>
-      <c r="E17" s="19">
-        <v>26</v>
-      </c>
-      <c r="F17" s="19">
-        <v>37</v>
-      </c>
-      <c r="G17" s="19">
-        <v>57</v>
-      </c>
-      <c r="H17" s="24">
-        <v>26</v>
-      </c>
-      <c r="I17" s="19">
-        <v>71</v>
-      </c>
-      <c r="J17" s="19">
-        <v>74</v>
-      </c>
-      <c r="K17" s="19">
-        <v>44</v>
-      </c>
-      <c r="L17" s="19">
-        <v>17</v>
-      </c>
-      <c r="M17" s="19">
-        <v>26</v>
-      </c>
-      <c r="N17" s="20">
-        <v>23</v>
-      </c>
-      <c r="O17" s="27">
-        <f t="shared" si="0"/>
+      <c r="L45" s="20">
+        <v>22</v>
+      </c>
+      <c r="M45" s="20">
+        <v>18</v>
+      </c>
+      <c r="N45" s="21">
+        <v>35</v>
+      </c>
+      <c r="O45" s="26">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="P45" s="26">
+        <f t="shared" si="4"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="P17" s="27">
-        <f t="shared" si="1"/>
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C18" s="18">
-        <v>20</v>
-      </c>
-      <c r="D18" s="19">
-        <v>21</v>
-      </c>
-      <c r="E18" s="19">
-        <v>22</v>
-      </c>
-      <c r="F18" s="19">
-        <v>22</v>
-      </c>
-      <c r="G18" s="19">
-        <v>25</v>
-      </c>
-      <c r="H18" s="24">
-        <v>22</v>
-      </c>
-      <c r="I18" s="19">
-        <v>37</v>
-      </c>
-      <c r="J18" s="19">
-        <v>14</v>
-      </c>
-      <c r="K18" s="19">
-        <v>12</v>
-      </c>
-      <c r="L18" s="19">
-        <v>15</v>
-      </c>
-      <c r="M18" s="19">
-        <v>12</v>
-      </c>
-      <c r="N18" s="20">
-        <v>19</v>
-      </c>
-      <c r="O18" s="27">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="P18" s="27">
-        <f t="shared" si="1"/>
-        <v>6.56</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C19" s="18">
-        <v>14</v>
-      </c>
-      <c r="D19" s="19">
-        <v>13</v>
-      </c>
-      <c r="E19" s="19">
-        <v>17</v>
-      </c>
-      <c r="F19" s="19">
-        <v>30</v>
-      </c>
-      <c r="G19" s="19">
-        <v>19</v>
-      </c>
-      <c r="H19" s="24">
-        <v>14</v>
-      </c>
-      <c r="I19" s="19">
-        <v>15</v>
-      </c>
-      <c r="J19" s="19">
-        <v>17</v>
-      </c>
-      <c r="K19" s="19">
-        <v>20</v>
-      </c>
-      <c r="L19" s="19">
-        <v>12</v>
-      </c>
-      <c r="M19" s="19">
-        <v>18</v>
-      </c>
-      <c r="N19" s="20">
-        <v>30</v>
-      </c>
-      <c r="O19" s="27">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="P19" s="27">
-        <f t="shared" si="1"/>
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C20" s="18">
-        <v>15</v>
-      </c>
-      <c r="D20" s="19">
-        <v>11</v>
-      </c>
-      <c r="E20" s="19">
-        <v>15</v>
-      </c>
-      <c r="F20" s="19">
-        <v>17</v>
-      </c>
-      <c r="G20" s="19">
-        <v>19</v>
-      </c>
-      <c r="H20" s="24">
-        <v>18</v>
-      </c>
-      <c r="I20" s="19">
-        <v>12</v>
-      </c>
-      <c r="J20" s="19">
-        <v>15</v>
-      </c>
-      <c r="K20" s="19">
-        <v>20</v>
-      </c>
-      <c r="L20" s="19">
-        <v>11</v>
-      </c>
-      <c r="M20" s="19">
-        <v>13</v>
-      </c>
-      <c r="N20" s="20">
-        <v>33</v>
-      </c>
-      <c r="O20" s="27">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="P20" s="27">
-        <f t="shared" si="1"/>
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C21" s="18">
-        <v>26</v>
-      </c>
-      <c r="D21" s="19">
-        <v>18</v>
-      </c>
-      <c r="E21" s="19">
-        <v>17</v>
-      </c>
-      <c r="F21" s="19">
-        <v>23</v>
-      </c>
-      <c r="G21" s="19">
-        <v>24</v>
-      </c>
-      <c r="H21" s="24">
-        <v>16</v>
-      </c>
-      <c r="I21" s="19">
-        <v>23</v>
-      </c>
-      <c r="J21" s="19">
-        <v>15</v>
-      </c>
-      <c r="K21" s="19">
-        <v>17</v>
-      </c>
-      <c r="L21" s="19">
-        <v>14</v>
-      </c>
-      <c r="M21" s="19">
-        <v>20</v>
-      </c>
-      <c r="N21" s="20">
-        <v>15</v>
-      </c>
-      <c r="O21" s="27">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="P21" s="27">
-        <f t="shared" si="1"/>
-        <v>3.28</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C22" s="18">
-        <v>14</v>
-      </c>
-      <c r="D22" s="19">
-        <v>17</v>
-      </c>
-      <c r="E22" s="19">
-        <v>17</v>
-      </c>
-      <c r="F22" s="19">
-        <v>13</v>
-      </c>
-      <c r="G22" s="19">
-        <v>13</v>
-      </c>
-      <c r="H22" s="24">
-        <v>15</v>
-      </c>
-      <c r="I22" s="19">
-        <v>13</v>
-      </c>
-      <c r="J22" s="19">
-        <v>13</v>
-      </c>
-      <c r="K22" s="19">
-        <v>9</v>
-      </c>
-      <c r="L22" s="19">
-        <v>3</v>
-      </c>
-      <c r="M22" s="19">
-        <v>9</v>
-      </c>
-      <c r="N22" s="20">
-        <v>5</v>
-      </c>
-      <c r="O22" s="27">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="P22" s="27">
-        <f t="shared" si="1"/>
-        <v>4.17</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C23" s="18">
-        <v>24</v>
-      </c>
-      <c r="D23" s="19">
-        <v>19</v>
-      </c>
-      <c r="E23" s="19">
-        <v>12</v>
-      </c>
-      <c r="F23" s="19">
-        <v>19</v>
-      </c>
-      <c r="G23" s="19">
-        <v>29</v>
-      </c>
-      <c r="H23" s="24">
-        <v>22</v>
-      </c>
-      <c r="I23" s="19">
-        <v>19</v>
-      </c>
-      <c r="J23" s="19">
-        <v>21</v>
-      </c>
-      <c r="K23" s="19">
-        <v>22</v>
-      </c>
-      <c r="L23" s="19">
-        <v>36</v>
-      </c>
-      <c r="M23" s="19">
-        <v>22</v>
-      </c>
-      <c r="N23" s="20">
-        <v>16</v>
-      </c>
-      <c r="O23" s="27">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="P23" s="27">
-        <f t="shared" si="1"/>
-        <v>5.82</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C24" s="18">
-        <v>33</v>
-      </c>
-      <c r="D24" s="19">
-        <v>22</v>
-      </c>
-      <c r="E24" s="19">
-        <v>3</v>
-      </c>
-      <c r="F24" s="19">
-        <v>16</v>
-      </c>
-      <c r="G24" s="19">
-        <v>16</v>
-      </c>
-      <c r="H24" s="24">
-        <v>27</v>
-      </c>
-      <c r="I24" s="19">
-        <v>14</v>
-      </c>
-      <c r="J24" s="19">
-        <v>4</v>
-      </c>
-      <c r="K24" s="19">
-        <v>27</v>
-      </c>
-      <c r="L24" s="19">
-        <v>17</v>
-      </c>
-      <c r="M24" s="19">
-        <v>11</v>
-      </c>
-      <c r="N24" s="20">
-        <v>17</v>
-      </c>
-      <c r="O24" s="27">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="P24" s="27">
-        <f t="shared" si="1"/>
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="21">
-        <v>22</v>
-      </c>
-      <c r="D25" s="22">
-        <v>3</v>
-      </c>
-      <c r="E25" s="22">
-        <v>3</v>
-      </c>
-      <c r="F25" s="22">
-        <v>9</v>
-      </c>
-      <c r="G25" s="22">
-        <v>10</v>
-      </c>
-      <c r="H25" s="25">
-        <v>8</v>
-      </c>
-      <c r="I25" s="22">
-        <v>4</v>
-      </c>
-      <c r="J25" s="22">
-        <v>7</v>
-      </c>
-      <c r="K25" s="22">
-        <v>18</v>
-      </c>
-      <c r="L25" s="22">
-        <v>8</v>
-      </c>
-      <c r="M25" s="22">
-        <v>0</v>
-      </c>
-      <c r="N25" s="23">
-        <v>7</v>
-      </c>
-      <c r="O25" s="28">
-        <f>ROUND(AVERAGE(C25:N25),0)</f>
-        <v>8</v>
-      </c>
-      <c r="P25" s="28">
-        <f t="shared" si="1"/>
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C26" s="18">
-        <v>29.85</v>
-      </c>
-      <c r="D26" s="19">
-        <v>22.39</v>
-      </c>
-      <c r="E26" s="19">
-        <v>16.420000000000002</v>
-      </c>
-      <c r="F26" s="19">
-        <v>20.9</v>
-      </c>
-      <c r="G26" s="19">
-        <v>23.88</v>
-      </c>
-      <c r="H26" s="24">
-        <v>29.85</v>
-      </c>
-      <c r="I26" s="19">
-        <v>30</v>
-      </c>
-      <c r="J26" s="19">
-        <v>25.56</v>
-      </c>
-      <c r="K26" s="19">
-        <v>25.56</v>
-      </c>
-      <c r="L26" s="19">
-        <v>28.89</v>
-      </c>
-      <c r="M26" s="19">
-        <v>27.78</v>
-      </c>
-      <c r="N26" s="20">
-        <v>22.22</v>
-      </c>
-      <c r="O26" s="27">
-        <f>ROUND(AVERAGE(C26:N26),2)</f>
-        <v>25.28</v>
-      </c>
-      <c r="P26" s="27">
-        <f t="shared" si="1"/>
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="G27">
-        <f>AVERAGE(C26:H26)</f>
-        <v>23.881666666666664</v>
-      </c>
-      <c r="H27">
-        <f>_xlfn.STDEV.P(C26:H26)</f>
-        <v>4.7964202507935383</v>
-      </c>
-      <c r="M27">
-        <f>AVERAGE(I26:N26)</f>
-        <v>26.668333333333337</v>
-      </c>
-      <c r="N27">
-        <f>_xlfn.STDEV.P(I26:N26)</f>
-        <v>2.5663230289441143</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="G28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-      <c r="M28" t="s">
-        <v>39</v>
-      </c>
-      <c r="N28" t="s">
-        <v>40</v>
+      <c r="C46" s="18">
+        <v>22.86</v>
+      </c>
+      <c r="D46" s="18">
+        <v>27.14</v>
+      </c>
+      <c r="E46" s="18">
+        <v>25.71</v>
+      </c>
+      <c r="F46" s="18">
+        <v>27.14</v>
+      </c>
+      <c r="G46" s="18">
+        <v>28.71</v>
+      </c>
+      <c r="H46" s="22">
+        <v>32.86</v>
+      </c>
+      <c r="I46" s="18">
+        <v>25.71</v>
+      </c>
+      <c r="J46" s="18">
+        <v>25.71</v>
+      </c>
+      <c r="K46" s="18">
+        <v>24.29</v>
+      </c>
+      <c r="L46" s="18">
+        <v>27.14</v>
+      </c>
+      <c r="M46" s="18">
+        <v>22.86</v>
+      </c>
+      <c r="N46" s="19">
+        <v>24.29</v>
+      </c>
+      <c r="O46" s="25">
+        <f>ROUND(AVERAGE(C46:N46),2)</f>
+        <v>26.2</v>
+      </c>
+      <c r="P46" s="25">
+        <f t="shared" si="4"/>
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="18">
+        <v>14.91</v>
+      </c>
+      <c r="D47">
+        <v>14.11</v>
+      </c>
+      <c r="E47" s="18">
+        <v>14.57</v>
+      </c>
+      <c r="F47" s="18">
+        <v>15.96</v>
+      </c>
+      <c r="G47" s="18">
+        <v>15.17</v>
+      </c>
+      <c r="H47" s="32">
+        <v>12.97</v>
+      </c>
+      <c r="I47" s="33">
+        <v>13.55</v>
+      </c>
+      <c r="J47" s="33">
+        <v>14.77</v>
+      </c>
+      <c r="K47" s="33">
+        <v>15.21</v>
+      </c>
+      <c r="L47" s="33">
+        <v>14.84</v>
+      </c>
+      <c r="M47" s="33">
+        <v>15.38</v>
+      </c>
+      <c r="N47" s="34">
+        <v>16.03</v>
+      </c>
+      <c r="O47" s="25">
+        <f>ROUND(AVERAGE(C47:N47),2)</f>
+        <v>14.79</v>
+      </c>
+      <c r="P47" s="25">
+        <f t="shared" si="4"/>
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:N5"/>
+  <mergeCells count="1">
+    <mergeCell ref="C1:N1"/>
   </mergeCells>
+  <conditionalFormatting sqref="Q2:Q7">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q7">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:N46">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/restaurant_analytics/mornings.xlsx
+++ b/restaurant_analytics/mornings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047D8915-CABE-46DD-ACFE-BBA852A4814E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643633EB-9EC9-4BB8-9BAB-20F3024DD8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19035" yWindow="555" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -473,24 +473,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -498,13 +485,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -519,22 +499,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -842,8 +809,8 @@
   <dimension ref="A1:K520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J474" sqref="J474:J511"/>
+      <pane ySplit="1" topLeftCell="A460" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E462" sqref="E462:H484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13157,7 +13124,7 @@
         <v>45</v>
       </c>
       <c r="E466" s="9">
-        <v>81.099999999999994</v>
+        <v>81.7</v>
       </c>
       <c r="F466" s="9">
         <v>3.1E-2</v>
@@ -13185,10 +13152,10 @@
         <v>13</v>
       </c>
       <c r="E467" s="9">
-        <v>79.7</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="F467" s="9">
-        <v>1.6E-2</v>
+        <v>0</v>
       </c>
       <c r="G467" s="9">
         <v>0</v>
@@ -13213,7 +13180,7 @@
         <v>10</v>
       </c>
       <c r="E468" s="11">
-        <v>79.5</v>
+        <v>79.7</v>
       </c>
       <c r="F468" s="11">
         <v>0</v>
@@ -13239,10 +13206,10 @@
         <v>25</v>
       </c>
       <c r="E469" s="11">
-        <v>81.099999999999994</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="F469" s="11">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G469" s="9">
         <v>0</v>
@@ -13265,7 +13232,7 @@
         <v>6</v>
       </c>
       <c r="E470" s="11">
-        <v>83.1</v>
+        <v>80.8</v>
       </c>
       <c r="F470" s="11">
         <v>0</v>
@@ -13334,7 +13301,7 @@
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B473" s="7">
         <v>472</v>
@@ -13346,21 +13313,21 @@
         <v>50</v>
       </c>
       <c r="E473" s="11">
-        <v>76.5</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="F473" s="11">
-        <v>0.28299999999999997</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="G473" s="11">
         <v>0</v>
       </c>
       <c r="H473" s="11">
-        <v>9.8000000000000007</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B474" s="7">
         <v>473</v>
@@ -13369,10 +13336,10 @@
         <v>45845</v>
       </c>
       <c r="D474" s="16">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E474" s="11">
-        <v>72.5</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="F474" s="11">
         <v>0</v>
@@ -13381,15 +13348,12 @@
         <v>0</v>
       </c>
       <c r="H474" s="11">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="J474" s="11">
-        <v>9.17</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B475" s="7">
         <v>474</v>
@@ -13398,27 +13362,24 @@
         <v>45846</v>
       </c>
       <c r="D475" s="16">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E475" s="11">
-        <v>75.2</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="F475" s="11">
-        <v>0</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="G475" s="11">
         <v>0</v>
       </c>
       <c r="H475" s="11">
-        <v>5.2</v>
-      </c>
-      <c r="J475" s="11">
-        <v>19.93</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B476" s="7">
         <v>475</v>
@@ -13427,27 +13388,24 @@
         <v>45847</v>
       </c>
       <c r="D476" s="16">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E476" s="11">
-        <v>76.099999999999994</v>
+        <v>75.7</v>
       </c>
       <c r="F476" s="11">
-        <v>0.03</v>
+        <v>0.122</v>
       </c>
       <c r="G476" s="11">
         <v>0</v>
       </c>
       <c r="H476" s="11">
-        <v>6.1</v>
-      </c>
-      <c r="J476" s="11">
-        <v>4.83</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B477" s="7">
         <v>476</v>
@@ -13456,10 +13414,10 @@
         <v>45848</v>
       </c>
       <c r="D477" s="16">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E477" s="11">
-        <v>75.599999999999994</v>
+        <v>74.3</v>
       </c>
       <c r="F477" s="11">
         <v>0</v>
@@ -13470,13 +13428,10 @@
       <c r="H477" s="11">
         <v>6.6</v>
       </c>
-      <c r="J477" s="11">
-        <v>7.15</v>
-      </c>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B478" s="7">
         <v>477</v>
@@ -13488,7 +13443,7 @@
         <v>11</v>
       </c>
       <c r="E478" s="11">
-        <v>77.5</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="F478" s="11">
         <v>0.28000000000000003</v>
@@ -13497,7 +13452,7 @@
         <v>0</v>
       </c>
       <c r="H478" s="11">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="J478" s="11">
         <v>3.2</v>
@@ -13505,7 +13460,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B479" s="7">
         <v>478</v>
@@ -13517,7 +13472,7 @@
         <v>25</v>
       </c>
       <c r="E479" s="11">
-        <v>76.8</v>
+        <v>77.7</v>
       </c>
       <c r="F479" s="11">
         <v>0</v>
@@ -13526,7 +13481,7 @@
         <v>0</v>
       </c>
       <c r="H479" s="11">
-        <v>8.5</v>
+        <v>10.1</v>
       </c>
       <c r="J479" s="11">
         <v>9.2899999999999991</v>
@@ -13534,7 +13489,7 @@
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B480" s="7">
         <v>479</v>
@@ -13546,7 +13501,7 @@
         <v>23</v>
       </c>
       <c r="E480" s="11">
-        <v>75.7</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="F480" s="11">
         <v>0</v>
@@ -13555,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="H480" s="11">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="J480" s="11">
         <v>6.71</v>
@@ -13563,7 +13518,7 @@
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B481" s="7">
         <v>480</v>
@@ -13575,7 +13530,7 @@
         <v>22</v>
       </c>
       <c r="E481" s="11">
-        <v>75.7</v>
+        <v>77.2</v>
       </c>
       <c r="F481" s="11">
         <v>0</v>
@@ -13584,7 +13539,7 @@
         <v>0</v>
       </c>
       <c r="H481" s="11">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="J481" s="11">
         <v>5.64</v>
@@ -13592,7 +13547,7 @@
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B482" s="7">
         <v>481</v>
@@ -13604,7 +13559,7 @@
         <v>47</v>
       </c>
       <c r="E482" s="11">
-        <v>76.099999999999994</v>
+        <v>76.8</v>
       </c>
       <c r="F482" s="11">
         <v>0</v>
@@ -13613,7 +13568,7 @@
         <v>0</v>
       </c>
       <c r="H482" s="11">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="J482" s="11">
         <v>14.5</v>
@@ -13621,7 +13576,7 @@
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B483" s="7">
         <v>482</v>
@@ -13633,7 +13588,7 @@
         <v>19</v>
       </c>
       <c r="E483" s="11">
-        <v>75.5</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="F483" s="11">
         <v>0.13</v>
@@ -13642,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="H483" s="11">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="J483" s="11">
         <v>5.51</v>
@@ -13650,7 +13605,7 @@
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B484" s="7">
         <v>483</v>
@@ -13662,7 +13617,7 @@
         <v>23</v>
       </c>
       <c r="E484" s="11">
-        <v>74.5</v>
+        <v>75.2</v>
       </c>
       <c r="F484" s="11">
         <v>0</v>
@@ -13671,7 +13626,7 @@
         <v>0</v>
       </c>
       <c r="H484" s="11">
-        <v>5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="J484" s="11">
         <v>8.02</v>
@@ -13679,7 +13634,7 @@
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A485" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B485" s="7">
         <v>484</v>
@@ -13708,7 +13663,7 @@
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B486" s="7">
         <v>485</v>
@@ -13737,7 +13692,7 @@
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B487" s="7">
         <v>486</v>
@@ -13766,7 +13721,7 @@
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B488" s="7">
         <v>487</v>
@@ -13795,7 +13750,7 @@
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B489" s="7">
         <v>488</v>
@@ -13824,7 +13779,7 @@
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B490" s="7">
         <v>489</v>
@@ -13853,7 +13808,7 @@
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B491" s="7">
         <v>490</v>
@@ -13882,7 +13837,7 @@
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B492" s="7">
         <v>491</v>
@@ -13911,7 +13866,7 @@
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B493" s="7">
         <v>492</v>
@@ -13940,7 +13895,7 @@
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B494" s="7">
         <v>493</v>
@@ -13969,7 +13924,7 @@
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B495" s="7">
         <v>494</v>
@@ -13998,7 +13953,7 @@
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B496" s="7">
         <v>495</v>
@@ -14027,7 +13982,7 @@
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B497" s="7">
         <v>496</v>
@@ -14056,7 +14011,7 @@
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B498" s="7">
         <v>497</v>
@@ -14085,7 +14040,7 @@
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A499" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B499" s="7">
         <v>498</v>
@@ -14114,7 +14069,7 @@
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A500" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B500" s="7">
         <v>499</v>
@@ -14143,7 +14098,7 @@
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B501" s="7">
         <v>500</v>
@@ -14172,7 +14127,7 @@
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A502" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B502" s="7">
         <v>501</v>
@@ -14201,7 +14156,7 @@
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A503" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B503" s="7">
         <v>502</v>
@@ -14230,7 +14185,7 @@
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A504" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B504" s="7">
         <v>503</v>
@@ -14259,7 +14214,7 @@
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A505" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B505" s="7">
         <v>504</v>
@@ -14288,7 +14243,7 @@
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B506" s="7">
         <v>505</v>
@@ -14317,7 +14272,7 @@
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A507" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B507" s="7">
         <v>506</v>
@@ -14346,7 +14301,7 @@
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A508" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B508" s="7">
         <v>507</v>
@@ -14375,7 +14330,7 @@
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A509" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B509" s="7">
         <v>508</v>
@@ -14404,7 +14359,7 @@
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A510" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B510" s="7">
         <v>509</v>
@@ -14433,7 +14388,7 @@
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A511" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B511" s="7">
         <v>510</v>
@@ -16779,25 +16734,25 @@
       <c r="G47" s="18">
         <v>15.17</v>
       </c>
-      <c r="H47" s="32">
+      <c r="H47" s="22">
         <v>12.97</v>
       </c>
-      <c r="I47" s="33">
+      <c r="I47" s="18">
         <v>13.55</v>
       </c>
-      <c r="J47" s="33">
+      <c r="J47" s="18">
         <v>14.77</v>
       </c>
-      <c r="K47" s="33">
+      <c r="K47" s="18">
         <v>15.21</v>
       </c>
-      <c r="L47" s="33">
+      <c r="L47" s="18">
         <v>14.84</v>
       </c>
-      <c r="M47" s="33">
+      <c r="M47" s="18">
         <v>15.38</v>
       </c>
-      <c r="N47" s="34">
+      <c r="N47" s="19">
         <v>16.03</v>
       </c>
       <c r="O47" s="25">
@@ -16813,18 +16768,18 @@
   <mergeCells count="1">
     <mergeCell ref="C1:N1"/>
   </mergeCells>
-  <conditionalFormatting sqref="Q2:Q7">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="C46:N46">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q7">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q7">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="Q2:Q7">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46:N46">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/restaurant_analytics/mornings.xlsx
+++ b/restaurant_analytics/mornings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643633EB-9EC9-4BB8-9BAB-20F3024DD8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D55780A-8E95-430C-9E71-1F0B69EE9A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19035" yWindow="555" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -495,6 +495,33 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -808,9 +835,9 @@
   </sheetPr>
   <dimension ref="A1:K520"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A460" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E462" sqref="E462:H484"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A462" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D476" sqref="D473:D476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13440,22 +13467,19 @@
         <v>45849</v>
       </c>
       <c r="D478" s="16">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E478" s="11">
         <v>77.900000000000006</v>
       </c>
       <c r="F478" s="11">
-        <v>0.28000000000000003</v>
+        <v>1.29</v>
       </c>
       <c r="G478" s="11">
         <v>0</v>
       </c>
       <c r="H478" s="11">
         <v>7.3</v>
-      </c>
-      <c r="J478" s="11">
-        <v>3.2</v>
       </c>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
@@ -13469,22 +13493,19 @@
         <v>45850</v>
       </c>
       <c r="D479" s="16">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E479" s="11">
         <v>77.7</v>
       </c>
       <c r="F479" s="11">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G479" s="11">
         <v>0</v>
       </c>
       <c r="H479" s="11">
         <v>10.1</v>
-      </c>
-      <c r="J479" s="11">
-        <v>9.2899999999999991</v>
       </c>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
@@ -13498,7 +13519,7 @@
         <v>45851</v>
       </c>
       <c r="D480" s="16">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E480" s="11">
         <v>76.599999999999994</v>
@@ -13511,9 +13532,6 @@
       </c>
       <c r="H480" s="11">
         <v>8.6</v>
-      </c>
-      <c r="J480" s="11">
-        <v>6.71</v>
       </c>
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.25">
@@ -13527,7 +13545,7 @@
         <v>45852</v>
       </c>
       <c r="D481" s="16">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E481" s="11">
         <v>77.2</v>
@@ -13540,9 +13558,6 @@
       </c>
       <c r="H481" s="11">
         <v>7.5</v>
-      </c>
-      <c r="J481" s="11">
-        <v>5.64</v>
       </c>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.25">
@@ -13556,7 +13571,7 @@
         <v>45853</v>
       </c>
       <c r="D482" s="16">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E482" s="11">
         <v>76.8</v>
@@ -13569,9 +13584,6 @@
       </c>
       <c r="H482" s="11">
         <v>7.8</v>
-      </c>
-      <c r="J482" s="11">
-        <v>14.5</v>
       </c>
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.25">
@@ -13585,22 +13597,19 @@
         <v>45854</v>
       </c>
       <c r="D483" s="16">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E483" s="11">
         <v>76.099999999999994</v>
       </c>
       <c r="F483" s="11">
-        <v>0.13</v>
+        <v>0.65</v>
       </c>
       <c r="G483" s="11">
         <v>0</v>
       </c>
       <c r="H483" s="11">
         <v>8.1</v>
-      </c>
-      <c r="J483" s="11">
-        <v>5.51</v>
       </c>
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.25">
@@ -13620,7 +13629,7 @@
         <v>75.2</v>
       </c>
       <c r="F484" s="11">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="G484" s="11">
         <v>0</v>
@@ -13678,7 +13687,7 @@
         <v>75</v>
       </c>
       <c r="F486" s="11">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G486" s="11">
         <v>0</v>
@@ -14451,8 +14460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6638D5E3-C858-457D-8856-EE1DEA6B94D7}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8:P45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14588,7 +14597,7 @@
         <v>8.7200000000000006</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q7" si="2">O3-A3</f>
+        <f t="shared" ref="Q3:Q17" si="2">O3-A3</f>
         <v>-11</v>
       </c>
     </row>
@@ -14805,6 +14814,9 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>13</v>
+      </c>
       <c r="B8" s="27">
         <v>45845</v>
       </c>
@@ -14852,8 +14864,15 @@
         <f t="shared" si="1"/>
         <v>9.17</v>
       </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>12</v>
+      </c>
       <c r="B9" s="27">
         <v>45846</v>
       </c>
@@ -14901,8 +14920,15 @@
         <f t="shared" si="1"/>
         <v>19.93</v>
       </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>10</v>
+      </c>
       <c r="B10" s="27">
         <v>45847</v>
       </c>
@@ -14950,8 +14976,15 @@
         <f t="shared" si="1"/>
         <v>4.83</v>
       </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>25</v>
+      </c>
       <c r="B11" s="27">
         <v>45848</v>
       </c>
@@ -14999,8 +15032,15 @@
         <f t="shared" si="1"/>
         <v>7.15</v>
       </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>29</v>
+      </c>
       <c r="B12" s="27">
         <v>45849</v>
       </c>
@@ -15048,8 +15088,15 @@
         <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>-18</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>43</v>
+      </c>
       <c r="B13" s="27">
         <v>45850</v>
       </c>
@@ -15097,8 +15144,15 @@
         <f t="shared" si="1"/>
         <v>9.2899999999999991</v>
       </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>-18</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>32</v>
+      </c>
       <c r="B14" s="27">
         <v>45851</v>
       </c>
@@ -15146,8 +15200,15 @@
         <f t="shared" si="1"/>
         <v>6.71</v>
       </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>20</v>
+      </c>
       <c r="B15" s="27">
         <v>45852</v>
       </c>
@@ -15195,8 +15256,15 @@
         <f t="shared" si="1"/>
         <v>5.64</v>
       </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>11</v>
+      </c>
       <c r="B16" s="27">
         <v>45853</v>
       </c>
@@ -15244,8 +15312,15 @@
         <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>27</v>
+      </c>
       <c r="B17" s="27">
         <v>45854</v>
       </c>
@@ -15293,8 +15368,12 @@
         <f t="shared" si="1"/>
         <v>5.51</v>
       </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B18" s="27">
         <v>45855</v>
       </c>
@@ -15343,7 +15422,7 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B19" s="27">
         <v>45856</v>
       </c>
@@ -15392,7 +15471,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B20" s="27">
         <v>45857</v>
       </c>
@@ -15441,7 +15520,7 @@
         <v>8.0299999999999994</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B21" s="27">
         <v>45858</v>
       </c>
@@ -15490,7 +15569,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" s="27">
         <v>45859</v>
       </c>
@@ -15539,7 +15618,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B23" s="27">
         <v>45860</v>
       </c>
@@ -15588,7 +15667,7 @@
         <v>6.26</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B24" s="27">
         <v>45861</v>
       </c>
@@ -15637,7 +15716,7 @@
         <v>4.0599999999999996</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B25" s="27">
         <v>45862</v>
       </c>
@@ -15686,7 +15765,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" s="27">
         <v>45863</v>
       </c>
@@ -15735,7 +15814,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B27" s="27">
         <v>45864</v>
       </c>
@@ -15784,7 +15863,7 @@
         <v>7.07</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" s="27">
         <v>45865</v>
       </c>
@@ -15833,7 +15912,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B29" s="27">
         <v>45866</v>
       </c>
@@ -15882,7 +15961,7 @@
         <v>9.06</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" s="27">
         <v>45867</v>
       </c>
@@ -15931,7 +16010,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B31" s="27">
         <v>45868</v>
       </c>
@@ -15980,7 +16059,7 @@
         <v>7.12</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" s="27">
         <v>45869</v>
       </c>
@@ -16769,15 +16848,15 @@
     <mergeCell ref="C1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="C46:N46">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q7">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="Q1:Q17">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q7">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="Q2:Q17">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/restaurant_analytics/mornings.xlsx
+++ b/restaurant_analytics/mornings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D55780A-8E95-430C-9E71-1F0B69EE9A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B294C7-B1C7-4007-B2DF-34846A750BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -202,12 +202,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="17">
@@ -398,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -473,11 +479,17 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -495,33 +507,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -835,9 +820,9 @@
   </sheetPr>
   <dimension ref="A1:K520"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A462" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D476" sqref="D473:D476"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A481" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E491" sqref="E491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13623,7 +13608,7 @@
         <v>45855</v>
       </c>
       <c r="D484" s="16">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E484" s="11">
         <v>75.2</v>
@@ -13636,9 +13621,6 @@
       </c>
       <c r="H484" s="11">
         <v>8.8000000000000007</v>
-      </c>
-      <c r="J484" s="11">
-        <v>8.02</v>
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.25">
@@ -13652,7 +13634,7 @@
         <v>45856</v>
       </c>
       <c r="D485" s="16">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E485" s="11">
         <v>76</v>
@@ -13665,9 +13647,6 @@
       </c>
       <c r="H485" s="11">
         <v>13</v>
-      </c>
-      <c r="J485" s="11">
-        <v>4.01</v>
       </c>
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.25">
@@ -13681,7 +13660,7 @@
         <v>45857</v>
       </c>
       <c r="D486" s="16">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E486" s="11">
         <v>75</v>
@@ -13694,9 +13673,6 @@
       </c>
       <c r="H486" s="11">
         <v>7</v>
-      </c>
-      <c r="J486" s="11">
-        <v>8.0299999999999994</v>
       </c>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.25">
@@ -13710,7 +13686,7 @@
         <v>45858</v>
       </c>
       <c r="D487" s="16">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E487" s="11">
         <v>69.5</v>
@@ -13725,7 +13701,7 @@
         <v>6</v>
       </c>
       <c r="J487" s="11">
-        <v>2.39</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.25">
@@ -13739,7 +13715,7 @@
         <v>45859</v>
       </c>
       <c r="D488" s="16">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E488" s="11">
         <v>69</v>
@@ -13754,7 +13730,7 @@
         <v>4</v>
       </c>
       <c r="J488" s="11">
-        <v>2.13</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.25">
@@ -13783,7 +13759,7 @@
         <v>7</v>
       </c>
       <c r="J489" s="11">
-        <v>6.26</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.25">
@@ -13797,7 +13773,7 @@
         <v>45861</v>
       </c>
       <c r="D490" s="16">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E490" s="11">
         <v>76</v>
@@ -13812,7 +13788,7 @@
         <v>5</v>
       </c>
       <c r="J490" s="11">
-        <v>4.0599999999999996</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.25">
@@ -13826,7 +13802,7 @@
         <v>45862</v>
       </c>
       <c r="D491" s="16">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E491" s="11">
         <v>73</v>
@@ -13841,7 +13817,7 @@
         <v>5</v>
       </c>
       <c r="J491" s="11">
-        <v>18.5</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.25">
@@ -13855,7 +13831,7 @@
         <v>45863</v>
       </c>
       <c r="D492" s="16">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E492" s="11">
         <v>72</v>
@@ -13870,7 +13846,7 @@
         <v>7</v>
       </c>
       <c r="J492" s="11">
-        <v>4.71</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.25">
@@ -13884,7 +13860,7 @@
         <v>45864</v>
       </c>
       <c r="D493" s="16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E493" s="11">
         <v>70</v>
@@ -13899,7 +13875,7 @@
         <v>5</v>
       </c>
       <c r="J493" s="11">
-        <v>7.07</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.25">
@@ -13913,7 +13889,7 @@
         <v>45865</v>
       </c>
       <c r="D494" s="16">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E494" s="11">
         <v>73.5</v>
@@ -13928,7 +13904,7 @@
         <v>9</v>
       </c>
       <c r="J494" s="11">
-        <v>2.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.25">
@@ -13942,7 +13918,7 @@
         <v>45866</v>
       </c>
       <c r="D495" s="16">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E495" s="11">
         <v>71</v>
@@ -13957,7 +13933,7 @@
         <v>10</v>
       </c>
       <c r="J495" s="11">
-        <v>9.06</v>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.25">
@@ -13971,7 +13947,7 @@
         <v>45867</v>
       </c>
       <c r="D496" s="16">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E496" s="11">
         <v>73.5</v>
@@ -13986,7 +13962,7 @@
         <v>9</v>
       </c>
       <c r="J496" s="11">
-        <v>6.2</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.25">
@@ -14000,7 +13976,7 @@
         <v>45868</v>
       </c>
       <c r="D497" s="16">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E497" s="11">
         <v>73</v>
@@ -14015,7 +13991,7 @@
         <v>8</v>
       </c>
       <c r="J497" s="11">
-        <v>7.12</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.25">
@@ -14029,7 +14005,7 @@
         <v>45869</v>
       </c>
       <c r="D498" s="16">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E498" s="11">
         <v>70</v>
@@ -14044,7 +14020,7 @@
         <v>9</v>
       </c>
       <c r="J498" s="11">
-        <v>5.41</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.25">
@@ -14058,7 +14034,7 @@
         <v>45870</v>
       </c>
       <c r="D499" s="16">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E499" s="11">
         <v>70</v>
@@ -14073,7 +14049,7 @@
         <v>8</v>
       </c>
       <c r="J499" s="11">
-        <v>4.53</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.25">
@@ -14087,7 +14063,7 @@
         <v>45871</v>
       </c>
       <c r="D500" s="16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E500" s="11">
         <v>69</v>
@@ -14102,7 +14078,7 @@
         <v>4</v>
       </c>
       <c r="J500" s="11">
-        <v>5.29</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.25">
@@ -14116,7 +14092,7 @@
         <v>45872</v>
       </c>
       <c r="D501" s="16">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E501" s="11">
         <v>71</v>
@@ -14131,7 +14107,7 @@
         <v>6</v>
       </c>
       <c r="J501" s="11">
-        <v>3.73</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.25">
@@ -14160,7 +14136,7 @@
         <v>5</v>
       </c>
       <c r="J502" s="11">
-        <v>5.95</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.25">
@@ -14174,7 +14150,7 @@
         <v>45874</v>
       </c>
       <c r="D503" s="16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E503" s="11">
         <v>73.5</v>
@@ -14189,7 +14165,7 @@
         <v>5</v>
       </c>
       <c r="J503" s="11">
-        <v>4.45</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.25">
@@ -14203,7 +14179,7 @@
         <v>45875</v>
       </c>
       <c r="D504" s="16">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E504" s="11">
         <v>69</v>
@@ -14218,7 +14194,7 @@
         <v>9</v>
       </c>
       <c r="J504" s="11">
-        <v>6.25</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.25">
@@ -14232,7 +14208,7 @@
         <v>45876</v>
       </c>
       <c r="D505" s="16">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E505" s="11">
         <v>68.5</v>
@@ -14247,7 +14223,7 @@
         <v>5</v>
       </c>
       <c r="J505" s="11">
-        <v>1.82</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.25">
@@ -14261,7 +14237,7 @@
         <v>45877</v>
       </c>
       <c r="D506" s="16">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E506" s="11">
         <v>69.5</v>
@@ -14276,7 +14252,7 @@
         <v>6</v>
       </c>
       <c r="J506" s="11">
-        <v>4.5599999999999996</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.25">
@@ -14290,7 +14266,7 @@
         <v>45878</v>
       </c>
       <c r="D507" s="16">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E507" s="11">
         <v>72</v>
@@ -14305,7 +14281,7 @@
         <v>15</v>
       </c>
       <c r="J507" s="11">
-        <v>8.34</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.25">
@@ -14319,7 +14295,7 @@
         <v>45879</v>
       </c>
       <c r="D508" s="16">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E508" s="11">
         <v>74.5</v>
@@ -14334,7 +14310,7 @@
         <v>12</v>
       </c>
       <c r="J508" s="11">
-        <v>2.96</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.25">
@@ -14348,7 +14324,7 @@
         <v>45880</v>
       </c>
       <c r="D509" s="16">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E509" s="11">
         <v>69.5</v>
@@ -14363,7 +14339,7 @@
         <v>8</v>
       </c>
       <c r="J509" s="11">
-        <v>3.66</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.25">
@@ -14377,7 +14353,7 @@
         <v>45881</v>
       </c>
       <c r="D510" s="16">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E510" s="11">
         <v>71.5</v>
@@ -14392,7 +14368,7 @@
         <v>5</v>
       </c>
       <c r="J510" s="11">
-        <v>6.32</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.25">
@@ -14406,7 +14382,7 @@
         <v>45882</v>
       </c>
       <c r="D511" s="16">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E511" s="11">
         <v>74</v>
@@ -14421,7 +14397,7 @@
         <v>5</v>
       </c>
       <c r="J511" s="11">
-        <v>4.8</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.25">
@@ -14460,8 +14436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6638D5E3-C858-457D-8856-EE1DEA6B94D7}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21:P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14597,7 +14573,7 @@
         <v>8.7200000000000006</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q17" si="2">O3-A3</f>
+        <f t="shared" ref="Q3:Q20" si="2">O3-A3</f>
         <v>-11</v>
       </c>
     </row>
@@ -15374,6 +15350,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>15</v>
+      </c>
       <c r="B18" s="27">
         <v>45855</v>
       </c>
@@ -15421,8 +15400,15 @@
         <f t="shared" si="1"/>
         <v>8.02</v>
       </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>27</v>
+      </c>
       <c r="B19" s="27">
         <v>45856</v>
       </c>
@@ -15470,8 +15456,15 @@
         <f t="shared" si="1"/>
         <v>4.01</v>
       </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>-12</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>35</v>
+      </c>
       <c r="B20" s="27">
         <v>45857</v>
       </c>
@@ -15519,54 +15512,40 @@
         <f t="shared" si="1"/>
         <v>8.0299999999999994</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="27">
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="33">
         <v>45858</v>
       </c>
-      <c r="C21" s="18">
-        <v>21</v>
-      </c>
-      <c r="D21">
-        <v>19</v>
-      </c>
-      <c r="E21">
-        <v>22</v>
-      </c>
-      <c r="F21">
-        <v>25</v>
-      </c>
-      <c r="G21">
-        <v>21</v>
-      </c>
-      <c r="H21">
-        <v>22</v>
-      </c>
-      <c r="I21">
-        <v>16</v>
-      </c>
-      <c r="J21">
-        <v>21</v>
-      </c>
-      <c r="K21">
-        <v>21</v>
-      </c>
-      <c r="L21">
-        <v>21</v>
-      </c>
-      <c r="M21">
-        <v>20</v>
-      </c>
-      <c r="N21">
-        <v>16</v>
-      </c>
-      <c r="O21" s="25">
+      <c r="C21" s="34">
+        <v>54</v>
+      </c>
+      <c r="D21" s="32">
+        <v>52</v>
+      </c>
+      <c r="E21" s="32">
+        <v>51</v>
+      </c>
+      <c r="F21" s="32">
+        <v>50</v>
+      </c>
+      <c r="G21" s="32">
+        <v>36</v>
+      </c>
+      <c r="H21" s="32">
+        <v>43</v>
+      </c>
+      <c r="O21" s="35">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="P21" s="25">
-        <f t="shared" si="1"/>
-        <v>2.39</v>
+        <v>48</v>
+      </c>
+      <c r="P21" s="35">
+        <f>ROUND(_xlfn.STDEV.P(D21:O21),2)</f>
+        <v>5.59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -15574,48 +15553,30 @@
         <v>45859</v>
       </c>
       <c r="C22" s="18">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E22">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F22">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G22">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H22">
-        <v>17</v>
-      </c>
-      <c r="I22">
-        <v>11</v>
-      </c>
-      <c r="J22">
-        <v>17</v>
-      </c>
-      <c r="K22">
-        <v>13</v>
-      </c>
-      <c r="L22">
-        <v>13</v>
-      </c>
-      <c r="M22">
-        <v>17</v>
-      </c>
-      <c r="N22">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="O22" s="25">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="P22" s="25">
-        <f t="shared" si="1"/>
-        <v>2.13</v>
+        <f>ROUND(_xlfn.STDEV.P(D22:O22),2)</f>
+        <v>3.61</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -15623,48 +15584,30 @@
         <v>45860</v>
       </c>
       <c r="C23" s="18">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E23">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F23">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G23">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H23">
-        <v>30</v>
-      </c>
-      <c r="I23">
-        <v>25</v>
-      </c>
-      <c r="J23">
-        <v>38</v>
-      </c>
-      <c r="K23">
-        <v>28</v>
-      </c>
-      <c r="L23">
-        <v>24</v>
-      </c>
-      <c r="M23">
-        <v>19</v>
-      </c>
-      <c r="N23">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O23" s="25">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="P23" s="25">
-        <f t="shared" si="1"/>
-        <v>6.26</v>
+        <f>ROUND(_xlfn.STDEV.P(D23:O23),2)</f>
+        <v>1.25</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -15672,48 +15615,30 @@
         <v>45861</v>
       </c>
       <c r="C24" s="18">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>20</v>
       </c>
       <c r="F24">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G24">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H24">
-        <v>16</v>
-      </c>
-      <c r="I24">
-        <v>11</v>
-      </c>
-      <c r="J24">
-        <v>21</v>
-      </c>
-      <c r="K24">
-        <v>13</v>
-      </c>
-      <c r="L24">
-        <v>22</v>
-      </c>
-      <c r="M24">
-        <v>11</v>
-      </c>
-      <c r="N24">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O24" s="25">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="P24" s="25">
-        <f t="shared" si="1"/>
-        <v>4.0599999999999996</v>
+        <f>ROUND(_xlfn.STDEV.P(D24:O24),2)</f>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -15721,48 +15646,30 @@
         <v>45862</v>
       </c>
       <c r="C25" s="18">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="F25">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G25">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="H25">
-        <v>78</v>
-      </c>
-      <c r="I25">
-        <v>39</v>
-      </c>
-      <c r="J25">
-        <v>86</v>
-      </c>
-      <c r="K25">
-        <v>46</v>
-      </c>
-      <c r="L25">
-        <v>54</v>
-      </c>
-      <c r="M25">
-        <v>88</v>
-      </c>
-      <c r="N25">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="O25" s="25">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="P25" s="25">
-        <f t="shared" si="1"/>
-        <v>18.5</v>
+        <f>ROUND(_xlfn.STDEV.P(D25:O25),2)</f>
+        <v>0.82</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -15773,45 +15680,32 @@
         <v>25</v>
       </c>
       <c r="D26" s="18">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26" s="18">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G26" s="18">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H26" s="22">
         <v>25</v>
       </c>
-      <c r="I26" s="18">
-        <v>27</v>
-      </c>
-      <c r="J26" s="18">
-        <v>30</v>
-      </c>
-      <c r="K26" s="18">
-        <v>31</v>
-      </c>
-      <c r="L26" s="18">
-        <v>29</v>
-      </c>
-      <c r="M26" s="18">
-        <v>41</v>
-      </c>
-      <c r="N26" s="19">
-        <v>27</v>
-      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="N26" s="19"/>
       <c r="O26" s="25">
         <f t="shared" ref="O26:O45" si="3">ROUND(AVERAGE(C26:N26),0)</f>
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="P26" s="25">
-        <f t="shared" si="1"/>
-        <v>4.71</v>
+        <f>ROUND(_xlfn.STDEV.P(D26:O26),2)</f>
+        <v>1.21</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -15819,48 +15713,35 @@
         <v>45864</v>
       </c>
       <c r="C27" s="18">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D27" s="18">
+        <v>15</v>
+      </c>
+      <c r="E27" s="18">
+        <v>17</v>
+      </c>
+      <c r="F27" s="18">
+        <v>16</v>
+      </c>
+      <c r="G27" s="18">
+        <v>18</v>
+      </c>
+      <c r="H27" s="22">
         <v>14</v>
       </c>
-      <c r="E27" s="18">
-        <v>23</v>
-      </c>
-      <c r="F27" s="18">
-        <v>18</v>
-      </c>
-      <c r="G27" s="18">
-        <v>19</v>
-      </c>
-      <c r="H27" s="22">
-        <v>16</v>
-      </c>
-      <c r="I27" s="18">
-        <v>18</v>
-      </c>
-      <c r="J27" s="18">
-        <v>12</v>
-      </c>
-      <c r="K27" s="18">
-        <v>22</v>
-      </c>
-      <c r="L27" s="18">
-        <v>18</v>
-      </c>
-      <c r="M27" s="18">
-        <v>40</v>
-      </c>
-      <c r="N27" s="19">
-        <v>12</v>
-      </c>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="N27" s="19"/>
       <c r="O27" s="25">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P27" s="25">
-        <f t="shared" ref="P27:P47" si="4">ROUND(_xlfn.STDEV.P(D27:O27),2)</f>
-        <v>7.07</v>
+        <f>ROUND(_xlfn.STDEV.P(D27:O27),2)</f>
+        <v>1.29</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -15868,48 +15749,35 @@
         <v>45865</v>
       </c>
       <c r="C28" s="18">
+        <v>16</v>
+      </c>
+      <c r="D28" s="18">
+        <v>14</v>
+      </c>
+      <c r="E28" s="18">
+        <v>17</v>
+      </c>
+      <c r="F28" s="18">
+        <v>16</v>
+      </c>
+      <c r="G28" s="18">
         <v>18</v>
       </c>
-      <c r="D28" s="18">
-        <v>10</v>
-      </c>
-      <c r="E28" s="18">
-        <v>11</v>
-      </c>
-      <c r="F28" s="18">
-        <v>7</v>
-      </c>
-      <c r="G28" s="18">
-        <v>11</v>
-      </c>
       <c r="H28" s="22">
-        <v>11</v>
-      </c>
-      <c r="I28" s="18">
-        <v>4</v>
-      </c>
-      <c r="J28" s="18">
-        <v>8</v>
-      </c>
-      <c r="K28" s="18">
-        <v>2</v>
-      </c>
-      <c r="L28" s="18">
-        <v>8</v>
-      </c>
-      <c r="M28" s="18">
-        <v>11</v>
-      </c>
-      <c r="N28" s="19">
-        <v>7</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="N28" s="19"/>
       <c r="O28" s="25">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="P28" s="25">
-        <f t="shared" si="4"/>
-        <v>2.8</v>
+        <f>ROUND(_xlfn.STDEV.P(D28:O28),2)</f>
+        <v>1.83</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -15920,45 +15788,32 @@
         <v>19</v>
       </c>
       <c r="D29" s="18">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E29" s="18">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F29" s="18">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G29" s="18">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H29" s="22">
-        <v>24</v>
-      </c>
-      <c r="I29" s="18">
-        <v>18</v>
-      </c>
-      <c r="J29" s="18">
-        <v>30</v>
-      </c>
-      <c r="K29" s="18">
-        <v>25</v>
-      </c>
-      <c r="L29" s="18">
-        <v>23</v>
-      </c>
-      <c r="M29" s="18">
-        <v>11</v>
-      </c>
-      <c r="N29" s="19">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="N29" s="19"/>
       <c r="O29" s="25">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="P29" s="25">
-        <f t="shared" si="4"/>
-        <v>9.06</v>
+        <f>ROUND(_xlfn.STDEV.P(D29:O29),2)</f>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -15966,48 +15821,35 @@
         <v>45867</v>
       </c>
       <c r="C30" s="18">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D30" s="18">
+        <v>19</v>
+      </c>
+      <c r="E30" s="18">
+        <v>22</v>
+      </c>
+      <c r="F30" s="18">
         <v>20</v>
-      </c>
-      <c r="E30" s="18">
-        <v>30</v>
-      </c>
-      <c r="F30" s="18">
-        <v>34</v>
       </c>
       <c r="G30" s="18">
         <v>21</v>
       </c>
       <c r="H30" s="22">
-        <v>27</v>
-      </c>
-      <c r="I30" s="18">
         <v>20</v>
       </c>
-      <c r="J30" s="18">
-        <v>33</v>
-      </c>
-      <c r="K30" s="18">
-        <v>28</v>
-      </c>
-      <c r="L30" s="18">
-        <v>41</v>
-      </c>
-      <c r="M30" s="18">
-        <v>35</v>
-      </c>
-      <c r="N30" s="19">
-        <v>32</v>
-      </c>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="N30" s="19"/>
       <c r="O30" s="25">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="P30" s="25">
-        <f t="shared" si="4"/>
-        <v>6.2</v>
+        <f>ROUND(_xlfn.STDEV.P(D30:O30),2)</f>
+        <v>0.94</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -16015,48 +15857,35 @@
         <v>45868</v>
       </c>
       <c r="C31" s="18">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D31" s="18">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E31" s="18">
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G31" s="18">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H31" s="22">
-        <v>27</v>
-      </c>
-      <c r="I31" s="18">
-        <v>14</v>
-      </c>
-      <c r="J31" s="18">
-        <v>33</v>
-      </c>
-      <c r="K31" s="18">
-        <v>19</v>
-      </c>
-      <c r="L31" s="18">
-        <v>23</v>
-      </c>
-      <c r="M31" s="18">
-        <v>31</v>
-      </c>
-      <c r="N31" s="19">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="N31" s="19"/>
       <c r="O31" s="25">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="P31" s="25">
-        <f t="shared" si="4"/>
-        <v>7.12</v>
+        <f>ROUND(_xlfn.STDEV.P(D31:O31),2)</f>
+        <v>2.48</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -16064,48 +15893,35 @@
         <v>45869</v>
       </c>
       <c r="C32" s="18">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D32" s="18">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E32" s="18">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F32" s="18">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G32" s="18">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H32" s="22">
-        <v>33</v>
-      </c>
-      <c r="I32" s="18">
-        <v>40</v>
-      </c>
-      <c r="J32" s="18">
-        <v>32</v>
-      </c>
-      <c r="K32" s="18">
-        <v>40</v>
-      </c>
-      <c r="L32" s="18">
-        <v>44</v>
-      </c>
-      <c r="M32" s="18">
-        <v>44</v>
-      </c>
-      <c r="N32" s="19">
-        <v>42</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="N32" s="19"/>
       <c r="O32" s="25">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="P32" s="25">
-        <f t="shared" si="4"/>
-        <v>5.41</v>
+        <f>ROUND(_xlfn.STDEV.P(D32:O32),2)</f>
+        <v>2.13</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -16113,48 +15929,35 @@
         <v>45870</v>
       </c>
       <c r="C33" s="18">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D33" s="18">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E33" s="18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F33" s="18">
+        <v>26</v>
+      </c>
+      <c r="G33" s="18">
+        <v>26</v>
+      </c>
+      <c r="H33" s="22">
         <v>23</v>
       </c>
-      <c r="G33" s="18">
-        <v>33</v>
-      </c>
-      <c r="H33" s="22">
-        <v>31</v>
-      </c>
-      <c r="I33" s="18">
-        <v>27</v>
-      </c>
-      <c r="J33" s="18">
-        <v>34</v>
-      </c>
-      <c r="K33" s="18">
-        <v>29</v>
-      </c>
-      <c r="L33" s="18">
-        <v>32</v>
-      </c>
-      <c r="M33" s="18">
-        <v>35</v>
-      </c>
-      <c r="N33" s="19">
-        <v>29</v>
-      </c>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="N33" s="19"/>
       <c r="O33" s="25">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P33" s="25">
-        <f t="shared" si="4"/>
-        <v>4.53</v>
+        <f>ROUND(_xlfn.STDEV.P(D33:O33),2)</f>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -16162,48 +15965,35 @@
         <v>45871</v>
       </c>
       <c r="C34" s="18">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D34" s="18">
         <v>16</v>
       </c>
       <c r="E34" s="18">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F34" s="18">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G34" s="18">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H34" s="22">
-        <v>18</v>
-      </c>
-      <c r="I34" s="18">
-        <v>17</v>
-      </c>
-      <c r="J34" s="18">
-        <v>11</v>
-      </c>
-      <c r="K34" s="18">
-        <v>17</v>
-      </c>
-      <c r="L34" s="18">
-        <v>17</v>
-      </c>
-      <c r="M34" s="18">
-        <v>31</v>
-      </c>
-      <c r="N34" s="19">
-        <v>12</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="N34" s="19"/>
       <c r="O34" s="25">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P34" s="25">
-        <f t="shared" si="4"/>
-        <v>5.29</v>
+        <f>ROUND(_xlfn.STDEV.P(D34:O34),2)</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -16211,48 +16001,35 @@
         <v>45872</v>
       </c>
       <c r="C35" s="18">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D35" s="18">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E35" s="18">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F35" s="18">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G35" s="18">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H35" s="22">
-        <v>18</v>
-      </c>
-      <c r="I35" s="18">
-        <v>20</v>
-      </c>
-      <c r="J35" s="18">
-        <v>18</v>
-      </c>
-      <c r="K35" s="18">
-        <v>15</v>
-      </c>
-      <c r="L35" s="18">
-        <v>19</v>
-      </c>
-      <c r="M35" s="18">
-        <v>28</v>
-      </c>
-      <c r="N35" s="19">
-        <v>25</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="N35" s="19"/>
       <c r="O35" s="25">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="P35" s="25">
-        <f t="shared" si="4"/>
-        <v>3.73</v>
+        <f>ROUND(_xlfn.STDEV.P(D35:O35),2)</f>
+        <v>5.42</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
@@ -16260,48 +16037,35 @@
         <v>45873</v>
       </c>
       <c r="C36" s="18">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D36" s="18">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E36" s="18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F36" s="18">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G36" s="18">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H36" s="22">
-        <v>20</v>
-      </c>
-      <c r="I36" s="18">
-        <v>27</v>
-      </c>
-      <c r="J36" s="18">
-        <v>32</v>
-      </c>
-      <c r="K36" s="18">
-        <v>11</v>
-      </c>
-      <c r="L36" s="18">
-        <v>19</v>
-      </c>
-      <c r="M36" s="18">
-        <v>19</v>
-      </c>
-      <c r="N36" s="19">
-        <v>17</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="N36" s="19"/>
       <c r="O36" s="25">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="P36" s="25">
-        <f t="shared" si="4"/>
-        <v>5.95</v>
+        <f>ROUND(_xlfn.STDEV.P(D36:O36),2)</f>
+        <v>1.77</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
@@ -16309,48 +16073,35 @@
         <v>45874</v>
       </c>
       <c r="C37" s="18">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D37" s="18">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E37" s="18">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F37" s="18">
+        <v>15</v>
+      </c>
+      <c r="G37" s="18">
         <v>17</v>
       </c>
-      <c r="G37" s="18">
-        <v>21</v>
-      </c>
       <c r="H37" s="22">
-        <v>18</v>
-      </c>
-      <c r="I37" s="18">
-        <v>13</v>
-      </c>
-      <c r="J37" s="18">
-        <v>22</v>
-      </c>
-      <c r="K37" s="18">
         <v>16</v>
       </c>
-      <c r="L37" s="18">
-        <v>21</v>
-      </c>
-      <c r="M37" s="18">
-        <v>11</v>
-      </c>
-      <c r="N37" s="19">
-        <v>12</v>
-      </c>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="N37" s="19"/>
       <c r="O37" s="25">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P37" s="25">
-        <f t="shared" si="4"/>
-        <v>4.45</v>
+        <f>ROUND(_xlfn.STDEV.P(D37:O37),2)</f>
+        <v>1.7</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -16358,48 +16109,35 @@
         <v>45875</v>
       </c>
       <c r="C38" s="18">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D38" s="18">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E38" s="18">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F38" s="18">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G38" s="18">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H38" s="22">
-        <v>27</v>
-      </c>
-      <c r="I38" s="18">
         <v>22</v>
       </c>
-      <c r="J38" s="18">
-        <v>37</v>
-      </c>
-      <c r="K38" s="18">
-        <v>22</v>
-      </c>
-      <c r="L38" s="18">
-        <v>34</v>
-      </c>
-      <c r="M38" s="18">
-        <v>35</v>
-      </c>
-      <c r="N38" s="19">
-        <v>36</v>
-      </c>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="N38" s="19"/>
       <c r="O38" s="25">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P38" s="25">
-        <f t="shared" si="4"/>
-        <v>6.25</v>
+        <f>ROUND(_xlfn.STDEV.P(D38:O38),2)</f>
+        <v>1.37</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -16407,48 +16145,35 @@
         <v>45876</v>
       </c>
       <c r="C39" s="18">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D39" s="18">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E39" s="18">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F39" s="18">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G39" s="18">
         <v>23</v>
       </c>
       <c r="H39" s="22">
-        <v>19</v>
-      </c>
-      <c r="I39" s="18">
-        <v>19</v>
-      </c>
-      <c r="J39" s="18">
-        <v>21</v>
-      </c>
-      <c r="K39" s="18">
-        <v>18</v>
-      </c>
-      <c r="L39" s="18">
-        <v>19</v>
-      </c>
-      <c r="M39" s="18">
-        <v>17</v>
-      </c>
-      <c r="N39" s="19">
-        <v>18</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="N39" s="19"/>
       <c r="O39" s="25">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P39" s="25">
-        <f t="shared" si="4"/>
-        <v>1.82</v>
+        <f>ROUND(_xlfn.STDEV.P(D39:O39),2)</f>
+        <v>0.96</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
@@ -16456,48 +16181,35 @@
         <v>45877</v>
       </c>
       <c r="C40" s="18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D40" s="18">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E40" s="18">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F40" s="18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G40" s="18">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H40" s="22">
-        <v>12</v>
-      </c>
-      <c r="I40" s="18">
-        <v>11</v>
-      </c>
-      <c r="J40" s="18">
-        <v>15</v>
-      </c>
-      <c r="K40" s="18">
-        <v>11</v>
-      </c>
-      <c r="L40" s="18">
-        <v>11</v>
-      </c>
-      <c r="M40" s="18">
-        <v>19</v>
-      </c>
-      <c r="N40" s="19">
-        <v>12</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="N40" s="19"/>
       <c r="O40" s="25">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P40" s="25">
-        <f t="shared" si="4"/>
-        <v>4.5599999999999996</v>
+        <f>ROUND(_xlfn.STDEV.P(D40:O40),2)</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
@@ -16505,48 +16217,35 @@
         <v>45878</v>
       </c>
       <c r="C41" s="18">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D41" s="18">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E41" s="18">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F41" s="18">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="G41" s="18">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H41" s="22">
-        <v>14</v>
-      </c>
-      <c r="I41" s="18">
-        <v>2</v>
-      </c>
-      <c r="J41" s="18">
-        <v>14</v>
-      </c>
-      <c r="K41" s="18">
-        <v>30</v>
-      </c>
-      <c r="L41" s="18">
-        <v>12</v>
-      </c>
-      <c r="M41" s="18">
-        <v>14</v>
-      </c>
-      <c r="N41" s="19">
-        <v>29</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="N41" s="19"/>
       <c r="O41" s="25">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="P41" s="25">
-        <f t="shared" si="4"/>
-        <v>8.34</v>
+        <f>ROUND(_xlfn.STDEV.P(D41:O41),2)</f>
+        <v>7.06</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -16554,48 +16253,35 @@
         <v>45879</v>
       </c>
       <c r="C42" s="18">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D42" s="18">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E42" s="18">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F42" s="18">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G42" s="18">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H42" s="22">
-        <v>19</v>
-      </c>
-      <c r="I42" s="18">
-        <v>11</v>
-      </c>
-      <c r="J42" s="18">
-        <v>11</v>
-      </c>
-      <c r="K42" s="18">
-        <v>16</v>
-      </c>
-      <c r="L42" s="18">
-        <v>10</v>
-      </c>
-      <c r="M42" s="18">
-        <v>10</v>
-      </c>
-      <c r="N42" s="19">
-        <v>8</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="N42" s="19"/>
       <c r="O42" s="25">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P42" s="25">
-        <f t="shared" si="4"/>
-        <v>2.96</v>
+        <f>ROUND(_xlfn.STDEV.P(D42:O42),2)</f>
+        <v>2.31</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
@@ -16603,48 +16289,35 @@
         <v>45880</v>
       </c>
       <c r="C43" s="18">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D43" s="18">
+        <v>15</v>
+      </c>
+      <c r="E43" s="18">
         <v>13</v>
       </c>
-      <c r="E43" s="18">
+      <c r="F43" s="18">
+        <v>13</v>
+      </c>
+      <c r="G43" s="18">
         <v>12</v>
       </c>
-      <c r="F43" s="18">
-        <v>10</v>
-      </c>
-      <c r="G43" s="18">
-        <v>14</v>
-      </c>
       <c r="H43" s="22">
-        <v>11</v>
-      </c>
-      <c r="I43" s="18">
-        <v>6</v>
-      </c>
-      <c r="J43" s="18">
-        <v>11</v>
-      </c>
-      <c r="K43" s="18">
-        <v>3</v>
-      </c>
-      <c r="L43" s="18">
-        <v>10</v>
-      </c>
-      <c r="M43" s="18">
-        <v>2</v>
-      </c>
-      <c r="N43" s="19">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="N43" s="19"/>
       <c r="O43" s="25">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P43" s="25">
-        <f t="shared" si="4"/>
-        <v>3.66</v>
+        <f>ROUND(_xlfn.STDEV.P(D43:O43),2)</f>
+        <v>1.8</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
@@ -16652,48 +16325,35 @@
         <v>45881</v>
       </c>
       <c r="C44" s="18">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D44" s="18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E44" s="18">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F44" s="18">
+        <v>14</v>
+      </c>
+      <c r="G44" s="18">
         <v>16</v>
       </c>
-      <c r="G44" s="18">
-        <v>28</v>
-      </c>
       <c r="H44" s="22">
-        <v>22</v>
-      </c>
-      <c r="I44" s="18">
-        <v>25</v>
-      </c>
-      <c r="J44" s="18">
-        <v>18</v>
-      </c>
-      <c r="K44" s="18">
-        <v>21</v>
-      </c>
-      <c r="L44" s="18">
-        <v>14</v>
-      </c>
-      <c r="M44" s="18">
-        <v>39</v>
-      </c>
-      <c r="N44" s="19">
-        <v>24</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="N44" s="19"/>
       <c r="O44" s="25">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="P44" s="25">
-        <f t="shared" si="4"/>
-        <v>6.32</v>
+        <f>ROUND(_xlfn.STDEV.P(D44:O44),2)</f>
+        <v>0.69</v>
       </c>
     </row>
     <row r="45" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16701,48 +16361,35 @@
         <v>45882</v>
       </c>
       <c r="C45" s="28">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D45" s="20">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E45" s="20">
+        <v>24</v>
+      </c>
+      <c r="F45" s="20">
+        <v>32</v>
+      </c>
+      <c r="G45" s="20">
         <v>27</v>
       </c>
-      <c r="F45" s="20">
-        <v>17</v>
-      </c>
-      <c r="G45" s="20">
-        <v>25</v>
-      </c>
       <c r="H45" s="23">
-        <v>25</v>
-      </c>
-      <c r="I45" s="20">
-        <v>22</v>
-      </c>
-      <c r="J45" s="20">
-        <v>28</v>
-      </c>
-      <c r="K45" s="20">
-        <v>18</v>
-      </c>
-      <c r="L45" s="20">
-        <v>22</v>
-      </c>
-      <c r="M45" s="20">
-        <v>18</v>
-      </c>
-      <c r="N45" s="21">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="N45" s="21"/>
       <c r="O45" s="26">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P45" s="26">
-        <f t="shared" si="4"/>
-        <v>4.8</v>
+        <f>ROUND(_xlfn.STDEV.P(D45:O45),2)</f>
+        <v>2.41</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -16750,48 +16397,35 @@
         <v>41</v>
       </c>
       <c r="C46" s="18">
-        <v>22.86</v>
+        <v>27.21</v>
       </c>
       <c r="D46" s="18">
-        <v>27.14</v>
+        <v>25.57</v>
       </c>
       <c r="E46" s="18">
-        <v>25.71</v>
+        <v>24.3</v>
       </c>
       <c r="F46" s="18">
-        <v>27.14</v>
+        <v>30.54</v>
       </c>
       <c r="G46" s="18">
-        <v>28.71</v>
+        <v>29.09</v>
       </c>
       <c r="H46" s="22">
-        <v>32.86</v>
-      </c>
-      <c r="I46" s="18">
-        <v>25.71</v>
-      </c>
-      <c r="J46" s="18">
-        <v>25.71</v>
-      </c>
-      <c r="K46" s="18">
-        <v>24.29</v>
-      </c>
-      <c r="L46" s="18">
-        <v>27.14</v>
-      </c>
-      <c r="M46" s="18">
-        <v>22.86</v>
-      </c>
-      <c r="N46" s="19">
-        <v>24.29</v>
-      </c>
+        <v>24.8</v>
+      </c>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="N46" s="19"/>
       <c r="O46" s="25">
         <f>ROUND(AVERAGE(C46:N46),2)</f>
-        <v>26.2</v>
+        <v>26.92</v>
       </c>
       <c r="P46" s="25">
-        <f t="shared" si="4"/>
-        <v>2.44</v>
+        <f>ROUND(_xlfn.STDEV.P(D46:O46),2)</f>
+        <v>2.27</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
@@ -16799,64 +16433,51 @@
         <v>42</v>
       </c>
       <c r="C47" s="18">
-        <v>14.91</v>
-      </c>
-      <c r="D47">
-        <v>14.11</v>
+        <v>15.45</v>
+      </c>
+      <c r="D47" s="18">
+        <v>16.13</v>
       </c>
       <c r="E47" s="18">
-        <v>14.57</v>
+        <v>15.98</v>
       </c>
       <c r="F47" s="18">
-        <v>15.96</v>
+        <v>15.9</v>
       </c>
       <c r="G47" s="18">
-        <v>15.17</v>
+        <v>15.28</v>
       </c>
       <c r="H47" s="22">
-        <v>12.97</v>
-      </c>
-      <c r="I47" s="18">
-        <v>13.55</v>
-      </c>
-      <c r="J47" s="18">
-        <v>14.77</v>
-      </c>
-      <c r="K47" s="18">
-        <v>15.21</v>
-      </c>
-      <c r="L47" s="18">
-        <v>14.84</v>
-      </c>
-      <c r="M47" s="18">
-        <v>15.38</v>
-      </c>
-      <c r="N47" s="19">
-        <v>16.03</v>
-      </c>
+        <v>15.33</v>
+      </c>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="N47" s="19"/>
       <c r="O47" s="25">
         <f>ROUND(AVERAGE(C47:N47),2)</f>
-        <v>14.79</v>
+        <v>15.68</v>
       </c>
       <c r="P47" s="25">
-        <f t="shared" si="4"/>
-        <v>0.86</v>
+        <f>ROUND(_xlfn.STDEV.P(D47:O47),2)</f>
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:N1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C46:N46">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  <conditionalFormatting sqref="C46:L46 N46">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q17">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="Q1:Q20">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q17">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="Q2:Q20">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/restaurant_analytics/mornings.xlsx
+++ b/restaurant_analytics/mornings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B294C7-B1C7-4007-B2DF-34846A750BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E89B5CE-E655-4647-9E65-DE8373C6C649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31395" yWindow="3240" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -470,6 +470,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -479,12 +485,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -821,8 +827,8 @@
   <dimension ref="A1:K520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A481" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E491" sqref="E491"/>
+      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I483" sqref="A1:J511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13457,7 +13463,7 @@
       <c r="E478" s="11">
         <v>77.900000000000006</v>
       </c>
-      <c r="F478" s="11">
+      <c r="F478" s="36">
         <v>1.29</v>
       </c>
       <c r="G478" s="11">
@@ -13483,8 +13489,8 @@
       <c r="E479" s="11">
         <v>77.7</v>
       </c>
-      <c r="F479" s="11">
-        <v>0.05</v>
+      <c r="F479" s="36">
+        <v>0.01</v>
       </c>
       <c r="G479" s="11">
         <v>0</v>
@@ -13507,9 +13513,9 @@
         <v>32</v>
       </c>
       <c r="E480" s="11">
-        <v>76.599999999999994</v>
-      </c>
-      <c r="F480" s="11">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="F480" s="37">
         <v>0</v>
       </c>
       <c r="G480" s="11">
@@ -13533,9 +13539,9 @@
         <v>20</v>
       </c>
       <c r="E481" s="11">
-        <v>77.2</v>
-      </c>
-      <c r="F481" s="11">
+        <v>78.2</v>
+      </c>
+      <c r="F481" s="37">
         <v>0</v>
       </c>
       <c r="G481" s="11">
@@ -13559,9 +13565,9 @@
         <v>11</v>
       </c>
       <c r="E482" s="11">
-        <v>76.8</v>
-      </c>
-      <c r="F482" s="11">
+        <v>82.8</v>
+      </c>
+      <c r="F482" s="37">
         <v>0</v>
       </c>
       <c r="G482" s="11">
@@ -13585,10 +13591,10 @@
         <v>27</v>
       </c>
       <c r="E483" s="11">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="F483" s="11">
-        <v>0.65</v>
+        <v>80.400000000000006</v>
+      </c>
+      <c r="F483" s="37">
+        <v>0</v>
       </c>
       <c r="G483" s="11">
         <v>0</v>
@@ -13611,10 +13617,10 @@
         <v>15</v>
       </c>
       <c r="E484" s="11">
-        <v>75.2</v>
-      </c>
-      <c r="F484" s="11">
-        <v>0.12</v>
+        <v>69.900000000000006</v>
+      </c>
+      <c r="F484" s="36">
+        <v>0.22</v>
       </c>
       <c r="G484" s="11">
         <v>0</v>
@@ -13637,9 +13643,9 @@
         <v>27</v>
       </c>
       <c r="E485" s="11">
-        <v>76</v>
-      </c>
-      <c r="F485" s="11">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="F485" s="37">
         <v>0</v>
       </c>
       <c r="G485" s="11">
@@ -13663,10 +13669,10 @@
         <v>35</v>
       </c>
       <c r="E486" s="11">
-        <v>75</v>
-      </c>
-      <c r="F486" s="11">
-        <v>0.04</v>
+        <v>78.7</v>
+      </c>
+      <c r="F486" s="37">
+        <v>0</v>
       </c>
       <c r="G486" s="11">
         <v>0</v>
@@ -13686,13 +13692,13 @@
         <v>45858</v>
       </c>
       <c r="D487" s="16">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E487" s="11">
-        <v>69.5</v>
-      </c>
-      <c r="F487" s="11">
-        <v>0</v>
+        <v>73.8</v>
+      </c>
+      <c r="F487" s="36">
+        <v>0.17</v>
       </c>
       <c r="G487" s="11">
         <v>0</v>
@@ -13701,7 +13707,7 @@
         <v>6</v>
       </c>
       <c r="J487" s="11">
-        <v>5.59</v>
+        <v>4.8099999999999996</v>
       </c>
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.25">
@@ -13715,13 +13721,13 @@
         <v>45859</v>
       </c>
       <c r="D488" s="16">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E488" s="11">
-        <v>69</v>
-      </c>
-      <c r="F488" s="11">
-        <v>0</v>
+        <v>75.8</v>
+      </c>
+      <c r="F488" s="36">
+        <v>0.04</v>
       </c>
       <c r="G488" s="11">
         <v>0</v>
@@ -13730,7 +13736,7 @@
         <v>4</v>
       </c>
       <c r="J488" s="11">
-        <v>3.61</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.25">
@@ -13744,7 +13750,7 @@
         <v>45860</v>
       </c>
       <c r="D489" s="16">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E489" s="11">
         <v>74.5</v>
@@ -13759,7 +13765,7 @@
         <v>7</v>
       </c>
       <c r="J489" s="11">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.25">
@@ -13788,7 +13794,7 @@
         <v>5</v>
       </c>
       <c r="J490" s="11">
-        <v>2.4300000000000002</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.25">
@@ -13817,7 +13823,7 @@
         <v>5</v>
       </c>
       <c r="J491" s="11">
-        <v>0.82</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.25">
@@ -13846,7 +13852,7 @@
         <v>7</v>
       </c>
       <c r="J492" s="11">
-        <v>1.21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.25">
@@ -13875,7 +13881,7 @@
         <v>5</v>
       </c>
       <c r="J493" s="11">
-        <v>1.29</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.25">
@@ -13904,7 +13910,7 @@
         <v>9</v>
       </c>
       <c r="J494" s="11">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.25">
@@ -13918,7 +13924,7 @@
         <v>45866</v>
       </c>
       <c r="D495" s="16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E495" s="11">
         <v>71</v>
@@ -13933,7 +13939,7 @@
         <v>10</v>
       </c>
       <c r="J495" s="11">
-        <v>2.2200000000000002</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.25">
@@ -13962,7 +13968,7 @@
         <v>9</v>
       </c>
       <c r="J496" s="11">
-        <v>0.94</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.25">
@@ -13976,7 +13982,7 @@
         <v>45868</v>
       </c>
       <c r="D497" s="16">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E497" s="11">
         <v>73</v>
@@ -13991,7 +13997,7 @@
         <v>8</v>
       </c>
       <c r="J497" s="11">
-        <v>2.48</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.25">
@@ -14020,7 +14026,7 @@
         <v>9</v>
       </c>
       <c r="J498" s="11">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.25">
@@ -14034,7 +14040,7 @@
         <v>45870</v>
       </c>
       <c r="D499" s="16">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E499" s="11">
         <v>70</v>
@@ -14049,7 +14055,7 @@
         <v>8</v>
       </c>
       <c r="J499" s="11">
-        <v>2.4300000000000002</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.25">
@@ -14078,7 +14084,7 @@
         <v>4</v>
       </c>
       <c r="J500" s="11">
-        <v>0.75</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.25">
@@ -14107,7 +14113,7 @@
         <v>6</v>
       </c>
       <c r="J501" s="11">
-        <v>5.42</v>
+        <v>4.8499999999999996</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.25">
@@ -14136,7 +14142,7 @@
         <v>5</v>
       </c>
       <c r="J502" s="11">
-        <v>1.77</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.25">
@@ -14165,7 +14171,7 @@
         <v>5</v>
       </c>
       <c r="J503" s="11">
-        <v>1.7</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.25">
@@ -14179,7 +14185,7 @@
         <v>45875</v>
       </c>
       <c r="D504" s="16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E504" s="11">
         <v>69</v>
@@ -14194,7 +14200,7 @@
         <v>9</v>
       </c>
       <c r="J504" s="11">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.25">
@@ -14208,7 +14214,7 @@
         <v>45876</v>
       </c>
       <c r="D505" s="16">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E505" s="11">
         <v>68.5</v>
@@ -14223,7 +14229,7 @@
         <v>5</v>
       </c>
       <c r="J505" s="11">
-        <v>0.96</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.25">
@@ -14252,7 +14258,7 @@
         <v>6</v>
       </c>
       <c r="J506" s="11">
-        <v>0.75</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.25">
@@ -14266,7 +14272,7 @@
         <v>45878</v>
       </c>
       <c r="D507" s="16">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E507" s="11">
         <v>72</v>
@@ -14281,7 +14287,7 @@
         <v>15</v>
       </c>
       <c r="J507" s="11">
-        <v>7.06</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.25">
@@ -14310,7 +14316,7 @@
         <v>12</v>
       </c>
       <c r="J508" s="11">
-        <v>2.31</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.25">
@@ -14339,7 +14345,7 @@
         <v>8</v>
       </c>
       <c r="J509" s="11">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.25">
@@ -14368,7 +14374,7 @@
         <v>5</v>
       </c>
       <c r="J510" s="11">
-        <v>0.69</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.25">
@@ -14382,7 +14388,7 @@
         <v>45882</v>
       </c>
       <c r="D511" s="16">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E511" s="11">
         <v>74</v>
@@ -14397,7 +14403,7 @@
         <v>5</v>
       </c>
       <c r="J511" s="11">
-        <v>2.41</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.25">
@@ -14436,7 +14442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6638D5E3-C858-457D-8856-EE1DEA6B94D7}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="P21" sqref="P21:P45"/>
     </sheetView>
   </sheetViews>
@@ -14450,20 +14456,20 @@
         <v>43</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="29">
+      <c r="C1" s="33">
         <v>0.85</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="35"/>
       <c r="O1" s="24" t="s">
         <v>39</v>
       </c>
@@ -14516,7 +14522,7 @@
         <v>18</v>
       </c>
       <c r="P2" s="25">
-        <f t="shared" ref="P2:P26" si="1">ROUND(_xlfn.STDEV.P(D2:O2),2)</f>
+        <f t="shared" ref="P2:P20" si="1">ROUND(_xlfn.STDEV.P(D2:O2),2)</f>
         <v>4.51</v>
       </c>
       <c r="Q2">
@@ -15517,35 +15523,47 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="33">
+    <row r="21" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="30">
         <v>45858</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="31">
         <v>54</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="29">
         <v>52</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="29">
         <v>51</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="29">
         <v>50</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="29">
         <v>36</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="29">
         <v>43</v>
       </c>
-      <c r="O21" s="35">
+      <c r="I21" s="29">
+        <v>45</v>
+      </c>
+      <c r="J21" s="29">
+        <v>44</v>
+      </c>
+      <c r="K21" s="29">
+        <v>40</v>
+      </c>
+      <c r="L21" s="29">
+        <v>42</v>
+      </c>
+      <c r="O21" s="32">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="P21" s="35">
-        <f>ROUND(_xlfn.STDEV.P(D21:O21),2)</f>
-        <v>5.59</v>
+        <v>46</v>
+      </c>
+      <c r="P21" s="32">
+        <f t="shared" ref="P21:P47" si="3">ROUND(_xlfn.STDEV.P(D21:O21),2)</f>
+        <v>4.8099999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -15570,13 +15588,25 @@
       <c r="H22">
         <v>31</v>
       </c>
+      <c r="I22">
+        <v>24</v>
+      </c>
+      <c r="J22">
+        <v>28</v>
+      </c>
+      <c r="K22">
+        <v>19</v>
+      </c>
+      <c r="L22">
+        <v>17</v>
+      </c>
       <c r="O22" s="25">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P22" s="25">
-        <f>ROUND(_xlfn.STDEV.P(D22:O22),2)</f>
-        <v>3.61</v>
+        <f t="shared" si="3"/>
+        <v>4.5</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -15601,13 +15631,25 @@
       <c r="H23">
         <v>23</v>
       </c>
+      <c r="I23">
+        <v>24</v>
+      </c>
+      <c r="J23">
+        <v>24</v>
+      </c>
+      <c r="K23">
+        <v>21</v>
+      </c>
+      <c r="L23">
+        <v>24</v>
+      </c>
       <c r="O23" s="25">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P23" s="25">
-        <f>ROUND(_xlfn.STDEV.P(D23:O23),2)</f>
-        <v>1.25</v>
+        <f t="shared" si="3"/>
+        <v>1.41</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -15632,13 +15674,25 @@
       <c r="H24">
         <v>20</v>
       </c>
+      <c r="I24">
+        <v>24</v>
+      </c>
+      <c r="J24">
+        <v>23</v>
+      </c>
+      <c r="K24">
+        <v>19</v>
+      </c>
+      <c r="L24">
+        <v>21</v>
+      </c>
       <c r="O24" s="25">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="P24" s="25">
-        <f>ROUND(_xlfn.STDEV.P(D24:O24),2)</f>
-        <v>2.4300000000000002</v>
+        <f t="shared" si="3"/>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -15663,13 +15717,25 @@
       <c r="H25">
         <v>26</v>
       </c>
+      <c r="I25">
+        <v>22</v>
+      </c>
+      <c r="J25">
+        <v>24</v>
+      </c>
+      <c r="K25">
+        <v>23</v>
+      </c>
+      <c r="L25">
+        <v>25</v>
+      </c>
       <c r="O25" s="25">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="P25" s="25">
-        <f>ROUND(_xlfn.STDEV.P(D25:O25),2)</f>
-        <v>0.82</v>
+        <f t="shared" si="3"/>
+        <v>1.2</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -15694,18 +15760,26 @@
       <c r="H26" s="22">
         <v>25</v>
       </c>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
+      <c r="I26" s="18">
+        <v>25</v>
+      </c>
+      <c r="J26" s="18">
+        <v>24</v>
+      </c>
+      <c r="K26" s="18">
+        <v>24</v>
+      </c>
+      <c r="L26" s="18">
+        <v>25</v>
+      </c>
       <c r="N26" s="19"/>
       <c r="O26" s="25">
-        <f t="shared" ref="O26:O45" si="3">ROUND(AVERAGE(C26:N26),0)</f>
+        <f t="shared" ref="O26:O45" si="4">ROUND(AVERAGE(C26:N26),0)</f>
         <v>24</v>
       </c>
       <c r="P26" s="25">
-        <f>ROUND(_xlfn.STDEV.P(D26:O26),2)</f>
-        <v>1.21</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -15730,18 +15804,26 @@
       <c r="H27" s="22">
         <v>14</v>
       </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
+      <c r="I27" s="18">
+        <v>16</v>
+      </c>
+      <c r="J27" s="18">
+        <v>15</v>
+      </c>
+      <c r="K27" s="18">
+        <v>16</v>
+      </c>
+      <c r="L27" s="18">
+        <v>16</v>
+      </c>
       <c r="N27" s="19"/>
       <c r="O27" s="25">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="P27" s="25">
         <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="P27" s="25">
-        <f>ROUND(_xlfn.STDEV.P(D27:O27),2)</f>
-        <v>1.29</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -15766,18 +15848,26 @@
       <c r="H28" s="22">
         <v>20</v>
       </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
+      <c r="I28" s="18">
+        <v>17</v>
+      </c>
+      <c r="J28" s="18">
+        <v>17</v>
+      </c>
+      <c r="K28" s="18">
+        <v>18</v>
+      </c>
+      <c r="L28" s="18">
+        <v>20</v>
+      </c>
       <c r="N28" s="19"/>
       <c r="O28" s="25">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="P28" s="25">
         <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="P28" s="25">
-        <f>ROUND(_xlfn.STDEV.P(D28:O28),2)</f>
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -15802,18 +15892,26 @@
       <c r="H29" s="22">
         <v>14</v>
       </c>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
+      <c r="I29" s="18">
+        <v>16</v>
+      </c>
+      <c r="J29" s="18">
+        <v>13</v>
+      </c>
+      <c r="K29" s="18">
+        <v>15</v>
+      </c>
+      <c r="L29" s="18">
+        <v>17</v>
+      </c>
       <c r="N29" s="19"/>
       <c r="O29" s="25">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="P29" s="25">
         <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="P29" s="25">
-        <f>ROUND(_xlfn.STDEV.P(D29:O29),2)</f>
-        <v>2.2200000000000002</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -15838,18 +15936,26 @@
       <c r="H30" s="22">
         <v>20</v>
       </c>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
+      <c r="I30" s="18">
+        <v>18</v>
+      </c>
+      <c r="J30" s="18">
+        <v>20</v>
+      </c>
+      <c r="K30" s="18">
+        <v>21</v>
+      </c>
+      <c r="L30" s="18">
+        <v>21</v>
+      </c>
       <c r="N30" s="19"/>
       <c r="O30" s="25">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="P30" s="25">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="P30" s="25">
-        <f>ROUND(_xlfn.STDEV.P(D30:O30),2)</f>
-        <v>0.94</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -15874,18 +15980,26 @@
       <c r="H31" s="22">
         <v>26</v>
       </c>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
+      <c r="I31" s="18">
+        <v>23</v>
+      </c>
+      <c r="J31" s="18">
+        <v>24</v>
+      </c>
+      <c r="K31" s="18">
+        <v>21</v>
+      </c>
+      <c r="L31" s="18">
+        <v>24</v>
+      </c>
       <c r="N31" s="19"/>
       <c r="O31" s="25">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="P31" s="25">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="P31" s="25">
-        <f>ROUND(_xlfn.STDEV.P(D31:O31),2)</f>
-        <v>2.48</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -15910,18 +16024,26 @@
       <c r="H32" s="22">
         <v>30</v>
       </c>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
+      <c r="I32" s="18">
+        <v>29</v>
+      </c>
+      <c r="J32" s="18">
+        <v>32</v>
+      </c>
+      <c r="K32" s="18">
+        <v>29</v>
+      </c>
+      <c r="L32" s="18">
+        <v>26</v>
+      </c>
       <c r="N32" s="19"/>
       <c r="O32" s="25">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="P32" s="25">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="P32" s="25">
-        <f>ROUND(_xlfn.STDEV.P(D32:O32),2)</f>
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -15946,18 +16068,26 @@
       <c r="H33" s="22">
         <v>23</v>
       </c>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
+      <c r="I33" s="18">
+        <v>25</v>
+      </c>
+      <c r="J33" s="18">
+        <v>23</v>
+      </c>
+      <c r="K33" s="18">
+        <v>25</v>
+      </c>
+      <c r="L33" s="18">
+        <v>24</v>
+      </c>
       <c r="N33" s="19"/>
       <c r="O33" s="25">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="P33" s="25">
         <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="P33" s="25">
-        <f>ROUND(_xlfn.STDEV.P(D33:O33),2)</f>
-        <v>2.4300000000000002</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -15982,18 +16112,26 @@
       <c r="H34" s="22">
         <v>15</v>
       </c>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
+      <c r="I34" s="18">
+        <v>15</v>
+      </c>
+      <c r="J34" s="18">
+        <v>15</v>
+      </c>
+      <c r="K34" s="18">
+        <v>18</v>
+      </c>
+      <c r="L34" s="18">
+        <v>18</v>
+      </c>
       <c r="N34" s="19"/>
       <c r="O34" s="25">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="P34" s="25">
         <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="P34" s="25">
-        <f>ROUND(_xlfn.STDEV.P(D34:O34),2)</f>
-        <v>0.75</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -16018,18 +16156,26 @@
       <c r="H35" s="22">
         <v>45</v>
       </c>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
+      <c r="I35" s="18">
+        <v>43</v>
+      </c>
+      <c r="J35" s="18">
+        <v>44</v>
+      </c>
+      <c r="K35" s="18">
+        <v>52</v>
+      </c>
+      <c r="L35" s="18">
+        <v>50</v>
+      </c>
       <c r="N35" s="19"/>
       <c r="O35" s="25">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="P35" s="25">
         <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="P35" s="25">
-        <f>ROUND(_xlfn.STDEV.P(D35:O35),2)</f>
-        <v>5.42</v>
+        <v>4.8499999999999996</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
@@ -16054,18 +16200,26 @@
       <c r="H36" s="22">
         <v>23</v>
       </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
+      <c r="I36" s="18">
+        <v>20</v>
+      </c>
+      <c r="J36" s="18">
+        <v>25</v>
+      </c>
+      <c r="K36" s="18">
+        <v>21</v>
+      </c>
+      <c r="L36" s="18">
+        <v>18</v>
+      </c>
       <c r="N36" s="19"/>
       <c r="O36" s="25">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="P36" s="25">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="P36" s="25">
-        <f>ROUND(_xlfn.STDEV.P(D36:O36),2)</f>
-        <v>1.77</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
@@ -16090,18 +16244,26 @@
       <c r="H37" s="22">
         <v>16</v>
       </c>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
+      <c r="I37" s="18">
+        <v>15</v>
+      </c>
+      <c r="J37" s="18">
+        <v>18</v>
+      </c>
+      <c r="K37" s="18">
+        <v>21</v>
+      </c>
+      <c r="L37" s="18">
+        <v>15</v>
+      </c>
       <c r="N37" s="19"/>
       <c r="O37" s="25">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="P37" s="25">
         <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="P37" s="25">
-        <f>ROUND(_xlfn.STDEV.P(D37:O37),2)</f>
-        <v>1.7</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -16126,18 +16288,26 @@
       <c r="H38" s="22">
         <v>22</v>
       </c>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
+      <c r="I38" s="18">
+        <v>20</v>
+      </c>
+      <c r="J38" s="18">
+        <v>22</v>
+      </c>
+      <c r="K38" s="18">
+        <v>20</v>
+      </c>
+      <c r="L38" s="18">
+        <v>22</v>
+      </c>
       <c r="N38" s="19"/>
       <c r="O38" s="25">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="P38" s="25">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="P38" s="25">
-        <f>ROUND(_xlfn.STDEV.P(D38:O38),2)</f>
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -16162,18 +16332,26 @@
       <c r="H39" s="22">
         <v>24</v>
       </c>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
+      <c r="I39" s="18">
+        <v>21</v>
+      </c>
+      <c r="J39" s="18">
+        <v>24</v>
+      </c>
+      <c r="K39" s="18">
+        <v>24</v>
+      </c>
+      <c r="L39" s="18">
+        <v>25</v>
+      </c>
       <c r="N39" s="19"/>
       <c r="O39" s="25">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="P39" s="25">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="P39" s="25">
-        <f>ROUND(_xlfn.STDEV.P(D39:O39),2)</f>
-        <v>0.96</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
@@ -16198,18 +16376,26 @@
       <c r="H40" s="22">
         <v>20</v>
       </c>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
+      <c r="I40" s="18">
+        <v>22</v>
+      </c>
+      <c r="J40" s="18">
+        <v>21</v>
+      </c>
+      <c r="K40" s="18">
+        <v>20</v>
+      </c>
+      <c r="L40" s="18">
+        <v>20</v>
+      </c>
       <c r="N40" s="19"/>
       <c r="O40" s="25">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="P40" s="25">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="P40" s="25">
-        <f>ROUND(_xlfn.STDEV.P(D40:O40),2)</f>
-        <v>0.75</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
@@ -16234,18 +16420,26 @@
       <c r="H41" s="22">
         <v>48</v>
       </c>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
+      <c r="I41" s="18">
+        <v>47</v>
+      </c>
+      <c r="J41" s="18">
+        <v>38</v>
+      </c>
+      <c r="K41" s="18">
+        <v>41</v>
+      </c>
+      <c r="L41" s="18">
+        <v>41</v>
+      </c>
       <c r="N41" s="19"/>
       <c r="O41" s="25">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="P41" s="25">
         <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="P41" s="25">
-        <f>ROUND(_xlfn.STDEV.P(D41:O41),2)</f>
-        <v>7.06</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -16270,18 +16464,26 @@
       <c r="H42" s="22">
         <v>21</v>
       </c>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
+      <c r="I42" s="18">
+        <v>16</v>
+      </c>
+      <c r="J42" s="18">
+        <v>25</v>
+      </c>
+      <c r="K42" s="18">
+        <v>16</v>
+      </c>
+      <c r="L42" s="18">
+        <v>20</v>
+      </c>
       <c r="N42" s="19"/>
       <c r="O42" s="25">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="P42" s="25">
         <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="P42" s="25">
-        <f>ROUND(_xlfn.STDEV.P(D42:O42),2)</f>
-        <v>2.31</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
@@ -16306,18 +16508,26 @@
       <c r="H43" s="22">
         <v>9</v>
       </c>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
+      <c r="I43" s="18">
+        <v>12</v>
+      </c>
+      <c r="J43" s="18">
+        <v>12</v>
+      </c>
+      <c r="K43" s="18">
+        <v>17</v>
+      </c>
+      <c r="L43" s="18">
+        <v>12</v>
+      </c>
       <c r="N43" s="19"/>
       <c r="O43" s="25">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="P43" s="25">
         <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="P43" s="25">
-        <f>ROUND(_xlfn.STDEV.P(D43:O43),2)</f>
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
@@ -16342,18 +16552,26 @@
       <c r="H44" s="22">
         <v>15</v>
       </c>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
+      <c r="I44" s="18">
+        <v>18</v>
+      </c>
+      <c r="J44" s="18">
+        <v>14</v>
+      </c>
+      <c r="K44" s="18">
+        <v>15</v>
+      </c>
+      <c r="L44" s="18">
+        <v>15</v>
+      </c>
       <c r="N44" s="19"/>
       <c r="O44" s="25">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="P44" s="25">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="P44" s="25">
-        <f>ROUND(_xlfn.STDEV.P(D44:O44),2)</f>
-        <v>0.69</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="45" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16378,18 +16596,26 @@
       <c r="H45" s="23">
         <v>26</v>
       </c>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
+      <c r="I45" s="20">
+        <v>27</v>
+      </c>
+      <c r="J45" s="20">
+        <v>30</v>
+      </c>
+      <c r="K45" s="20">
+        <v>28</v>
+      </c>
+      <c r="L45" s="20">
+        <v>26</v>
+      </c>
       <c r="N45" s="21"/>
       <c r="O45" s="26">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="P45" s="26">
         <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="P45" s="26">
-        <f>ROUND(_xlfn.STDEV.P(D45:O45),2)</f>
-        <v>2.41</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -16414,18 +16640,26 @@
       <c r="H46" s="22">
         <v>24.8</v>
       </c>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
+      <c r="I46" s="18">
+        <v>28.68</v>
+      </c>
+      <c r="J46" s="18">
+        <v>29.12</v>
+      </c>
+      <c r="K46" s="18">
+        <v>29.43</v>
+      </c>
+      <c r="L46" s="18">
+        <v>27.57</v>
+      </c>
       <c r="N46" s="19"/>
       <c r="O46" s="25">
         <f>ROUND(AVERAGE(C46:N46),2)</f>
-        <v>26.92</v>
+        <v>27.63</v>
       </c>
       <c r="P46" s="25">
-        <f>ROUND(_xlfn.STDEV.P(D46:O46),2)</f>
-        <v>2.27</v>
+        <f t="shared" si="3"/>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
@@ -16450,18 +16684,26 @@
       <c r="H47" s="22">
         <v>15.33</v>
       </c>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
+      <c r="I47" s="18">
+        <v>14.35</v>
+      </c>
+      <c r="J47" s="18">
+        <v>12.52</v>
+      </c>
+      <c r="K47" s="18">
+        <v>15.15</v>
+      </c>
+      <c r="L47" s="18">
+        <v>14.72</v>
+      </c>
       <c r="N47" s="19"/>
       <c r="O47" s="25">
         <f>ROUND(AVERAGE(C47:N47),2)</f>
-        <v>15.68</v>
+        <v>15.08</v>
       </c>
       <c r="P47" s="25">
-        <f>ROUND(_xlfn.STDEV.P(D47:O47),2)</f>
-        <v>0.32</v>
+        <f t="shared" si="3"/>
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>

--- a/restaurant_analytics/mornings.xlsx
+++ b/restaurant_analytics/mornings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E89B5CE-E655-4647-9E65-DE8373C6C649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6613553D-FA24-41C3-B8FB-879530E96CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31395" yWindow="3240" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -476,6 +476,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -485,17 +491,24 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -827,8 +840,8 @@
   <dimension ref="A1:K520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I483" sqref="A1:J511"/>
+      <pane ySplit="1" topLeftCell="A478" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J489" sqref="J489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13435,16 +13448,16 @@
         <v>25</v>
       </c>
       <c r="E477" s="11">
-        <v>74.3</v>
+        <v>74.8</v>
       </c>
       <c r="F477" s="11">
-        <v>0</v>
+        <v>1.2010000000000001</v>
       </c>
       <c r="G477" s="11">
         <v>0</v>
       </c>
       <c r="H477" s="11">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
@@ -13461,16 +13474,16 @@
         <v>29</v>
       </c>
       <c r="E478" s="11">
-        <v>77.900000000000006</v>
-      </c>
-      <c r="F478" s="36">
-        <v>1.29</v>
+        <v>76.8</v>
+      </c>
+      <c r="F478" s="33">
+        <v>0.98799999999999999</v>
       </c>
       <c r="G478" s="11">
         <v>0</v>
       </c>
       <c r="H478" s="11">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
@@ -13487,16 +13500,16 @@
         <v>43</v>
       </c>
       <c r="E479" s="11">
-        <v>77.7</v>
-      </c>
-      <c r="F479" s="36">
-        <v>0.01</v>
+        <v>76.599999999999994</v>
+      </c>
+      <c r="F479" s="34">
+        <v>0</v>
       </c>
       <c r="G479" s="11">
         <v>0</v>
       </c>
       <c r="H479" s="11">
-        <v>10.1</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
@@ -13513,16 +13526,16 @@
         <v>32</v>
       </c>
       <c r="E480" s="11">
-        <v>76.900000000000006</v>
-      </c>
-      <c r="F480" s="37">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="F480" s="34">
         <v>0</v>
       </c>
       <c r="G480" s="11">
         <v>0</v>
       </c>
       <c r="H480" s="11">
-        <v>8.6</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.25">
@@ -13539,16 +13552,16 @@
         <v>20</v>
       </c>
       <c r="E481" s="11">
-        <v>78.2</v>
-      </c>
-      <c r="F481" s="37">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="F481" s="34">
         <v>0</v>
       </c>
       <c r="G481" s="11">
         <v>0</v>
       </c>
       <c r="H481" s="11">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.25">
@@ -13565,16 +13578,16 @@
         <v>11</v>
       </c>
       <c r="E482" s="11">
-        <v>82.8</v>
-      </c>
-      <c r="F482" s="37">
+        <v>80.2</v>
+      </c>
+      <c r="F482" s="34">
         <v>0</v>
       </c>
       <c r="G482" s="11">
         <v>0</v>
       </c>
       <c r="H482" s="11">
-        <v>7.8</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.25">
@@ -13591,16 +13604,16 @@
         <v>27</v>
       </c>
       <c r="E483" s="11">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="F483" s="37">
-        <v>0</v>
+        <v>81.099999999999994</v>
+      </c>
+      <c r="F483" s="34">
+        <v>0.35799999999999998</v>
       </c>
       <c r="G483" s="11">
         <v>0</v>
       </c>
       <c r="H483" s="11">
-        <v>8.1</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.25">
@@ -13617,16 +13630,16 @@
         <v>15</v>
       </c>
       <c r="E484" s="11">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="F484" s="36">
-        <v>0.22</v>
+        <v>70.3</v>
+      </c>
+      <c r="F484" s="34">
+        <v>0</v>
       </c>
       <c r="G484" s="11">
         <v>0</v>
       </c>
       <c r="H484" s="11">
-        <v>8.8000000000000007</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.25">
@@ -13643,16 +13656,16 @@
         <v>27</v>
       </c>
       <c r="E485" s="11">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="F485" s="37">
+        <v>67.5</v>
+      </c>
+      <c r="F485" s="34">
         <v>0</v>
       </c>
       <c r="G485" s="11">
         <v>0</v>
       </c>
       <c r="H485" s="11">
-        <v>13</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.25">
@@ -13669,10 +13682,10 @@
         <v>35</v>
       </c>
       <c r="E486" s="11">
-        <v>78.7</v>
-      </c>
-      <c r="F486" s="37">
-        <v>0</v>
+        <v>75.900000000000006</v>
+      </c>
+      <c r="F486" s="34">
+        <v>0.189</v>
       </c>
       <c r="G486" s="11">
         <v>0</v>
@@ -13692,22 +13705,19 @@
         <v>45858</v>
       </c>
       <c r="D487" s="16">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="E487" s="11">
-        <v>73.8</v>
-      </c>
-      <c r="F487" s="36">
-        <v>0.17</v>
+        <v>77.5</v>
+      </c>
+      <c r="F487" s="33">
+        <v>0.87</v>
       </c>
       <c r="G487" s="11">
         <v>0</v>
       </c>
       <c r="H487" s="11">
-        <v>6</v>
-      </c>
-      <c r="J487" s="11">
-        <v>4.8099999999999996</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.25">
@@ -13721,22 +13731,19 @@
         <v>45859</v>
       </c>
       <c r="D488" s="16">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E488" s="11">
-        <v>75.8</v>
-      </c>
-      <c r="F488" s="36">
-        <v>0.04</v>
+        <v>73.400000000000006</v>
+      </c>
+      <c r="F488" s="34">
+        <v>0</v>
       </c>
       <c r="G488" s="11">
         <v>0</v>
       </c>
       <c r="H488" s="11">
-        <v>4</v>
-      </c>
-      <c r="J488" s="11">
-        <v>4.5</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.25">
@@ -13753,19 +13760,16 @@
         <v>24</v>
       </c>
       <c r="E489" s="11">
-        <v>74.5</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="F489" s="11">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G489" s="11">
         <v>0</v>
       </c>
       <c r="H489" s="11">
-        <v>7</v>
-      </c>
-      <c r="J489" s="11">
-        <v>1.41</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.25">
@@ -13779,22 +13783,22 @@
         <v>45861</v>
       </c>
       <c r="D490" s="16">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E490" s="11">
-        <v>76</v>
+        <v>83.1</v>
       </c>
       <c r="F490" s="11">
-        <v>0.3</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="G490" s="11">
         <v>0</v>
       </c>
       <c r="H490" s="11">
-        <v>5</v>
+        <v>11.1</v>
       </c>
       <c r="J490" s="11">
-        <v>2.2400000000000002</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.25">
@@ -13808,22 +13812,22 @@
         <v>45862</v>
       </c>
       <c r="D491" s="16">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E491" s="11">
-        <v>73</v>
+        <v>82.4</v>
       </c>
       <c r="F491" s="11">
-        <v>0</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="G491" s="11">
         <v>0</v>
       </c>
       <c r="H491" s="11">
-        <v>5</v>
+        <v>10.8</v>
       </c>
       <c r="J491" s="11">
-        <v>1.2</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.25">
@@ -13837,22 +13841,22 @@
         <v>45863</v>
       </c>
       <c r="D492" s="16">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E492" s="11">
-        <v>72</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="F492" s="11">
-        <v>0</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="G492" s="11">
         <v>0</v>
       </c>
       <c r="H492" s="11">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="J492" s="11">
-        <v>1</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.25">
@@ -13866,10 +13870,10 @@
         <v>45864</v>
       </c>
       <c r="D493" s="16">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E493" s="11">
-        <v>70</v>
+        <v>77.5</v>
       </c>
       <c r="F493" s="11">
         <v>0</v>
@@ -13878,10 +13882,10 @@
         <v>0</v>
       </c>
       <c r="H493" s="11">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="J493" s="11">
-        <v>1.04</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.25">
@@ -13895,10 +13899,10 @@
         <v>45865</v>
       </c>
       <c r="D494" s="16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E494" s="11">
-        <v>73.5</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="F494" s="11">
         <v>0.63</v>
@@ -13907,10 +13911,10 @@
         <v>0</v>
       </c>
       <c r="H494" s="11">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="J494" s="11">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.25">
@@ -13924,10 +13928,10 @@
         <v>45866</v>
       </c>
       <c r="D495" s="16">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E495" s="11">
-        <v>71</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="F495" s="11">
         <v>0.11</v>
@@ -13936,10 +13940,10 @@
         <v>0</v>
       </c>
       <c r="H495" s="11">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="J495" s="11">
-        <v>2.2000000000000002</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.25">
@@ -13953,10 +13957,10 @@
         <v>45867</v>
       </c>
       <c r="D496" s="16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E496" s="11">
-        <v>73.5</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="F496" s="11">
         <v>0.08</v>
@@ -13965,10 +13969,10 @@
         <v>0</v>
       </c>
       <c r="H496" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J496" s="11">
-        <v>1.08</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.25">
@@ -13985,7 +13989,7 @@
         <v>23</v>
       </c>
       <c r="E497" s="11">
-        <v>73</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="F497" s="11">
         <v>0.02</v>
@@ -13994,10 +13998,10 @@
         <v>0</v>
       </c>
       <c r="H497" s="11">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="J497" s="11">
-        <v>2.0499999999999998</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.25">
@@ -14011,10 +14015,10 @@
         <v>45869</v>
       </c>
       <c r="D498" s="16">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E498" s="11">
-        <v>70</v>
+        <v>74.8</v>
       </c>
       <c r="F498" s="11">
         <v>0</v>
@@ -14023,10 +14027,10 @@
         <v>0</v>
       </c>
       <c r="H498" s="11">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="J498" s="11">
-        <v>2.14</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.25">
@@ -14043,7 +14047,7 @@
         <v>26</v>
       </c>
       <c r="E499" s="11">
-        <v>70</v>
+        <v>74.5</v>
       </c>
       <c r="F499" s="11">
         <v>0</v>
@@ -14052,10 +14056,10 @@
         <v>0</v>
       </c>
       <c r="H499" s="11">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="J499" s="11">
-        <v>2.15</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.25">
@@ -14069,10 +14073,10 @@
         <v>45871</v>
       </c>
       <c r="D500" s="16">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E500" s="11">
-        <v>69</v>
+        <v>74.5</v>
       </c>
       <c r="F500" s="11">
         <v>0</v>
@@ -14081,10 +14085,10 @@
         <v>0</v>
       </c>
       <c r="H500" s="11">
-        <v>4</v>
+        <v>7.6</v>
       </c>
       <c r="J500" s="11">
-        <v>1.1100000000000001</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.25">
@@ -14098,7 +14102,7 @@
         <v>45872</v>
       </c>
       <c r="D501" s="16">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E501" s="11">
         <v>71</v>
@@ -14113,7 +14117,7 @@
         <v>6</v>
       </c>
       <c r="J501" s="11">
-        <v>4.8499999999999996</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.25">
@@ -14142,7 +14146,7 @@
         <v>5</v>
       </c>
       <c r="J502" s="11">
-        <v>2.19</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.25">
@@ -14156,7 +14160,7 @@
         <v>45874</v>
       </c>
       <c r="D503" s="16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E503" s="11">
         <v>73.5</v>
@@ -14171,7 +14175,7 @@
         <v>5</v>
       </c>
       <c r="J503" s="11">
-        <v>2.0499999999999998</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.25">
@@ -14185,7 +14189,7 @@
         <v>45875</v>
       </c>
       <c r="D504" s="16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E504" s="11">
         <v>69</v>
@@ -14200,7 +14204,7 @@
         <v>9</v>
       </c>
       <c r="J504" s="11">
-        <v>1.27</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.25">
@@ -14229,7 +14233,7 @@
         <v>5</v>
       </c>
       <c r="J505" s="11">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.25">
@@ -14258,7 +14262,7 @@
         <v>6</v>
       </c>
       <c r="J506" s="11">
-        <v>0.81</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.25">
@@ -14272,7 +14276,7 @@
         <v>45878</v>
       </c>
       <c r="D507" s="16">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E507" s="11">
         <v>72</v>
@@ -14287,7 +14291,7 @@
         <v>15</v>
       </c>
       <c r="J507" s="11">
-        <v>5.94</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.25">
@@ -14316,7 +14320,7 @@
         <v>12</v>
       </c>
       <c r="J508" s="11">
-        <v>2.95</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.25">
@@ -14330,7 +14334,7 @@
         <v>45880</v>
       </c>
       <c r="D509" s="16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E509" s="11">
         <v>69.5</v>
@@ -14345,7 +14349,7 @@
         <v>8</v>
       </c>
       <c r="J509" s="11">
-        <v>1.99</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.25">
@@ -14374,7 +14378,7 @@
         <v>5</v>
       </c>
       <c r="J510" s="11">
-        <v>1.1399999999999999</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.25">
@@ -14403,7 +14407,7 @@
         <v>5</v>
       </c>
       <c r="J511" s="11">
-        <v>2.11</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.25">
@@ -14442,8 +14446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6638D5E3-C858-457D-8856-EE1DEA6B94D7}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21:P45"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24:P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14456,20 +14460,20 @@
         <v>43</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="33">
+      <c r="C1" s="35">
         <v>0.85</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="37"/>
       <c r="O1" s="24" t="s">
         <v>39</v>
       </c>
@@ -14579,7 +14583,7 @@
         <v>8.7200000000000006</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q20" si="2">O3-A3</f>
+        <f t="shared" ref="Q3:Q23" si="2">O3-A3</f>
         <v>-11</v>
       </c>
     </row>
@@ -15523,50 +15527,60 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="30">
+    <row r="21" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38">
+        <v>20</v>
+      </c>
+      <c r="B21" s="39">
         <v>45858</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="40">
         <v>54</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="38">
         <v>52</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="38">
         <v>51</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="38">
         <v>50</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="38">
         <v>36</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="38">
         <v>43</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="38">
         <v>45</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="38">
         <v>44</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="38">
         <v>40</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L21" s="38">
         <v>42</v>
       </c>
-      <c r="O21" s="32">
+      <c r="O21" s="41">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="P21" s="32">
-        <f t="shared" ref="P21:P47" si="3">ROUND(_xlfn.STDEV.P(D21:O21),2)</f>
+      <c r="P21" s="41">
+        <f t="shared" ref="P21:P46" si="3">ROUND(_xlfn.STDEV.P(D21:O21),2)</f>
         <v>4.8099999999999996</v>
       </c>
+      <c r="Q21" s="38">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>12</v>
+      </c>
       <c r="B22" s="27">
         <v>45859</v>
       </c>
@@ -15608,91 +15622,78 @@
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="27">
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38">
+        <v>14</v>
+      </c>
+      <c r="B23" s="39">
         <v>45860</v>
       </c>
-      <c r="C23" s="18">
-        <v>24</v>
-      </c>
-      <c r="D23">
-        <v>25</v>
-      </c>
-      <c r="E23">
-        <v>26</v>
-      </c>
-      <c r="F23">
-        <v>26</v>
-      </c>
-      <c r="G23">
-        <v>23</v>
-      </c>
-      <c r="H23">
-        <v>23</v>
-      </c>
-      <c r="I23">
-        <v>24</v>
-      </c>
-      <c r="J23">
-        <v>24</v>
-      </c>
-      <c r="K23">
-        <v>21</v>
-      </c>
-      <c r="L23">
-        <v>24</v>
-      </c>
-      <c r="O23" s="25">
+      <c r="C23" s="40">
+        <v>13</v>
+      </c>
+      <c r="D23" s="38">
+        <v>15</v>
+      </c>
+      <c r="O23" s="41">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="P23" s="25">
+        <v>14</v>
+      </c>
+      <c r="P23" s="41">
         <f t="shared" si="3"/>
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="Q23" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="30">
         <v>45861</v>
       </c>
-      <c r="C24" s="18">
-        <v>27</v>
-      </c>
-      <c r="D24">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>20</v>
-      </c>
-      <c r="F24">
-        <v>25</v>
-      </c>
-      <c r="G24">
-        <v>18</v>
-      </c>
-      <c r="H24">
-        <v>20</v>
-      </c>
-      <c r="I24">
-        <v>24</v>
-      </c>
-      <c r="J24">
-        <v>23</v>
-      </c>
-      <c r="K24">
-        <v>19</v>
-      </c>
-      <c r="L24">
-        <v>21</v>
-      </c>
-      <c r="O24" s="25">
+      <c r="C24" s="31">
+        <v>13</v>
+      </c>
+      <c r="D24" s="29">
+        <v>10</v>
+      </c>
+      <c r="E24" s="29">
+        <v>9</v>
+      </c>
+      <c r="F24" s="29">
+        <v>14</v>
+      </c>
+      <c r="G24" s="29">
+        <v>11</v>
+      </c>
+      <c r="H24" s="29">
+        <v>14</v>
+      </c>
+      <c r="I24" s="29">
+        <v>12</v>
+      </c>
+      <c r="J24" s="29">
+        <v>11</v>
+      </c>
+      <c r="K24" s="29">
+        <v>12</v>
+      </c>
+      <c r="L24" s="29">
+        <v>13</v>
+      </c>
+      <c r="O24" s="32">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="P24" s="25">
+        <v>12</v>
+      </c>
+      <c r="P24" s="32">
         <f t="shared" si="3"/>
-        <v>2.2400000000000002</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -15700,42 +15701,42 @@
         <v>45862</v>
       </c>
       <c r="C25" s="18">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E25">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F25">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G25">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H25">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I25">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J25">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K25">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="O25" s="25">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="P25" s="25">
         <f t="shared" si="3"/>
-        <v>1.2</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -15743,43 +15744,43 @@
         <v>45863</v>
       </c>
       <c r="C26" s="18">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D26" s="18">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E26" s="18">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F26" s="18">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26" s="18">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H26" s="22">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I26" s="18">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J26" s="18">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K26" s="18">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L26" s="18">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N26" s="19"/>
       <c r="O26" s="25">
         <f t="shared" ref="O26:O45" si="4">ROUND(AVERAGE(C26:N26),0)</f>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="P26" s="25">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -15787,43 +15788,43 @@
         <v>45864</v>
       </c>
       <c r="C27" s="18">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D27" s="18">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E27" s="18">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F27" s="18">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G27" s="18">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H27" s="22">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I27" s="18">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J27" s="18">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K27" s="18">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L27" s="18">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N27" s="19"/>
       <c r="O27" s="25">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="P27" s="25">
         <f t="shared" si="3"/>
-        <v>1.04</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -15831,43 +15832,43 @@
         <v>45865</v>
       </c>
       <c r="C28" s="18">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D28" s="18">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E28" s="18">
         <v>17</v>
       </c>
       <c r="F28" s="18">
+        <v>13</v>
+      </c>
+      <c r="G28" s="18">
         <v>16</v>
       </c>
-      <c r="G28" s="18">
+      <c r="H28" s="22">
+        <v>16</v>
+      </c>
+      <c r="I28" s="18">
+        <v>13</v>
+      </c>
+      <c r="J28" s="18">
         <v>18</v>
       </c>
-      <c r="H28" s="22">
-        <v>20</v>
-      </c>
-      <c r="I28" s="18">
+      <c r="K28" s="18">
+        <v>16</v>
+      </c>
+      <c r="L28" s="18">
         <v>17</v>
-      </c>
-      <c r="J28" s="18">
-        <v>17</v>
-      </c>
-      <c r="K28" s="18">
-        <v>18</v>
-      </c>
-      <c r="L28" s="18">
-        <v>20</v>
       </c>
       <c r="N28" s="19"/>
       <c r="O28" s="25">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P28" s="25">
         <f t="shared" si="3"/>
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -15875,43 +15876,43 @@
         <v>45866</v>
       </c>
       <c r="C29" s="18">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D29" s="18">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E29" s="18">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F29" s="18">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G29" s="18">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H29" s="22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I29" s="18">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J29" s="18">
+        <v>8</v>
+      </c>
+      <c r="K29" s="18">
         <v>13</v>
       </c>
-      <c r="K29" s="18">
-        <v>15</v>
-      </c>
       <c r="L29" s="18">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N29" s="19"/>
       <c r="O29" s="25">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P29" s="25">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -15919,43 +15920,43 @@
         <v>45867</v>
       </c>
       <c r="C30" s="18">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D30" s="18">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E30" s="18">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F30" s="18">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G30" s="18">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H30" s="22">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I30" s="18">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J30" s="18">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K30" s="18">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L30" s="18">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N30" s="19"/>
       <c r="O30" s="25">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P30" s="25">
         <f t="shared" si="3"/>
-        <v>1.08</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -15963,34 +15964,34 @@
         <v>45868</v>
       </c>
       <c r="C31" s="18">
+        <v>24</v>
+      </c>
+      <c r="D31" s="18">
         <v>26</v>
       </c>
-      <c r="D31" s="18">
-        <v>19</v>
-      </c>
       <c r="E31" s="18">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
         <v>22</v>
       </c>
       <c r="G31" s="18">
+        <v>23</v>
+      </c>
+      <c r="H31" s="22">
+        <v>20</v>
+      </c>
+      <c r="I31" s="18">
+        <v>26</v>
+      </c>
+      <c r="J31" s="18">
         <v>22</v>
       </c>
-      <c r="H31" s="22">
-        <v>26</v>
-      </c>
-      <c r="I31" s="18">
+      <c r="K31" s="18">
         <v>23</v>
       </c>
-      <c r="J31" s="18">
-        <v>24</v>
-      </c>
-      <c r="K31" s="18">
-        <v>21</v>
-      </c>
       <c r="L31" s="18">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N31" s="19"/>
       <c r="O31" s="25">
@@ -15999,7 +16000,7 @@
       </c>
       <c r="P31" s="25">
         <f t="shared" si="3"/>
-        <v>2.0499999999999998</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -16007,43 +16008,43 @@
         <v>45869</v>
       </c>
       <c r="C32" s="18">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D32" s="18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E32" s="18">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F32" s="18">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G32" s="18">
         <v>26</v>
       </c>
       <c r="H32" s="22">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I32" s="18">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J32" s="18">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K32" s="18">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L32" s="18">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N32" s="19"/>
       <c r="O32" s="25">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P32" s="25">
         <f t="shared" si="3"/>
-        <v>2.14</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -16051,34 +16052,34 @@
         <v>45870</v>
       </c>
       <c r="C33" s="18">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D33" s="18">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E33" s="18">
+        <v>27</v>
+      </c>
+      <c r="F33" s="18">
         <v>25</v>
       </c>
-      <c r="F33" s="18">
-        <v>26</v>
-      </c>
       <c r="G33" s="18">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H33" s="22">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I33" s="18">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J33" s="18">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K33" s="18">
         <v>25</v>
       </c>
       <c r="L33" s="18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N33" s="19"/>
       <c r="O33" s="25">
@@ -16087,7 +16088,7 @@
       </c>
       <c r="P33" s="25">
         <f t="shared" si="3"/>
-        <v>2.15</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -16095,43 +16096,43 @@
         <v>45871</v>
       </c>
       <c r="C34" s="18">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D34" s="18">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E34" s="18">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F34" s="18">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G34" s="18">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H34" s="22">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I34" s="18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J34" s="18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K34" s="18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L34" s="18">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N34" s="19"/>
       <c r="O34" s="25">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="P34" s="25">
         <f t="shared" si="3"/>
-        <v>1.1100000000000001</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -16139,43 +16140,43 @@
         <v>45872</v>
       </c>
       <c r="C35" s="18">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D35" s="18">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E35" s="18">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F35" s="18">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G35" s="18">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H35" s="22">
+        <v>55</v>
+      </c>
+      <c r="I35" s="18">
+        <v>46</v>
+      </c>
+      <c r="J35" s="18">
+        <v>46</v>
+      </c>
+      <c r="K35" s="18">
+        <v>46</v>
+      </c>
+      <c r="L35" s="18">
         <v>45</v>
-      </c>
-      <c r="I35" s="18">
-        <v>43</v>
-      </c>
-      <c r="J35" s="18">
-        <v>44</v>
-      </c>
-      <c r="K35" s="18">
-        <v>52</v>
-      </c>
-      <c r="L35" s="18">
-        <v>50</v>
       </c>
       <c r="N35" s="19"/>
       <c r="O35" s="25">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P35" s="25">
         <f t="shared" si="3"/>
-        <v>4.8499999999999996</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
@@ -16183,34 +16184,34 @@
         <v>45873</v>
       </c>
       <c r="C36" s="18">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36" s="18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E36" s="18">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F36" s="18">
         <v>19</v>
       </c>
       <c r="G36" s="18">
+        <v>24</v>
+      </c>
+      <c r="H36" s="22">
+        <v>20</v>
+      </c>
+      <c r="I36" s="18">
+        <v>22</v>
+      </c>
+      <c r="J36" s="18">
         <v>17</v>
       </c>
-      <c r="H36" s="22">
-        <v>23</v>
-      </c>
-      <c r="I36" s="18">
+      <c r="K36" s="18">
         <v>20</v>
       </c>
-      <c r="J36" s="18">
-        <v>25</v>
-      </c>
-      <c r="K36" s="18">
-        <v>21</v>
-      </c>
       <c r="L36" s="18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N36" s="19"/>
       <c r="O36" s="25">
@@ -16219,7 +16220,7 @@
       </c>
       <c r="P36" s="25">
         <f t="shared" si="3"/>
-        <v>2.19</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
@@ -16227,43 +16228,43 @@
         <v>45874</v>
       </c>
       <c r="C37" s="18">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D37" s="18">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E37" s="18">
+        <v>16</v>
+      </c>
+      <c r="F37" s="18">
         <v>19</v>
-      </c>
-      <c r="F37" s="18">
-        <v>15</v>
       </c>
       <c r="G37" s="18">
         <v>17</v>
       </c>
       <c r="H37" s="22">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I37" s="18">
         <v>15</v>
       </c>
       <c r="J37" s="18">
+        <v>14</v>
+      </c>
+      <c r="K37" s="18">
+        <v>16</v>
+      </c>
+      <c r="L37" s="18">
         <v>18</v>
-      </c>
-      <c r="K37" s="18">
-        <v>21</v>
-      </c>
-      <c r="L37" s="18">
-        <v>15</v>
       </c>
       <c r="N37" s="19"/>
       <c r="O37" s="25">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P37" s="25">
         <f t="shared" si="3"/>
-        <v>2.0499999999999998</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -16274,40 +16275,40 @@
         <v>20</v>
       </c>
       <c r="D38" s="18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E38" s="18">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F38" s="18">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G38" s="18">
         <v>20</v>
       </c>
       <c r="H38" s="22">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I38" s="18">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J38" s="18">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K38" s="18">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L38" s="18">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N38" s="19"/>
       <c r="O38" s="25">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P38" s="25">
         <f t="shared" si="3"/>
-        <v>1.27</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -16318,31 +16319,31 @@
         <v>25</v>
       </c>
       <c r="D39" s="18">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E39" s="18">
+        <v>21</v>
+      </c>
+      <c r="F39" s="18">
+        <v>23</v>
+      </c>
+      <c r="G39" s="18">
+        <v>22</v>
+      </c>
+      <c r="H39" s="22">
+        <v>26</v>
+      </c>
+      <c r="I39" s="18">
         <v>25</v>
       </c>
-      <c r="F39" s="18">
-        <v>26</v>
-      </c>
-      <c r="G39" s="18">
+      <c r="J39" s="18">
         <v>23</v>
-      </c>
-      <c r="H39" s="22">
-        <v>24</v>
-      </c>
-      <c r="I39" s="18">
-        <v>21</v>
-      </c>
-      <c r="J39" s="18">
-        <v>24</v>
       </c>
       <c r="K39" s="18">
         <v>24</v>
       </c>
       <c r="L39" s="18">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N39" s="19"/>
       <c r="O39" s="25">
@@ -16351,7 +16352,7 @@
       </c>
       <c r="P39" s="25">
         <f t="shared" si="3"/>
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
@@ -16362,31 +16363,31 @@
         <v>19</v>
       </c>
       <c r="D40" s="18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E40" s="18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F40" s="18">
         <v>20</v>
       </c>
       <c r="G40" s="18">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H40" s="22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I40" s="18">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J40" s="18">
         <v>21</v>
       </c>
       <c r="K40" s="18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L40" s="18">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N40" s="19"/>
       <c r="O40" s="25">
@@ -16395,7 +16396,7 @@
       </c>
       <c r="P40" s="25">
         <f t="shared" si="3"/>
-        <v>0.81</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
@@ -16403,43 +16404,43 @@
         <v>45878</v>
       </c>
       <c r="C41" s="18">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D41" s="18">
+        <v>49</v>
+      </c>
+      <c r="E41" s="18">
+        <v>39</v>
+      </c>
+      <c r="F41" s="18">
+        <v>36</v>
+      </c>
+      <c r="G41" s="18">
+        <v>39</v>
+      </c>
+      <c r="H41" s="22">
         <v>38</v>
       </c>
-      <c r="E41" s="18">
-        <v>46</v>
-      </c>
-      <c r="F41" s="18">
-        <v>55</v>
-      </c>
-      <c r="G41" s="18">
-        <v>33</v>
-      </c>
-      <c r="H41" s="22">
-        <v>48</v>
-      </c>
       <c r="I41" s="18">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J41" s="18">
+        <v>44</v>
+      </c>
+      <c r="K41" s="18">
         <v>38</v>
       </c>
-      <c r="K41" s="18">
-        <v>41</v>
-      </c>
       <c r="L41" s="18">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N41" s="19"/>
       <c r="O41" s="25">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P41" s="25">
         <f t="shared" si="3"/>
-        <v>5.94</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -16447,34 +16448,34 @@
         <v>45879</v>
       </c>
       <c r="C42" s="18">
+        <v>19</v>
+      </c>
+      <c r="D42" s="18">
+        <v>22</v>
+      </c>
+      <c r="E42" s="18">
+        <v>19</v>
+      </c>
+      <c r="F42" s="18">
+        <v>15</v>
+      </c>
+      <c r="G42" s="18">
         <v>18</v>
       </c>
-      <c r="D42" s="18">
-        <v>16</v>
-      </c>
-      <c r="E42" s="18">
-        <v>22</v>
-      </c>
-      <c r="F42" s="18">
-        <v>16</v>
-      </c>
-      <c r="G42" s="18">
+      <c r="H42" s="22">
+        <v>23</v>
+      </c>
+      <c r="I42" s="18">
+        <v>13</v>
+      </c>
+      <c r="J42" s="18">
         <v>20</v>
       </c>
-      <c r="H42" s="22">
+      <c r="K42" s="18">
+        <v>15</v>
+      </c>
+      <c r="L42" s="18">
         <v>21</v>
-      </c>
-      <c r="I42" s="18">
-        <v>16</v>
-      </c>
-      <c r="J42" s="18">
-        <v>25</v>
-      </c>
-      <c r="K42" s="18">
-        <v>16</v>
-      </c>
-      <c r="L42" s="18">
-        <v>20</v>
       </c>
       <c r="N42" s="19"/>
       <c r="O42" s="25">
@@ -16483,7 +16484,7 @@
       </c>
       <c r="P42" s="25">
         <f t="shared" si="3"/>
-        <v>2.95</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
@@ -16491,43 +16492,43 @@
         <v>45880</v>
       </c>
       <c r="C43" s="18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" s="18">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E43" s="18">
+        <v>10</v>
+      </c>
+      <c r="F43" s="18">
+        <v>14</v>
+      </c>
+      <c r="G43" s="18">
         <v>13</v>
       </c>
-      <c r="F43" s="18">
+      <c r="H43" s="22">
+        <v>12</v>
+      </c>
+      <c r="I43" s="18">
         <v>13</v>
       </c>
-      <c r="G43" s="18">
-        <v>12</v>
-      </c>
-      <c r="H43" s="22">
-        <v>9</v>
-      </c>
-      <c r="I43" s="18">
-        <v>12</v>
-      </c>
       <c r="J43" s="18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K43" s="18">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L43" s="18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N43" s="19"/>
       <c r="O43" s="25">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P43" s="25">
         <f t="shared" si="3"/>
-        <v>1.99</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
@@ -16535,25 +16536,25 @@
         <v>45881</v>
       </c>
       <c r="C44" s="18">
+        <v>16</v>
+      </c>
+      <c r="D44" s="18">
+        <v>13</v>
+      </c>
+      <c r="E44" s="18">
+        <v>17</v>
+      </c>
+      <c r="F44" s="18">
+        <v>17</v>
+      </c>
+      <c r="G44" s="18">
         <v>14</v>
-      </c>
-      <c r="D44" s="18">
-        <v>15</v>
-      </c>
-      <c r="E44" s="18">
-        <v>14</v>
-      </c>
-      <c r="F44" s="18">
-        <v>14</v>
-      </c>
-      <c r="G44" s="18">
-        <v>16</v>
       </c>
       <c r="H44" s="22">
         <v>15</v>
       </c>
       <c r="I44" s="18">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J44" s="18">
         <v>14</v>
@@ -16571,7 +16572,7 @@
       </c>
       <c r="P44" s="25">
         <f t="shared" si="3"/>
-        <v>1.1399999999999999</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="45" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16582,31 +16583,31 @@
         <v>28</v>
       </c>
       <c r="D45" s="20">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E45" s="20">
+        <v>29</v>
+      </c>
+      <c r="F45" s="20">
+        <v>28</v>
+      </c>
+      <c r="G45" s="20">
+        <v>28</v>
+      </c>
+      <c r="H45" s="23">
         <v>24</v>
       </c>
-      <c r="F45" s="20">
-        <v>32</v>
-      </c>
-      <c r="G45" s="20">
-        <v>27</v>
-      </c>
-      <c r="H45" s="23">
+      <c r="I45" s="20">
+        <v>30</v>
+      </c>
+      <c r="J45" s="20">
+        <v>28</v>
+      </c>
+      <c r="K45" s="20">
         <v>26</v>
       </c>
-      <c r="I45" s="20">
-        <v>27</v>
-      </c>
-      <c r="J45" s="20">
-        <v>30</v>
-      </c>
-      <c r="K45" s="20">
-        <v>28</v>
-      </c>
       <c r="L45" s="20">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N45" s="21"/>
       <c r="O45" s="26">
@@ -16615,7 +16616,7 @@
       </c>
       <c r="P45" s="26">
         <f t="shared" si="3"/>
-        <v>2.11</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -16623,43 +16624,43 @@
         <v>41</v>
       </c>
       <c r="C46" s="18">
-        <v>27.21</v>
+        <v>31.48</v>
       </c>
       <c r="D46" s="18">
-        <v>25.57</v>
+        <v>24.06</v>
       </c>
       <c r="E46" s="18">
-        <v>24.3</v>
+        <v>24.73</v>
       </c>
       <c r="F46" s="18">
-        <v>30.54</v>
+        <v>27.38</v>
       </c>
       <c r="G46" s="18">
-        <v>29.09</v>
+        <v>25.91</v>
       </c>
       <c r="H46" s="22">
-        <v>24.8</v>
+        <v>28.37</v>
       </c>
       <c r="I46" s="18">
-        <v>28.68</v>
+        <v>24.47</v>
       </c>
       <c r="J46" s="18">
-        <v>29.12</v>
+        <v>24.35</v>
       </c>
       <c r="K46" s="18">
-        <v>29.43</v>
+        <v>26.59</v>
       </c>
       <c r="L46" s="18">
-        <v>27.57</v>
+        <v>28.52</v>
       </c>
       <c r="N46" s="19"/>
       <c r="O46" s="25">
         <f>ROUND(AVERAGE(C46:N46),2)</f>
-        <v>27.63</v>
+        <v>26.59</v>
       </c>
       <c r="P46" s="25">
         <f t="shared" si="3"/>
-        <v>2.0099999999999998</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
@@ -16667,43 +16668,43 @@
         <v>42</v>
       </c>
       <c r="C47" s="18">
-        <v>15.45</v>
+        <v>14.36</v>
       </c>
       <c r="D47" s="18">
-        <v>16.13</v>
+        <v>13.03</v>
       </c>
       <c r="E47" s="18">
-        <v>15.98</v>
+        <v>15.01</v>
       </c>
       <c r="F47" s="18">
-        <v>15.9</v>
+        <v>14.5</v>
       </c>
       <c r="G47" s="18">
-        <v>15.28</v>
+        <v>14.66</v>
       </c>
       <c r="H47" s="22">
-        <v>15.33</v>
+        <v>14.65</v>
       </c>
       <c r="I47" s="18">
-        <v>14.35</v>
+        <v>15.44</v>
       </c>
       <c r="J47" s="18">
-        <v>12.52</v>
+        <v>13.3</v>
       </c>
       <c r="K47" s="18">
-        <v>15.15</v>
+        <v>14.64</v>
       </c>
       <c r="L47" s="18">
-        <v>14.72</v>
+        <v>15.17</v>
       </c>
       <c r="N47" s="19"/>
       <c r="O47" s="25">
         <f>ROUND(AVERAGE(C47:N47),2)</f>
-        <v>15.08</v>
+        <v>14.48</v>
       </c>
       <c r="P47" s="25">
-        <f t="shared" si="3"/>
-        <v>0.99</v>
+        <f>ROUND(_xlfn.STDEV.P(D47:O47),2)</f>
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
@@ -16711,15 +16712,15 @@
     <mergeCell ref="C1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="C46:L46 N46">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q20">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="Q1:Q20 Q22">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q20">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="Q2:Q20 Q22">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/restaurant_analytics/mornings.xlsx
+++ b/restaurant_analytics/mornings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6613553D-FA24-41C3-B8FB-879530E96CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D10C92F-70F9-4D05-947B-87A098CC592F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32655" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -491,17 +491,42 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -840,8 +865,8 @@
   <dimension ref="A1:K520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A478" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J489" sqref="J489"/>
+      <pane ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I502" sqref="I502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13538,7 +13563,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="7">
         <v>2</v>
       </c>
@@ -13564,7 +13589,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="7">
         <v>3</v>
       </c>
@@ -13590,7 +13615,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="7">
         <v>4</v>
       </c>
@@ -13616,7 +13641,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="7">
         <v>5</v>
       </c>
@@ -13642,7 +13667,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="7">
         <v>6</v>
       </c>
@@ -13668,7 +13693,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="7">
         <v>7</v>
       </c>
@@ -13694,7 +13719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="7">
         <v>1</v>
       </c>
@@ -13704,14 +13729,14 @@
       <c r="C487" s="8">
         <v>45858</v>
       </c>
-      <c r="D487" s="16">
-        <v>12</v>
+      <c r="D487" s="44">
+        <v>20</v>
       </c>
       <c r="E487" s="11">
-        <v>77.5</v>
+        <v>73.2</v>
       </c>
       <c r="F487" s="33">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="G487" s="11">
         <v>0</v>
@@ -13720,7 +13745,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="7">
         <v>2</v>
       </c>
@@ -13730,11 +13755,11 @@
       <c r="C488" s="8">
         <v>45859</v>
       </c>
-      <c r="D488" s="16">
-        <v>14</v>
+      <c r="D488" s="44">
+        <v>12</v>
       </c>
       <c r="E488" s="11">
-        <v>73.400000000000006</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="F488" s="34">
         <v>0</v>
@@ -13746,7 +13771,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="7">
         <v>3</v>
       </c>
@@ -13756,11 +13781,11 @@
       <c r="C489" s="8">
         <v>45860</v>
       </c>
-      <c r="D489" s="16">
-        <v>24</v>
+      <c r="D489" s="44">
+        <v>14</v>
       </c>
       <c r="E489" s="11">
-        <v>77.900000000000006</v>
+        <v>76.3</v>
       </c>
       <c r="F489" s="11">
         <v>0</v>
@@ -13769,10 +13794,10 @@
         <v>0</v>
       </c>
       <c r="H489" s="11">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="7">
         <v>4</v>
       </c>
@@ -13782,26 +13807,23 @@
       <c r="C490" s="8">
         <v>45861</v>
       </c>
-      <c r="D490" s="16">
-        <v>12</v>
+      <c r="D490" s="44">
+        <v>31</v>
       </c>
       <c r="E490" s="11">
-        <v>83.1</v>
+        <v>81.3</v>
       </c>
       <c r="F490" s="11">
-        <v>2.8000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G490" s="11">
         <v>0</v>
       </c>
       <c r="H490" s="11">
-        <v>11.1</v>
-      </c>
-      <c r="J490" s="11">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="7">
         <v>5</v>
       </c>
@@ -13811,26 +13833,23 @@
       <c r="C491" s="8">
         <v>45862</v>
       </c>
-      <c r="D491" s="16">
-        <v>11</v>
+      <c r="D491" s="44">
+        <v>24</v>
       </c>
       <c r="E491" s="11">
-        <v>82.4</v>
+        <v>86</v>
       </c>
       <c r="F491" s="11">
-        <v>0.58299999999999996</v>
+        <v>3.1E-2</v>
       </c>
       <c r="G491" s="11">
         <v>0</v>
       </c>
       <c r="H491" s="11">
-        <v>10.8</v>
-      </c>
-      <c r="J491" s="11">
-        <v>2.96</v>
-      </c>
-    </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="7">
         <v>6</v>
       </c>
@@ -13840,26 +13859,23 @@
       <c r="C492" s="8">
         <v>45863</v>
       </c>
-      <c r="D492" s="16">
-        <v>17</v>
+      <c r="D492" s="44">
+        <v>21</v>
       </c>
       <c r="E492" s="11">
-        <v>76.599999999999994</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="F492" s="11">
-        <v>0.48399999999999999</v>
+        <v>0.311</v>
       </c>
       <c r="G492" s="11">
         <v>0</v>
       </c>
       <c r="H492" s="11">
-        <v>6.9</v>
-      </c>
-      <c r="J492" s="11">
-        <v>2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="7">
         <v>7</v>
       </c>
@@ -13869,26 +13885,23 @@
       <c r="C493" s="8">
         <v>45864</v>
       </c>
-      <c r="D493" s="16">
-        <v>22</v>
+      <c r="D493" s="44">
+        <v>35</v>
       </c>
       <c r="E493" s="11">
-        <v>77.5</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="F493" s="11">
-        <v>0</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="G493" s="11">
         <v>0</v>
       </c>
       <c r="H493" s="11">
-        <v>6.6</v>
-      </c>
-      <c r="J493" s="11">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="7">
         <v>1</v>
       </c>
@@ -13898,26 +13911,23 @@
       <c r="C494" s="8">
         <v>45865</v>
       </c>
-      <c r="D494" s="16">
-        <v>16</v>
+      <c r="D494" s="44">
+        <v>31</v>
       </c>
       <c r="E494" s="11">
-        <v>80.400000000000006</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="F494" s="11">
-        <v>0.63</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="G494" s="11">
         <v>0</v>
       </c>
       <c r="H494" s="11">
-        <v>6.5</v>
-      </c>
-      <c r="J494" s="11">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="7">
         <v>2</v>
       </c>
@@ -13927,26 +13937,23 @@
       <c r="C495" s="8">
         <v>45866</v>
       </c>
-      <c r="D495" s="16">
-        <v>13</v>
+      <c r="D495" s="44">
+        <v>11</v>
       </c>
       <c r="E495" s="11">
-        <v>81.900000000000006</v>
+        <v>83.3</v>
       </c>
       <c r="F495" s="11">
-        <v>0.11</v>
+        <v>1.6E-2</v>
       </c>
       <c r="G495" s="11">
         <v>0</v>
       </c>
       <c r="H495" s="11">
-        <v>8.5</v>
-      </c>
-      <c r="J495" s="11">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="7">
         <v>3</v>
       </c>
@@ -13956,23 +13963,20 @@
       <c r="C496" s="8">
         <v>45867</v>
       </c>
-      <c r="D496" s="16">
-        <v>15</v>
+      <c r="D496" s="44">
+        <v>4</v>
       </c>
       <c r="E496" s="11">
-        <v>80.099999999999994</v>
+        <v>82.9</v>
       </c>
       <c r="F496" s="11">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G496" s="11">
         <v>0</v>
       </c>
       <c r="H496" s="11">
-        <v>8</v>
-      </c>
-      <c r="J496" s="11">
-        <v>2.0699999999999998</v>
+        <v>6</v>
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.25">
@@ -13986,22 +13990,22 @@
         <v>45868</v>
       </c>
       <c r="D497" s="16">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E497" s="11">
-        <v>76.099999999999994</v>
+        <v>75.2</v>
       </c>
       <c r="F497" s="11">
-        <v>0.02</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="G497" s="11">
         <v>0</v>
       </c>
       <c r="H497" s="11">
-        <v>7.7</v>
+        <v>10.1</v>
       </c>
       <c r="J497" s="11">
-        <v>2.11</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.25">
@@ -14015,22 +14019,22 @@
         <v>45869</v>
       </c>
       <c r="D498" s="16">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E498" s="11">
-        <v>74.8</v>
+        <v>70.2</v>
       </c>
       <c r="F498" s="11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G498" s="11">
         <v>0</v>
       </c>
       <c r="H498" s="11">
-        <v>7.9</v>
+        <v>13.5</v>
       </c>
       <c r="J498" s="11">
-        <v>1.1100000000000001</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.25">
@@ -14044,10 +14048,10 @@
         <v>45870</v>
       </c>
       <c r="D499" s="16">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E499" s="11">
-        <v>74.5</v>
+        <v>69.8</v>
       </c>
       <c r="F499" s="11">
         <v>0</v>
@@ -14056,10 +14060,10 @@
         <v>0</v>
       </c>
       <c r="H499" s="11">
-        <v>7.6</v>
+        <v>10.3</v>
       </c>
       <c r="J499" s="11">
-        <v>2.66</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.25">
@@ -14073,10 +14077,10 @@
         <v>45871</v>
       </c>
       <c r="D500" s="16">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E500" s="11">
-        <v>74.5</v>
+        <v>70.7</v>
       </c>
       <c r="F500" s="11">
         <v>0</v>
@@ -14085,10 +14089,10 @@
         <v>0</v>
       </c>
       <c r="H500" s="11">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="J500" s="11">
-        <v>2.1800000000000002</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.25">
@@ -14102,10 +14106,10 @@
         <v>45872</v>
       </c>
       <c r="D501" s="16">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E501" s="11">
-        <v>71</v>
+        <v>72.7</v>
       </c>
       <c r="F501" s="11">
         <v>0</v>
@@ -14114,10 +14118,10 @@
         <v>0</v>
       </c>
       <c r="H501" s="11">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J501" s="11">
-        <v>3.74</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.25">
@@ -14131,22 +14135,22 @@
         <v>45873</v>
       </c>
       <c r="D502" s="16">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E502" s="11">
-        <v>74.5</v>
+        <v>74.3</v>
       </c>
       <c r="F502" s="11">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G502" s="11">
         <v>0</v>
       </c>
       <c r="H502" s="11">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="J502" s="11">
-        <v>1.85</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.25">
@@ -14160,22 +14164,22 @@
         <v>45874</v>
       </c>
       <c r="D503" s="16">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E503" s="11">
-        <v>73.5</v>
+        <v>75</v>
       </c>
       <c r="F503" s="11">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="G503" s="11">
         <v>0</v>
       </c>
       <c r="H503" s="11">
-        <v>5</v>
+        <v>7.3</v>
       </c>
       <c r="J503" s="11">
-        <v>1.55</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.25">
@@ -14189,22 +14193,22 @@
         <v>45875</v>
       </c>
       <c r="D504" s="16">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E504" s="11">
-        <v>69</v>
+        <v>74.7</v>
       </c>
       <c r="F504" s="11">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G504" s="11">
         <v>0</v>
       </c>
       <c r="H504" s="11">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="J504" s="11">
-        <v>2.4700000000000002</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.25">
@@ -14218,10 +14222,10 @@
         <v>45876</v>
       </c>
       <c r="D505" s="16">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E505" s="11">
-        <v>68.5</v>
+        <v>75</v>
       </c>
       <c r="F505" s="11">
         <v>0</v>
@@ -14233,7 +14237,7 @@
         <v>5</v>
       </c>
       <c r="J505" s="11">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.25">
@@ -14247,10 +14251,10 @@
         <v>45877</v>
       </c>
       <c r="D506" s="16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E506" s="11">
-        <v>69.5</v>
+        <v>75</v>
       </c>
       <c r="F506" s="11">
         <v>0</v>
@@ -14262,7 +14266,7 @@
         <v>6</v>
       </c>
       <c r="J506" s="11">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.25">
@@ -14276,13 +14280,13 @@
         <v>45878</v>
       </c>
       <c r="D507" s="16">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E507" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F507" s="11">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="G507" s="11">
         <v>0</v>
@@ -14291,7 +14295,7 @@
         <v>15</v>
       </c>
       <c r="J507" s="11">
-        <v>3.58</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.25">
@@ -14305,13 +14309,13 @@
         <v>45879</v>
       </c>
       <c r="D508" s="16">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E508" s="11">
         <v>74.5</v>
       </c>
       <c r="F508" s="11">
-        <v>0.28999999999999998</v>
+        <v>0.05</v>
       </c>
       <c r="G508" s="11">
         <v>0</v>
@@ -14320,7 +14324,7 @@
         <v>12</v>
       </c>
       <c r="J508" s="11">
-        <v>3.11</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.25">
@@ -14334,13 +14338,13 @@
         <v>45880</v>
       </c>
       <c r="D509" s="16">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E509" s="11">
-        <v>69.5</v>
+        <v>73</v>
       </c>
       <c r="F509" s="11">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
       <c r="G509" s="11">
         <v>0</v>
@@ -14349,7 +14353,7 @@
         <v>8</v>
       </c>
       <c r="J509" s="11">
-        <v>1.4</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.25">
@@ -14363,7 +14367,7 @@
         <v>45881</v>
       </c>
       <c r="D510" s="16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E510" s="11">
         <v>71.5</v>
@@ -14378,7 +14382,7 @@
         <v>5</v>
       </c>
       <c r="J510" s="11">
-        <v>1.22</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.25">
@@ -14392,10 +14396,10 @@
         <v>45882</v>
       </c>
       <c r="D511" s="16">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E511" s="11">
-        <v>74</v>
+        <v>69.5</v>
       </c>
       <c r="F511" s="11">
         <v>0</v>
@@ -14407,7 +14411,7 @@
         <v>5</v>
       </c>
       <c r="J511" s="11">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.25">
@@ -14446,8 +14450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6638D5E3-C858-457D-8856-EE1DEA6B94D7}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24:P45"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31:P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14583,7 +14587,7 @@
         <v>8.7200000000000006</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q23" si="2">O3-A3</f>
+        <f t="shared" ref="Q3:Q30" si="2">O3-A3</f>
         <v>-11</v>
       </c>
     </row>
@@ -15527,58 +15531,58 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="44">
         <v>20</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="27">
         <v>45858</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="18">
         <v>54</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21">
         <v>52</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21">
         <v>51</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21">
         <v>50</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21">
         <v>36</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21">
         <v>43</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21">
         <v>45</v>
       </c>
-      <c r="J21" s="38">
+      <c r="J21">
         <v>44</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21">
         <v>40</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21">
         <v>42</v>
       </c>
-      <c r="O21" s="41">
+      <c r="O21" s="25">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="P21" s="41">
+      <c r="P21" s="25">
         <f t="shared" ref="P21:P46" si="3">ROUND(_xlfn.STDEV.P(D21:O21),2)</f>
         <v>4.8099999999999996</v>
       </c>
-      <c r="Q21" s="38">
+      <c r="Q21">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="A22" s="44">
         <v>12</v>
       </c>
       <c r="B22" s="27">
@@ -15627,76 +15631,86 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="44">
         <v>14</v>
       </c>
-      <c r="B23" s="39">
+      <c r="B23" s="27">
         <v>45860</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23" s="18">
         <v>13</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23">
         <v>15</v>
       </c>
-      <c r="O23" s="41">
+      <c r="O23" s="25">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P23" s="41">
+      <c r="P23" s="25">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q23" s="38">
+      <c r="Q23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="30">
+    <row r="24" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="44">
+        <v>31</v>
+      </c>
+      <c r="B24" s="41">
         <v>45861</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="42">
         <v>13</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="40">
         <v>10</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="40">
         <v>9</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="40">
         <v>14</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="40">
         <v>11</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H24" s="40">
         <v>14</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="40">
         <v>12</v>
       </c>
-      <c r="J24" s="29">
+      <c r="J24" s="40">
         <v>11</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="40">
         <v>12</v>
       </c>
-      <c r="L24" s="29">
+      <c r="L24" s="40">
         <v>13</v>
       </c>
-      <c r="O24" s="32">
+      <c r="O24" s="43">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="P24" s="32">
+      <c r="P24" s="43">
         <f t="shared" si="3"/>
         <v>1.54</v>
       </c>
+      <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>-19</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="44">
+        <v>24</v>
+      </c>
       <c r="B25" s="27">
         <v>45862</v>
       </c>
@@ -15738,8 +15752,15 @@
         <f t="shared" si="3"/>
         <v>2.96</v>
       </c>
+      <c r="Q25">
+        <f t="shared" si="2"/>
+        <v>-13</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="44">
+        <v>21</v>
+      </c>
       <c r="B26" s="27">
         <v>45863</v>
       </c>
@@ -15782,8 +15803,15 @@
         <f t="shared" si="3"/>
         <v>2.4500000000000002</v>
       </c>
+      <c r="Q26">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="44">
+        <v>35</v>
+      </c>
       <c r="B27" s="27">
         <v>45864</v>
       </c>
@@ -15826,8 +15854,15 @@
         <f t="shared" si="3"/>
         <v>1.4</v>
       </c>
+      <c r="Q27">
+        <f t="shared" si="2"/>
+        <v>-13</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="44">
+        <v>31</v>
+      </c>
       <c r="B28" s="27">
         <v>45865</v>
       </c>
@@ -15870,8 +15905,15 @@
         <f t="shared" si="3"/>
         <v>1.67</v>
       </c>
+      <c r="Q28">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="44">
+        <v>11</v>
+      </c>
       <c r="B29" s="27">
         <v>45866</v>
       </c>
@@ -15914,8 +15956,15 @@
         <f t="shared" si="3"/>
         <v>1.62</v>
       </c>
+      <c r="Q29">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="44">
+        <v>4</v>
+      </c>
       <c r="B30" s="27">
         <v>45867</v>
       </c>
@@ -15958,49 +16007,58 @@
         <f t="shared" si="3"/>
         <v>2.0699999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="27">
+      <c r="Q30">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="30">
         <v>45868</v>
       </c>
-      <c r="C31" s="18">
-        <v>24</v>
-      </c>
-      <c r="D31" s="18">
-        <v>26</v>
-      </c>
-      <c r="E31" s="18">
-        <v>20</v>
-      </c>
-      <c r="F31" s="18">
-        <v>22</v>
-      </c>
-      <c r="G31" s="18">
-        <v>23</v>
-      </c>
-      <c r="H31" s="22">
-        <v>20</v>
-      </c>
-      <c r="I31" s="18">
-        <v>26</v>
-      </c>
-      <c r="J31" s="18">
-        <v>22</v>
-      </c>
-      <c r="K31" s="18">
-        <v>23</v>
-      </c>
-      <c r="L31" s="18">
-        <v>20</v>
-      </c>
-      <c r="N31" s="19"/>
-      <c r="O31" s="25">
+      <c r="C31" s="31">
+        <v>9</v>
+      </c>
+      <c r="D31" s="31">
+        <v>7</v>
+      </c>
+      <c r="E31" s="31">
+        <v>10</v>
+      </c>
+      <c r="F31" s="31">
+        <v>10</v>
+      </c>
+      <c r="G31" s="31">
+        <v>8</v>
+      </c>
+      <c r="H31" s="38">
+        <v>6</v>
+      </c>
+      <c r="I31" s="31">
+        <v>10</v>
+      </c>
+      <c r="J31" s="31">
+        <v>10</v>
+      </c>
+      <c r="K31" s="31">
+        <v>8</v>
+      </c>
+      <c r="L31" s="31">
+        <v>9</v>
+      </c>
+      <c r="M31" s="29">
+        <v>8</v>
+      </c>
+      <c r="N31" s="39">
+        <v>10</v>
+      </c>
+      <c r="O31" s="32">
         <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="P31" s="25">
+        <v>9</v>
+      </c>
+      <c r="P31" s="32">
         <f t="shared" si="3"/>
-        <v>2.11</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -16008,43 +16066,48 @@
         <v>45869</v>
       </c>
       <c r="C32" s="18">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D32" s="18">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E32" s="18">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F32" s="18">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G32" s="18">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H32" s="22">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I32" s="18">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J32" s="18">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K32" s="18">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="L32" s="18">
-        <v>24</v>
-      </c>
-      <c r="N32" s="19"/>
+        <v>19</v>
+      </c>
+      <c r="M32">
+        <v>19</v>
+      </c>
+      <c r="N32" s="19">
+        <v>16</v>
+      </c>
       <c r="O32" s="25">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="P32" s="25">
         <f t="shared" si="3"/>
-        <v>1.1100000000000001</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -16052,43 +16115,48 @@
         <v>45870</v>
       </c>
       <c r="C33" s="18">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D33" s="18">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E33" s="18">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G33" s="18">
         <v>25</v>
       </c>
       <c r="H33" s="22">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I33" s="18">
+        <v>33</v>
+      </c>
+      <c r="J33" s="18">
+        <v>31</v>
+      </c>
+      <c r="K33" s="18">
+        <v>33</v>
+      </c>
+      <c r="L33" s="18">
         <v>28</v>
       </c>
-      <c r="J33" s="18">
-        <v>32</v>
-      </c>
-      <c r="K33" s="18">
-        <v>25</v>
-      </c>
-      <c r="L33" s="18">
-        <v>25</v>
-      </c>
-      <c r="N33" s="19"/>
+      <c r="M33">
+        <v>36</v>
+      </c>
+      <c r="N33" s="19">
+        <v>37</v>
+      </c>
       <c r="O33" s="25">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P33" s="25">
         <f t="shared" si="3"/>
-        <v>2.66</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -16096,43 +16164,48 @@
         <v>45871</v>
       </c>
       <c r="C34" s="18">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D34" s="18">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E34" s="18">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F34" s="18">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G34" s="18">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H34" s="22">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I34" s="18">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J34" s="18">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K34" s="18">
+        <v>17</v>
+      </c>
+      <c r="L34" s="18">
+        <v>18</v>
+      </c>
+      <c r="M34">
+        <v>15</v>
+      </c>
+      <c r="N34" s="19">
         <v>19</v>
       </c>
-      <c r="L34" s="18">
-        <v>22</v>
-      </c>
-      <c r="N34" s="19"/>
       <c r="O34" s="25">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="P34" s="25">
         <f t="shared" si="3"/>
-        <v>2.1800000000000002</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -16140,43 +16213,48 @@
         <v>45872</v>
       </c>
       <c r="C35" s="18">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D35" s="18">
+        <v>55</v>
+      </c>
+      <c r="E35" s="18">
+        <v>39</v>
+      </c>
+      <c r="F35" s="18">
+        <v>54</v>
+      </c>
+      <c r="G35" s="18">
         <v>49</v>
       </c>
-      <c r="E35" s="18">
+      <c r="H35" s="22">
+        <v>46</v>
+      </c>
+      <c r="I35" s="18">
+        <v>51</v>
+      </c>
+      <c r="J35" s="18">
         <v>40</v>
       </c>
-      <c r="F35" s="18">
-        <v>43</v>
-      </c>
-      <c r="G35" s="18">
-        <v>44</v>
-      </c>
-      <c r="H35" s="22">
-        <v>55</v>
-      </c>
-      <c r="I35" s="18">
-        <v>46</v>
-      </c>
-      <c r="J35" s="18">
-        <v>46</v>
-      </c>
       <c r="K35" s="18">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="L35" s="18">
-        <v>45</v>
-      </c>
-      <c r="N35" s="19"/>
+        <v>38</v>
+      </c>
+      <c r="M35">
+        <v>35</v>
+      </c>
+      <c r="N35" s="19">
+        <v>41</v>
+      </c>
       <c r="O35" s="25">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P35" s="25">
         <f t="shared" si="3"/>
-        <v>3.74</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
@@ -16184,43 +16262,48 @@
         <v>45873</v>
       </c>
       <c r="C36" s="18">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D36" s="18">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E36" s="18">
+        <v>25</v>
+      </c>
+      <c r="F36" s="18">
+        <v>25</v>
+      </c>
+      <c r="G36" s="18">
+        <v>23</v>
+      </c>
+      <c r="H36" s="22">
+        <v>27</v>
+      </c>
+      <c r="I36" s="18">
+        <v>24</v>
+      </c>
+      <c r="J36" s="18">
+        <v>24</v>
+      </c>
+      <c r="K36" s="18">
+        <v>25</v>
+      </c>
+      <c r="L36" s="18">
+        <v>23</v>
+      </c>
+      <c r="M36">
         <v>22</v>
       </c>
-      <c r="F36" s="18">
-        <v>19</v>
-      </c>
-      <c r="G36" s="18">
-        <v>24</v>
-      </c>
-      <c r="H36" s="22">
-        <v>20</v>
-      </c>
-      <c r="I36" s="18">
-        <v>22</v>
-      </c>
-      <c r="J36" s="18">
-        <v>17</v>
-      </c>
-      <c r="K36" s="18">
-        <v>20</v>
-      </c>
-      <c r="L36" s="18">
-        <v>19</v>
-      </c>
-      <c r="N36" s="19"/>
+      <c r="N36" s="19">
+        <v>25</v>
+      </c>
       <c r="O36" s="25">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P36" s="25">
         <f t="shared" si="3"/>
-        <v>1.85</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
@@ -16228,43 +16311,48 @@
         <v>45874</v>
       </c>
       <c r="C37" s="18">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D37" s="18">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E37" s="18">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F37" s="18">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G37" s="18">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H37" s="22">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I37" s="18">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J37" s="18">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K37" s="18">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L37" s="18">
-        <v>18</v>
-      </c>
-      <c r="N37" s="19"/>
+        <v>22</v>
+      </c>
+      <c r="M37">
+        <v>24</v>
+      </c>
+      <c r="N37" s="19">
+        <v>25</v>
+      </c>
       <c r="O37" s="25">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P37" s="25">
         <f t="shared" si="3"/>
-        <v>1.55</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -16272,43 +16360,48 @@
         <v>45875</v>
       </c>
       <c r="C38" s="18">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D38" s="18">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E38" s="18">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F38" s="18">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G38" s="18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H38" s="22">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I38" s="18">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J38" s="18">
+        <v>25</v>
+      </c>
+      <c r="K38" s="18">
+        <v>22</v>
+      </c>
+      <c r="L38" s="18">
+        <v>23</v>
+      </c>
+      <c r="M38">
         <v>24</v>
       </c>
-      <c r="K38" s="18">
-        <v>24</v>
-      </c>
-      <c r="L38" s="18">
+      <c r="N38" s="19">
         <v>21</v>
       </c>
-      <c r="N38" s="19"/>
       <c r="O38" s="25">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="P38" s="25">
         <f t="shared" si="3"/>
-        <v>2.4700000000000002</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -16316,43 +16409,48 @@
         <v>45876</v>
       </c>
       <c r="C39" s="18">
+        <v>27</v>
+      </c>
+      <c r="D39" s="18">
         <v>25</v>
       </c>
-      <c r="D39" s="18">
-        <v>21</v>
-      </c>
       <c r="E39" s="18">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F39" s="18">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G39" s="18">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H39" s="22">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I39" s="18">
         <v>25</v>
       </c>
       <c r="J39" s="18">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K39" s="18">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="L39" s="18">
-        <v>26</v>
-      </c>
-      <c r="N39" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="M39">
+        <v>27</v>
+      </c>
+      <c r="N39" s="19">
+        <v>28</v>
+      </c>
       <c r="O39" s="25">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P39" s="25">
         <f t="shared" si="3"/>
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
@@ -16360,19 +16458,19 @@
         <v>45877</v>
       </c>
       <c r="C40" s="18">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D40" s="18">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E40" s="18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F40" s="18">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G40" s="18">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H40" s="22">
         <v>19</v>
@@ -16381,22 +16479,27 @@
         <v>21</v>
       </c>
       <c r="J40" s="18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K40" s="18">
         <v>21</v>
       </c>
       <c r="L40" s="18">
+        <v>23</v>
+      </c>
+      <c r="M40">
         <v>22</v>
       </c>
-      <c r="N40" s="19"/>
+      <c r="N40" s="19">
+        <v>22</v>
+      </c>
       <c r="O40" s="25">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P40" s="25">
         <f t="shared" si="3"/>
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
@@ -16404,43 +16507,48 @@
         <v>45878</v>
       </c>
       <c r="C41" s="18">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D41" s="18">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E41" s="18">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F41" s="18">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G41" s="18">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H41" s="22">
         <v>38</v>
       </c>
       <c r="I41" s="18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J41" s="18">
+        <v>35</v>
+      </c>
+      <c r="K41" s="18">
+        <v>48</v>
+      </c>
+      <c r="L41" s="18">
         <v>44</v>
       </c>
-      <c r="K41" s="18">
-        <v>38</v>
-      </c>
-      <c r="L41" s="18">
-        <v>43</v>
-      </c>
-      <c r="N41" s="19"/>
+      <c r="M41">
+        <v>34</v>
+      </c>
+      <c r="N41" s="19">
+        <v>32</v>
+      </c>
       <c r="O41" s="25">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P41" s="25">
         <f t="shared" si="3"/>
-        <v>3.58</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -16448,43 +16556,48 @@
         <v>45879</v>
       </c>
       <c r="C42" s="18">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D42" s="18">
+        <v>20</v>
+      </c>
+      <c r="E42" s="18">
+        <v>18</v>
+      </c>
+      <c r="F42" s="18">
+        <v>21</v>
+      </c>
+      <c r="G42" s="18">
+        <v>27</v>
+      </c>
+      <c r="H42" s="22">
+        <v>25</v>
+      </c>
+      <c r="I42" s="18">
         <v>22</v>
-      </c>
-      <c r="E42" s="18">
-        <v>19</v>
-      </c>
-      <c r="F42" s="18">
-        <v>15</v>
-      </c>
-      <c r="G42" s="18">
-        <v>18</v>
-      </c>
-      <c r="H42" s="22">
-        <v>23</v>
-      </c>
-      <c r="I42" s="18">
-        <v>13</v>
       </c>
       <c r="J42" s="18">
         <v>20</v>
       </c>
       <c r="K42" s="18">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L42" s="18">
-        <v>21</v>
-      </c>
-      <c r="N42" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="M42">
+        <v>20</v>
+      </c>
+      <c r="N42" s="19">
+        <v>18</v>
+      </c>
       <c r="O42" s="25">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P42" s="25">
         <f t="shared" si="3"/>
-        <v>3.11</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
@@ -16492,43 +16605,48 @@
         <v>45880</v>
       </c>
       <c r="C43" s="18">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D43" s="18">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E43" s="18">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F43" s="18">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G43" s="18">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H43" s="22">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I43" s="18">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J43" s="18">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="K43" s="18">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="L43" s="18">
-        <v>14</v>
-      </c>
-      <c r="N43" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="M43">
+        <v>26</v>
+      </c>
+      <c r="N43" s="19">
+        <v>26</v>
+      </c>
       <c r="O43" s="25">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="P43" s="25">
         <f t="shared" si="3"/>
-        <v>1.4</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
@@ -16536,43 +16654,48 @@
         <v>45881</v>
       </c>
       <c r="C44" s="18">
+        <v>17</v>
+      </c>
+      <c r="D44" s="18">
         <v>16</v>
       </c>
-      <c r="D44" s="18">
-        <v>13</v>
-      </c>
       <c r="E44" s="18">
+        <v>15</v>
+      </c>
+      <c r="F44" s="18">
+        <v>15</v>
+      </c>
+      <c r="G44" s="18">
         <v>17</v>
       </c>
-      <c r="F44" s="18">
+      <c r="H44" s="22">
+        <v>16</v>
+      </c>
+      <c r="I44" s="18">
+        <v>15</v>
+      </c>
+      <c r="J44" s="18">
         <v>17</v>
-      </c>
-      <c r="G44" s="18">
-        <v>14</v>
-      </c>
-      <c r="H44" s="22">
-        <v>15</v>
-      </c>
-      <c r="I44" s="18">
-        <v>16</v>
-      </c>
-      <c r="J44" s="18">
-        <v>14</v>
       </c>
       <c r="K44" s="18">
         <v>15</v>
       </c>
       <c r="L44" s="18">
-        <v>15</v>
-      </c>
-      <c r="N44" s="19"/>
+        <v>17</v>
+      </c>
+      <c r="M44">
+        <v>17</v>
+      </c>
+      <c r="N44" s="19">
+        <v>16</v>
+      </c>
       <c r="O44" s="25">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P44" s="25">
         <f t="shared" si="3"/>
-        <v>1.22</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="45" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16580,43 +16703,48 @@
         <v>45882</v>
       </c>
       <c r="C45" s="28">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D45" s="20">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E45" s="20">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F45" s="20">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G45" s="20">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H45" s="23">
+        <v>26</v>
+      </c>
+      <c r="I45" s="20">
         <v>24</v>
       </c>
-      <c r="I45" s="20">
-        <v>30</v>
-      </c>
       <c r="J45" s="20">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K45" s="20">
+        <v>24</v>
+      </c>
+      <c r="L45" s="20">
+        <v>25</v>
+      </c>
+      <c r="M45" s="20">
         <v>26</v>
       </c>
-      <c r="L45" s="20">
-        <v>29</v>
-      </c>
-      <c r="N45" s="21"/>
+      <c r="N45" s="21">
+        <v>24</v>
+      </c>
       <c r="O45" s="26">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="P45" s="26">
         <f t="shared" si="3"/>
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -16624,43 +16752,48 @@
         <v>41</v>
       </c>
       <c r="C46" s="18">
-        <v>31.48</v>
+        <v>27.52</v>
       </c>
       <c r="D46" s="18">
-        <v>24.06</v>
+        <v>24.59</v>
       </c>
       <c r="E46" s="18">
-        <v>24.73</v>
+        <v>24.86</v>
       </c>
       <c r="F46" s="18">
-        <v>27.38</v>
+        <v>27.74</v>
       </c>
       <c r="G46" s="18">
-        <v>25.91</v>
+        <v>25.79</v>
       </c>
       <c r="H46" s="22">
-        <v>28.37</v>
+        <v>22.11</v>
       </c>
       <c r="I46" s="18">
-        <v>24.47</v>
+        <v>26.54</v>
       </c>
       <c r="J46" s="18">
-        <v>24.35</v>
+        <v>26.42</v>
       </c>
       <c r="K46" s="18">
-        <v>26.59</v>
+        <v>25.97</v>
       </c>
       <c r="L46" s="18">
-        <v>28.52</v>
-      </c>
-      <c r="N46" s="19"/>
+        <v>28.76</v>
+      </c>
+      <c r="M46">
+        <v>24.59</v>
+      </c>
+      <c r="N46" s="19">
+        <v>27.75</v>
+      </c>
       <c r="O46" s="25">
         <f>ROUND(AVERAGE(C46:N46),2)</f>
-        <v>26.59</v>
+        <v>26.05</v>
       </c>
       <c r="P46" s="25">
         <f t="shared" si="3"/>
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
@@ -16668,43 +16801,48 @@
         <v>42</v>
       </c>
       <c r="C47" s="18">
-        <v>14.36</v>
+        <v>14.88</v>
       </c>
       <c r="D47" s="18">
-        <v>13.03</v>
+        <v>15.14</v>
       </c>
       <c r="E47" s="18">
-        <v>15.01</v>
+        <v>12.31</v>
       </c>
       <c r="F47" s="18">
-        <v>14.5</v>
+        <v>14.96</v>
       </c>
       <c r="G47" s="18">
-        <v>14.66</v>
+        <v>14.71</v>
       </c>
       <c r="H47" s="22">
-        <v>14.65</v>
+        <v>15.05</v>
       </c>
       <c r="I47" s="18">
-        <v>15.44</v>
+        <v>15.04</v>
       </c>
       <c r="J47" s="18">
-        <v>13.3</v>
+        <v>14.16</v>
       </c>
       <c r="K47" s="18">
-        <v>14.64</v>
+        <v>15.51</v>
       </c>
       <c r="L47" s="18">
-        <v>15.17</v>
-      </c>
-      <c r="N47" s="19"/>
+        <v>14.71</v>
+      </c>
+      <c r="M47">
+        <v>14.77</v>
+      </c>
+      <c r="N47" s="19">
+        <v>14.57</v>
+      </c>
       <c r="O47" s="25">
         <f>ROUND(AVERAGE(C47:N47),2)</f>
-        <v>14.48</v>
+        <v>14.65</v>
       </c>
       <c r="P47" s="25">
         <f>ROUND(_xlfn.STDEV.P(D47:O47),2)</f>
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
@@ -16712,15 +16850,13 @@
     <mergeCell ref="C1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="C46:L46 N46">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q20 Q22">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="Q1:Q30">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q20 Q22">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/restaurant_analytics/mornings.xlsx
+++ b/restaurant_analytics/mornings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D10C92F-70F9-4D05-947B-87A098CC592F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF98534-8F80-420B-80F1-80B7EFC3AD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32655" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33345" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>day</t>
   </si>
@@ -216,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -377,19 +377,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -400,11 +387,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -465,11 +496,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -482,6 +512,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -491,49 +527,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -862,11 +860,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K520"/>
+  <dimension ref="A1:K553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I502" sqref="I502"/>
+      <selection pane="bottomLeft" activeCell="F503" sqref="F503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13501,7 +13499,7 @@
       <c r="E478" s="11">
         <v>76.8</v>
       </c>
-      <c r="F478" s="33">
+      <c r="F478" s="32">
         <v>0.98799999999999999</v>
       </c>
       <c r="G478" s="11">
@@ -13527,7 +13525,7 @@
       <c r="E479" s="11">
         <v>76.599999999999994</v>
       </c>
-      <c r="F479" s="34">
+      <c r="F479" s="33">
         <v>0</v>
       </c>
       <c r="G479" s="11">
@@ -13553,7 +13551,7 @@
       <c r="E480" s="11">
         <v>75.900000000000006</v>
       </c>
-      <c r="F480" s="34">
+      <c r="F480" s="33">
         <v>0</v>
       </c>
       <c r="G480" s="11">
@@ -13579,7 +13577,7 @@
       <c r="E481" s="11">
         <v>75.900000000000006</v>
       </c>
-      <c r="F481" s="34">
+      <c r="F481" s="33">
         <v>0</v>
       </c>
       <c r="G481" s="11">
@@ -13605,7 +13603,7 @@
       <c r="E482" s="11">
         <v>80.2</v>
       </c>
-      <c r="F482" s="34">
+      <c r="F482" s="33">
         <v>0</v>
       </c>
       <c r="G482" s="11">
@@ -13631,7 +13629,7 @@
       <c r="E483" s="11">
         <v>81.099999999999994</v>
       </c>
-      <c r="F483" s="34">
+      <c r="F483" s="33">
         <v>0.35799999999999998</v>
       </c>
       <c r="G483" s="11">
@@ -13657,7 +13655,7 @@
       <c r="E484" s="11">
         <v>70.3</v>
       </c>
-      <c r="F484" s="34">
+      <c r="F484" s="33">
         <v>0</v>
       </c>
       <c r="G484" s="11">
@@ -13683,7 +13681,7 @@
       <c r="E485" s="11">
         <v>67.5</v>
       </c>
-      <c r="F485" s="34">
+      <c r="F485" s="33">
         <v>0</v>
       </c>
       <c r="G485" s="11">
@@ -13709,7 +13707,7 @@
       <c r="E486" s="11">
         <v>75.900000000000006</v>
       </c>
-      <c r="F486" s="34">
+      <c r="F486" s="33">
         <v>0.189</v>
       </c>
       <c r="G486" s="11">
@@ -13729,13 +13727,13 @@
       <c r="C487" s="8">
         <v>45858</v>
       </c>
-      <c r="D487" s="44">
+      <c r="D487" s="16">
         <v>20</v>
       </c>
       <c r="E487" s="11">
         <v>73.2</v>
       </c>
-      <c r="F487" s="33">
+      <c r="F487" s="32">
         <v>0</v>
       </c>
       <c r="G487" s="11">
@@ -13755,13 +13753,13 @@
       <c r="C488" s="8">
         <v>45859</v>
       </c>
-      <c r="D488" s="44">
+      <c r="D488" s="16">
         <v>12</v>
       </c>
       <c r="E488" s="11">
         <v>72.099999999999994</v>
       </c>
-      <c r="F488" s="34">
+      <c r="F488" s="33">
         <v>0</v>
       </c>
       <c r="G488" s="11">
@@ -13781,7 +13779,7 @@
       <c r="C489" s="8">
         <v>45860</v>
       </c>
-      <c r="D489" s="44">
+      <c r="D489" s="16">
         <v>14</v>
       </c>
       <c r="E489" s="11">
@@ -13807,7 +13805,7 @@
       <c r="C490" s="8">
         <v>45861</v>
       </c>
-      <c r="D490" s="44">
+      <c r="D490" s="16">
         <v>31</v>
       </c>
       <c r="E490" s="11">
@@ -13833,7 +13831,7 @@
       <c r="C491" s="8">
         <v>45862</v>
       </c>
-      <c r="D491" s="44">
+      <c r="D491" s="16">
         <v>24</v>
       </c>
       <c r="E491" s="11">
@@ -13859,20 +13857,20 @@
       <c r="C492" s="8">
         <v>45863</v>
       </c>
-      <c r="D492" s="44">
+      <c r="D492" s="16">
         <v>21</v>
       </c>
       <c r="E492" s="11">
-        <v>77.900000000000006</v>
+        <v>78.8</v>
       </c>
       <c r="F492" s="11">
-        <v>0.311</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G492" s="11">
         <v>0</v>
       </c>
       <c r="H492" s="11">
-        <v>5.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
@@ -13885,20 +13883,20 @@
       <c r="C493" s="8">
         <v>45864</v>
       </c>
-      <c r="D493" s="44">
+      <c r="D493" s="16">
         <v>35</v>
       </c>
       <c r="E493" s="11">
-        <v>77.400000000000006</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="F493" s="11">
-        <v>0.29899999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="G493" s="11">
         <v>0</v>
       </c>
       <c r="H493" s="11">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
@@ -13911,20 +13909,20 @@
       <c r="C494" s="8">
         <v>45865</v>
       </c>
-      <c r="D494" s="44">
+      <c r="D494" s="16">
         <v>31</v>
       </c>
       <c r="E494" s="11">
-        <v>80.099999999999994</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="F494" s="11">
-        <v>4.2999999999999997E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="G494" s="11">
         <v>0</v>
       </c>
       <c r="H494" s="11">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
@@ -13937,20 +13935,20 @@
       <c r="C495" s="8">
         <v>45866</v>
       </c>
-      <c r="D495" s="44">
+      <c r="D495" s="16">
         <v>11</v>
       </c>
       <c r="E495" s="11">
-        <v>83.3</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="F495" s="11">
-        <v>1.6E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="G495" s="11">
         <v>0</v>
       </c>
       <c r="H495" s="11">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
@@ -13963,11 +13961,11 @@
       <c r="C496" s="8">
         <v>45867</v>
       </c>
-      <c r="D496" s="44">
+      <c r="D496" s="16">
         <v>4</v>
       </c>
       <c r="E496" s="11">
-        <v>82.9</v>
+        <v>82.4</v>
       </c>
       <c r="F496" s="11">
         <v>0</v>
@@ -13990,22 +13988,19 @@
         <v>45868</v>
       </c>
       <c r="D497" s="16">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E497" s="11">
-        <v>75.2</v>
+        <v>81.7</v>
       </c>
       <c r="F497" s="11">
-        <v>0.48799999999999999</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="G497" s="11">
         <v>0</v>
       </c>
       <c r="H497" s="11">
-        <v>10.1</v>
-      </c>
-      <c r="J497" s="11">
-        <v>1.3</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.25">
@@ -14019,22 +14014,19 @@
         <v>45869</v>
       </c>
       <c r="D498" s="16">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E498" s="11">
-        <v>70.2</v>
+        <v>70.7</v>
       </c>
       <c r="F498" s="11">
-        <v>0.01</v>
+        <v>4.7E-2</v>
       </c>
       <c r="G498" s="11">
         <v>0</v>
       </c>
       <c r="H498" s="11">
-        <v>13.5</v>
-      </c>
-      <c r="J498" s="11">
-        <v>1.5</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.25">
@@ -14048,10 +14040,10 @@
         <v>45870</v>
       </c>
       <c r="D499" s="16">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E499" s="11">
-        <v>69.8</v>
+        <v>68.7</v>
       </c>
       <c r="F499" s="11">
         <v>0</v>
@@ -14060,10 +14052,7 @@
         <v>0</v>
       </c>
       <c r="H499" s="11">
-        <v>10.3</v>
-      </c>
-      <c r="J499" s="11">
-        <v>3.14</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.25">
@@ -14077,10 +14066,10 @@
         <v>45871</v>
       </c>
       <c r="D500" s="16">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="E500" s="11">
-        <v>70.7</v>
+        <v>69.8</v>
       </c>
       <c r="F500" s="11">
         <v>0</v>
@@ -14089,10 +14078,7 @@
         <v>0</v>
       </c>
       <c r="H500" s="11">
-        <v>6.6</v>
-      </c>
-      <c r="J500" s="11">
-        <v>0.95</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.25">
@@ -14106,10 +14092,10 @@
         <v>45872</v>
       </c>
       <c r="D501" s="16">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E501" s="11">
-        <v>72.7</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="F501" s="11">
         <v>0</v>
@@ -14118,10 +14104,7 @@
         <v>0</v>
       </c>
       <c r="H501" s="11">
-        <v>5.8</v>
-      </c>
-      <c r="J501" s="11">
-        <v>7.05</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.25">
@@ -14135,10 +14118,10 @@
         <v>45873</v>
       </c>
       <c r="D502" s="16">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E502" s="11">
-        <v>74.3</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="F502" s="11">
         <v>0</v>
@@ -14147,10 +14130,7 @@
         <v>0</v>
       </c>
       <c r="H502" s="11">
-        <v>6.6</v>
-      </c>
-      <c r="J502" s="11">
-        <v>1.44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.25">
@@ -14164,22 +14144,19 @@
         <v>45874</v>
       </c>
       <c r="D503" s="16">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E503" s="11">
-        <v>75</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="F503" s="11">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G503" s="11">
         <v>0</v>
       </c>
       <c r="H503" s="11">
-        <v>7.3</v>
-      </c>
-      <c r="J503" s="11">
-        <v>1.29</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.25">
@@ -14193,10 +14170,10 @@
         <v>45875</v>
       </c>
       <c r="D504" s="16">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E504" s="11">
-        <v>74.7</v>
+        <v>77.2</v>
       </c>
       <c r="F504" s="11">
         <v>0</v>
@@ -14205,10 +14182,10 @@
         <v>0</v>
       </c>
       <c r="H504" s="11">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="J504" s="11">
-        <v>1.38</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.25">
@@ -14222,10 +14199,10 @@
         <v>45876</v>
       </c>
       <c r="D505" s="16">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E505" s="11">
-        <v>75</v>
+        <v>79.2</v>
       </c>
       <c r="F505" s="11">
         <v>0</v>
@@ -14234,10 +14211,10 @@
         <v>0</v>
       </c>
       <c r="H505" s="11">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="J505" s="11">
-        <v>1.93</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.25">
@@ -14254,7 +14231,7 @@
         <v>21</v>
       </c>
       <c r="E506" s="11">
-        <v>75</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="F506" s="11">
         <v>0</v>
@@ -14263,10 +14240,10 @@
         <v>0</v>
       </c>
       <c r="H506" s="11">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="J506" s="11">
-        <v>1.03</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.25">
@@ -14280,10 +14257,10 @@
         <v>45878</v>
       </c>
       <c r="D507" s="16">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E507" s="11">
-        <v>74</v>
+        <v>82.2</v>
       </c>
       <c r="F507" s="11">
         <v>0.22</v>
@@ -14292,10 +14269,10 @@
         <v>0</v>
       </c>
       <c r="H507" s="11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J507" s="11">
-        <v>7.21</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.25">
@@ -14309,10 +14286,10 @@
         <v>45879</v>
       </c>
       <c r="D508" s="16">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E508" s="11">
-        <v>74.5</v>
+        <v>80.2</v>
       </c>
       <c r="F508" s="11">
         <v>0.05</v>
@@ -14321,10 +14298,10 @@
         <v>0</v>
       </c>
       <c r="H508" s="11">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="J508" s="11">
-        <v>2.69</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.25">
@@ -14338,10 +14315,10 @@
         <v>45880</v>
       </c>
       <c r="D509" s="16">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E509" s="11">
-        <v>73</v>
+        <v>77.2</v>
       </c>
       <c r="F509" s="11">
         <v>0.05</v>
@@ -14350,10 +14327,10 @@
         <v>0</v>
       </c>
       <c r="H509" s="11">
-        <v>8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J509" s="11">
-        <v>1.59</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.25">
@@ -14367,10 +14344,10 @@
         <v>45881</v>
       </c>
       <c r="D510" s="16">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E510" s="11">
-        <v>71.5</v>
+        <v>75.7</v>
       </c>
       <c r="F510" s="11">
         <v>0</v>
@@ -14379,10 +14356,10 @@
         <v>0</v>
       </c>
       <c r="H510" s="11">
-        <v>5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J510" s="11">
-        <v>0.82</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.25">
@@ -14396,50 +14373,1116 @@
         <v>45882</v>
       </c>
       <c r="D511" s="16">
+        <v>23</v>
+      </c>
+      <c r="E511" s="11">
+        <v>75</v>
+      </c>
+      <c r="F511" s="11">
+        <v>0</v>
+      </c>
+      <c r="G511" s="11">
+        <v>0</v>
+      </c>
+      <c r="H511" s="11">
+        <v>7.4</v>
+      </c>
+      <c r="J511" s="11">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A512" s="7">
+        <v>5</v>
+      </c>
+      <c r="B512" s="7">
+        <v>511</v>
+      </c>
+      <c r="C512" s="8">
+        <v>45883</v>
+      </c>
+      <c r="D512" s="16">
+        <v>26</v>
+      </c>
+      <c r="E512" s="11">
+        <v>74.5</v>
+      </c>
+      <c r="F512" s="11">
+        <v>0</v>
+      </c>
+      <c r="G512" s="11">
+        <v>0</v>
+      </c>
+      <c r="H512" s="11">
+        <v>7.7</v>
+      </c>
+      <c r="J512" s="11">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A513" s="7">
+        <v>6</v>
+      </c>
+      <c r="B513" s="7">
+        <v>512</v>
+      </c>
+      <c r="C513" s="8">
+        <v>45884</v>
+      </c>
+      <c r="D513" s="16">
+        <v>22</v>
+      </c>
+      <c r="E513" s="11">
+        <v>76.5</v>
+      </c>
+      <c r="F513" s="11">
+        <v>0</v>
+      </c>
+      <c r="G513" s="11">
+        <v>0</v>
+      </c>
+      <c r="H513" s="11">
+        <v>6</v>
+      </c>
+      <c r="J513" s="11">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A514" s="7">
+        <v>7</v>
+      </c>
+      <c r="B514" s="7">
+        <v>513</v>
+      </c>
+      <c r="C514" s="8">
+        <v>45885</v>
+      </c>
+      <c r="D514" s="16">
+        <v>20</v>
+      </c>
+      <c r="E514" s="11">
+        <v>76</v>
+      </c>
+      <c r="F514" s="11">
+        <v>0</v>
+      </c>
+      <c r="G514" s="11">
+        <v>0</v>
+      </c>
+      <c r="H514" s="11">
+        <v>5</v>
+      </c>
+      <c r="J514" s="11">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A515" s="7">
+        <v>1</v>
+      </c>
+      <c r="B515" s="7">
+        <v>514</v>
+      </c>
+      <c r="C515" s="8">
+        <v>45886</v>
+      </c>
+      <c r="D515" s="16">
+        <v>38</v>
+      </c>
+      <c r="E515" s="11">
+        <v>75.5</v>
+      </c>
+      <c r="F515" s="11">
+        <v>0</v>
+      </c>
+      <c r="G515" s="11">
+        <v>0</v>
+      </c>
+      <c r="H515" s="11">
+        <v>7</v>
+      </c>
+      <c r="J515" s="11">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A516" s="7">
+        <v>2</v>
+      </c>
+      <c r="B516" s="7">
+        <v>515</v>
+      </c>
+      <c r="C516" s="8">
+        <v>45887</v>
+      </c>
+      <c r="D516" s="16">
+        <v>17</v>
+      </c>
+      <c r="E516" s="11">
+        <v>76.5</v>
+      </c>
+      <c r="F516" s="11">
+        <v>0.41</v>
+      </c>
+      <c r="G516" s="11">
+        <v>0</v>
+      </c>
+      <c r="H516" s="11">
+        <v>5</v>
+      </c>
+      <c r="J516" s="11">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A517" s="7">
+        <v>3</v>
+      </c>
+      <c r="B517" s="7">
+        <v>516</v>
+      </c>
+      <c r="C517" s="8">
+        <v>45888</v>
+      </c>
+      <c r="D517" s="16">
+        <v>16</v>
+      </c>
+      <c r="E517" s="11">
+        <v>70.5</v>
+      </c>
+      <c r="F517" s="11">
+        <v>0</v>
+      </c>
+      <c r="G517" s="11">
+        <v>0</v>
+      </c>
+      <c r="H517" s="11">
+        <v>4</v>
+      </c>
+      <c r="J517" s="11">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A518" s="7">
+        <v>4</v>
+      </c>
+      <c r="B518" s="7">
+        <v>517</v>
+      </c>
+      <c r="C518" s="8">
+        <v>45889</v>
+      </c>
+      <c r="D518" s="16">
+        <v>23</v>
+      </c>
+      <c r="E518" s="11">
+        <v>74</v>
+      </c>
+      <c r="F518" s="11">
+        <v>0</v>
+      </c>
+      <c r="G518" s="11">
+        <v>0</v>
+      </c>
+      <c r="H518" s="11">
+        <v>8</v>
+      </c>
+      <c r="J518" s="11">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A519" s="7">
+        <v>5</v>
+      </c>
+      <c r="B519" s="7">
+        <v>518</v>
+      </c>
+      <c r="C519" s="8">
+        <v>45890</v>
+      </c>
+      <c r="D519" s="16">
+        <v>26</v>
+      </c>
+      <c r="E519" s="11">
+        <v>72.5</v>
+      </c>
+      <c r="F519" s="11">
+        <v>0</v>
+      </c>
+      <c r="G519" s="11">
+        <v>0</v>
+      </c>
+      <c r="H519" s="11">
+        <v>7</v>
+      </c>
+      <c r="J519" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A520" s="7">
+        <v>6</v>
+      </c>
+      <c r="B520" s="7">
+        <v>519</v>
+      </c>
+      <c r="C520" s="8">
+        <v>45891</v>
+      </c>
+      <c r="D520" s="16">
+        <v>22</v>
+      </c>
+      <c r="E520" s="11">
+        <v>72.5</v>
+      </c>
+      <c r="F520" s="11">
+        <v>0</v>
+      </c>
+      <c r="G520" s="11">
+        <v>0</v>
+      </c>
+      <c r="H520" s="11">
+        <v>4</v>
+      </c>
+      <c r="J520" s="11">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A521" s="7">
+        <v>7</v>
+      </c>
+      <c r="B521" s="7">
+        <v>520</v>
+      </c>
+      <c r="C521" s="8">
+        <v>45892</v>
+      </c>
+      <c r="D521" s="16">
+        <v>17</v>
+      </c>
+      <c r="E521" s="11">
+        <v>74</v>
+      </c>
+      <c r="F521" s="11">
+        <v>0</v>
+      </c>
+      <c r="G521" s="11">
+        <v>0</v>
+      </c>
+      <c r="H521" s="11">
+        <v>6</v>
+      </c>
+      <c r="J521" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A522" s="7">
+        <v>1</v>
+      </c>
+      <c r="B522" s="7">
+        <v>521</v>
+      </c>
+      <c r="C522" s="8">
+        <v>45893</v>
+      </c>
+      <c r="D522" s="16">
+        <v>39</v>
+      </c>
+      <c r="E522" s="11">
+        <v>74</v>
+      </c>
+      <c r="F522" s="11">
+        <v>0</v>
+      </c>
+      <c r="G522" s="11">
+        <v>0</v>
+      </c>
+      <c r="H522" s="11">
+        <v>7</v>
+      </c>
+      <c r="J522" s="11">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A523" s="7">
+        <v>2</v>
+      </c>
+      <c r="B523" s="7">
+        <v>522</v>
+      </c>
+      <c r="C523" s="8">
+        <v>45894</v>
+      </c>
+      <c r="D523" s="16">
+        <v>26</v>
+      </c>
+      <c r="E523" s="11">
+        <v>74</v>
+      </c>
+      <c r="F523" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="G523" s="11">
+        <v>0</v>
+      </c>
+      <c r="H523" s="11">
+        <v>9</v>
+      </c>
+      <c r="J523" s="11">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A524" s="7">
+        <v>3</v>
+      </c>
+      <c r="B524" s="7">
+        <v>523</v>
+      </c>
+      <c r="C524" s="8">
+        <v>45895</v>
+      </c>
+      <c r="D524" s="16">
         <v>24</v>
       </c>
-      <c r="E511" s="11">
+      <c r="E524" s="11">
+        <v>74</v>
+      </c>
+      <c r="F524" s="11">
+        <v>0.21</v>
+      </c>
+      <c r="G524" s="11">
+        <v>0</v>
+      </c>
+      <c r="H524" s="11">
+        <v>7</v>
+      </c>
+      <c r="J524" s="11">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A525" s="7">
+        <v>4</v>
+      </c>
+      <c r="B525" s="7">
+        <v>524</v>
+      </c>
+      <c r="C525" s="8">
+        <v>45896</v>
+      </c>
+      <c r="D525" s="16">
+        <v>25</v>
+      </c>
+      <c r="E525" s="11">
+        <v>71.5</v>
+      </c>
+      <c r="F525" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="G525" s="11">
+        <v>0</v>
+      </c>
+      <c r="H525" s="11">
+        <v>5</v>
+      </c>
+      <c r="J525" s="11">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A526" s="7">
+        <v>5</v>
+      </c>
+      <c r="B526" s="7">
+        <v>525</v>
+      </c>
+      <c r="C526" s="8">
+        <v>45897</v>
+      </c>
+      <c r="D526" s="16">
+        <v>25</v>
+      </c>
+      <c r="E526" s="11">
+        <v>71</v>
+      </c>
+      <c r="F526" s="11">
+        <v>0</v>
+      </c>
+      <c r="G526" s="11">
+        <v>0</v>
+      </c>
+      <c r="H526" s="11">
+        <v>8</v>
+      </c>
+      <c r="J526" s="11">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A527" s="7">
+        <v>6</v>
+      </c>
+      <c r="B527" s="7">
+        <v>526</v>
+      </c>
+      <c r="C527" s="8">
+        <v>45898</v>
+      </c>
+      <c r="D527" s="16">
+        <v>21</v>
+      </c>
+      <c r="E527" s="11">
+        <v>70.5</v>
+      </c>
+      <c r="F527" s="11">
+        <v>0</v>
+      </c>
+      <c r="G527" s="11">
+        <v>0</v>
+      </c>
+      <c r="H527" s="11">
+        <v>6</v>
+      </c>
+      <c r="J527" s="11">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A528" s="7">
+        <v>7</v>
+      </c>
+      <c r="B528" s="7">
+        <v>527</v>
+      </c>
+      <c r="C528" s="8">
+        <v>45899</v>
+      </c>
+      <c r="D528" s="16">
+        <v>16</v>
+      </c>
+      <c r="E528" s="11">
+        <v>72</v>
+      </c>
+      <c r="F528" s="11">
+        <v>0</v>
+      </c>
+      <c r="G528" s="11">
+        <v>0</v>
+      </c>
+      <c r="H528" s="11">
+        <v>6</v>
+      </c>
+      <c r="J528" s="11">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A529" s="7">
+        <v>1</v>
+      </c>
+      <c r="B529" s="7">
+        <v>528</v>
+      </c>
+      <c r="C529" s="8">
+        <v>45900</v>
+      </c>
+      <c r="D529" s="16">
+        <v>35</v>
+      </c>
+      <c r="E529" s="11">
+        <v>72.5</v>
+      </c>
+      <c r="F529" s="11">
+        <v>0</v>
+      </c>
+      <c r="G529" s="11">
+        <v>0</v>
+      </c>
+      <c r="H529" s="11">
+        <v>1</v>
+      </c>
+      <c r="J529" s="11">
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A530" s="7">
+        <v>2</v>
+      </c>
+      <c r="B530" s="7">
+        <v>529</v>
+      </c>
+      <c r="C530" s="8">
+        <v>45901</v>
+      </c>
+      <c r="D530" s="16">
+        <v>5</v>
+      </c>
+      <c r="E530" s="11">
+        <v>73</v>
+      </c>
+      <c r="F530" s="11">
+        <v>0</v>
+      </c>
+      <c r="G530" s="11">
+        <v>0</v>
+      </c>
+      <c r="H530" s="11">
+        <v>2</v>
+      </c>
+      <c r="I530" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J530" s="11">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A531" s="7">
+        <v>3</v>
+      </c>
+      <c r="B531" s="7">
+        <v>530</v>
+      </c>
+      <c r="C531" s="8">
+        <v>45902</v>
+      </c>
+      <c r="D531" s="16">
+        <v>20</v>
+      </c>
+      <c r="E531" s="11">
+        <v>72</v>
+      </c>
+      <c r="F531" s="11">
+        <v>0</v>
+      </c>
+      <c r="G531" s="11">
+        <v>0</v>
+      </c>
+      <c r="H531" s="11">
+        <v>7</v>
+      </c>
+      <c r="J531" s="11">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A532" s="7">
+        <v>4</v>
+      </c>
+      <c r="B532" s="7">
+        <v>531</v>
+      </c>
+      <c r="C532" s="8">
+        <v>45903</v>
+      </c>
+      <c r="D532" s="16">
+        <v>22</v>
+      </c>
+      <c r="E532" s="11">
+        <v>71.5</v>
+      </c>
+      <c r="F532" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="G532" s="11">
+        <v>0</v>
+      </c>
+      <c r="H532" s="11">
+        <v>9</v>
+      </c>
+      <c r="J532" s="11">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A533" s="7">
+        <v>5</v>
+      </c>
+      <c r="B533" s="7">
+        <v>532</v>
+      </c>
+      <c r="C533" s="8">
+        <v>45904</v>
+      </c>
+      <c r="D533" s="16">
+        <v>30</v>
+      </c>
+      <c r="E533" s="11">
+        <v>72</v>
+      </c>
+      <c r="F533" s="11">
+        <v>0</v>
+      </c>
+      <c r="G533" s="11">
+        <v>0</v>
+      </c>
+      <c r="H533" s="11">
+        <v>5</v>
+      </c>
+      <c r="J533" s="11">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A534" s="7">
+        <v>6</v>
+      </c>
+      <c r="B534" s="7">
+        <v>533</v>
+      </c>
+      <c r="C534" s="8">
+        <v>45905</v>
+      </c>
+      <c r="D534" s="16">
+        <v>21</v>
+      </c>
+      <c r="E534" s="11">
+        <v>70.5</v>
+      </c>
+      <c r="F534" s="11">
+        <v>0</v>
+      </c>
+      <c r="G534" s="11">
+        <v>0</v>
+      </c>
+      <c r="H534" s="11">
+        <v>5</v>
+      </c>
+      <c r="J534" s="11">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A535" s="7">
+        <v>7</v>
+      </c>
+      <c r="B535" s="7">
+        <v>534</v>
+      </c>
+      <c r="C535" s="8">
+        <v>45906</v>
+      </c>
+      <c r="D535" s="16">
+        <v>17</v>
+      </c>
+      <c r="E535" s="11">
+        <v>71</v>
+      </c>
+      <c r="F535" s="11">
+        <v>0</v>
+      </c>
+      <c r="G535" s="11">
+        <v>0</v>
+      </c>
+      <c r="H535" s="11">
+        <v>4</v>
+      </c>
+      <c r="J535" s="11">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A536" s="7">
+        <v>1</v>
+      </c>
+      <c r="B536" s="7">
+        <v>535</v>
+      </c>
+      <c r="C536" s="8">
+        <v>45907</v>
+      </c>
+      <c r="D536" s="16">
+        <v>33</v>
+      </c>
+      <c r="E536" s="11">
+        <v>71</v>
+      </c>
+      <c r="F536" s="11">
+        <v>0.32</v>
+      </c>
+      <c r="G536" s="11">
+        <v>0</v>
+      </c>
+      <c r="H536" s="11">
+        <v>7</v>
+      </c>
+      <c r="J536" s="11">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A537" s="7">
+        <v>2</v>
+      </c>
+      <c r="B537" s="7">
+        <v>536</v>
+      </c>
+      <c r="C537" s="8">
+        <v>45908</v>
+      </c>
+      <c r="D537" s="16">
+        <v>29</v>
+      </c>
+      <c r="E537" s="11">
         <v>69.5</v>
       </c>
-      <c r="F511" s="11">
-        <v>0</v>
-      </c>
-      <c r="G511" s="11">
-        <v>0</v>
-      </c>
-      <c r="H511" s="11">
+      <c r="F537" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="G537" s="11">
+        <v>0</v>
+      </c>
+      <c r="H537" s="11">
+        <v>8</v>
+      </c>
+      <c r="J537" s="11">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A538" s="7">
+        <v>3</v>
+      </c>
+      <c r="B538" s="7">
+        <v>537</v>
+      </c>
+      <c r="C538" s="8">
+        <v>45909</v>
+      </c>
+      <c r="D538" s="16">
+        <v>15</v>
+      </c>
+      <c r="E538" s="11">
+        <v>68</v>
+      </c>
+      <c r="F538" s="11">
+        <v>0</v>
+      </c>
+      <c r="G538" s="11">
+        <v>0</v>
+      </c>
+      <c r="H538" s="11">
+        <v>4</v>
+      </c>
+      <c r="J538" s="11">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A539" s="7">
+        <v>4</v>
+      </c>
+      <c r="B539" s="7">
+        <v>538</v>
+      </c>
+      <c r="C539" s="8">
+        <v>45910</v>
+      </c>
+      <c r="D539" s="16">
+        <v>20</v>
+      </c>
+      <c r="E539" s="11">
+        <v>70.5</v>
+      </c>
+      <c r="F539" s="11">
+        <v>0</v>
+      </c>
+      <c r="G539" s="11">
+        <v>0</v>
+      </c>
+      <c r="H539" s="11">
         <v>5</v>
       </c>
-      <c r="J511" s="11">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A512" s="7"/>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="7"/>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="7"/>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="7"/>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="7"/>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="7"/>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="7"/>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="7"/>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="7"/>
+      <c r="J539" s="11">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A540" s="7">
+        <v>5</v>
+      </c>
+      <c r="B540" s="7">
+        <v>539</v>
+      </c>
+      <c r="C540" s="8">
+        <v>45911</v>
+      </c>
+      <c r="D540" s="16">
+        <v>29</v>
+      </c>
+      <c r="E540" s="11">
+        <v>69</v>
+      </c>
+      <c r="F540" s="11">
+        <v>0</v>
+      </c>
+      <c r="G540" s="11">
+        <v>0</v>
+      </c>
+      <c r="H540" s="11">
+        <v>6</v>
+      </c>
+      <c r="J540" s="11">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A541" s="7">
+        <v>6</v>
+      </c>
+      <c r="B541" s="7">
+        <v>540</v>
+      </c>
+      <c r="C541" s="8">
+        <v>45912</v>
+      </c>
+      <c r="D541" s="16">
+        <v>20</v>
+      </c>
+      <c r="E541" s="11">
+        <v>70</v>
+      </c>
+      <c r="F541" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="G541" s="11">
+        <v>0</v>
+      </c>
+      <c r="H541" s="11">
+        <v>4</v>
+      </c>
+      <c r="J541" s="11">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A542" s="7">
+        <v>7</v>
+      </c>
+      <c r="B542" s="7">
+        <v>541</v>
+      </c>
+      <c r="C542" s="8">
+        <v>45913</v>
+      </c>
+      <c r="D542" s="16">
+        <v>25</v>
+      </c>
+      <c r="E542" s="11">
+        <v>69</v>
+      </c>
+      <c r="F542" s="11">
+        <v>0</v>
+      </c>
+      <c r="G542" s="11">
+        <v>0</v>
+      </c>
+      <c r="H542" s="11">
+        <v>8</v>
+      </c>
+      <c r="J542" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A543" s="7">
+        <v>1</v>
+      </c>
+      <c r="B543" s="7">
+        <v>542</v>
+      </c>
+      <c r="C543" s="8">
+        <v>45914</v>
+      </c>
+      <c r="D543" s="16">
+        <v>49</v>
+      </c>
+      <c r="E543" s="11">
+        <v>70</v>
+      </c>
+      <c r="F543" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="G543" s="11">
+        <v>0</v>
+      </c>
+      <c r="H543" s="11">
+        <v>4</v>
+      </c>
+      <c r="J543" s="11">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A544" s="7">
+        <v>2</v>
+      </c>
+      <c r="B544" s="7">
+        <v>543</v>
+      </c>
+      <c r="C544" s="8">
+        <v>45915</v>
+      </c>
+      <c r="D544" s="16">
+        <v>18</v>
+      </c>
+      <c r="E544" s="11">
+        <v>56.5</v>
+      </c>
+      <c r="F544" s="11">
+        <v>0</v>
+      </c>
+      <c r="G544" s="11">
+        <v>0</v>
+      </c>
+      <c r="H544" s="11">
+        <v>10</v>
+      </c>
+      <c r="J544" s="11">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A545" s="7">
+        <v>3</v>
+      </c>
+      <c r="B545" s="7">
+        <v>544</v>
+      </c>
+      <c r="C545" s="8">
+        <v>45916</v>
+      </c>
+      <c r="D545" s="16">
+        <v>21</v>
+      </c>
+      <c r="E545" s="11">
+        <v>57</v>
+      </c>
+      <c r="F545" s="11">
+        <v>0</v>
+      </c>
+      <c r="G545" s="11">
+        <v>0</v>
+      </c>
+      <c r="H545" s="11">
+        <v>2</v>
+      </c>
+      <c r="J545" s="11">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A546" s="7">
+        <v>4</v>
+      </c>
+      <c r="B546" s="7">
+        <v>545</v>
+      </c>
+      <c r="C546" s="8">
+        <v>45917</v>
+      </c>
+      <c r="D546" s="16">
+        <v>19</v>
+      </c>
+      <c r="E546" s="11">
+        <v>58.5</v>
+      </c>
+      <c r="F546" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="G546" s="11">
+        <v>0</v>
+      </c>
+      <c r="H546" s="11">
+        <v>5</v>
+      </c>
+      <c r="J546" s="11">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A547" s="7">
+        <v>5</v>
+      </c>
+      <c r="B547" s="7">
+        <v>546</v>
+      </c>
+      <c r="C547" s="8">
+        <v>45918</v>
+      </c>
+      <c r="D547" s="16">
+        <v>21</v>
+      </c>
+      <c r="E547" s="11">
+        <v>59.5</v>
+      </c>
+      <c r="F547" s="11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G547" s="11">
+        <v>0</v>
+      </c>
+      <c r="H547" s="11">
+        <v>8</v>
+      </c>
+      <c r="J547" s="11">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A548" s="7">
+        <v>6</v>
+      </c>
+      <c r="B548" s="7">
+        <v>547</v>
+      </c>
+      <c r="C548" s="8">
+        <v>45919</v>
+      </c>
+      <c r="D548" s="16">
+        <v>18</v>
+      </c>
+      <c r="E548" s="11">
+        <v>61</v>
+      </c>
+      <c r="F548" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G548" s="11">
+        <v>0</v>
+      </c>
+      <c r="H548" s="11">
+        <v>9</v>
+      </c>
+      <c r="J548" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A549" s="7"/>
+      <c r="B549" s="7"/>
+      <c r="C549" s="8"/>
+    </row>
+    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A550" s="7"/>
+    </row>
+    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A551" s="7"/>
+    </row>
+    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A552" s="7"/>
+    </row>
+    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A553" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14448,10 +15491,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6638D5E3-C858-457D-8856-EE1DEA6B94D7}">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31:P45"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38:P82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14464,20 +15507,20 @@
         <v>43</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="35">
+      <c r="C1" s="40">
         <v>0.85</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="42"/>
       <c r="O1" s="24" t="s">
         <v>39</v>
       </c>
@@ -14489,7 +15532,7 @@
       <c r="A2">
         <v>10</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="26">
         <v>45839</v>
       </c>
       <c r="C2" s="18">
@@ -14542,7 +15585,7 @@
       <c r="A3">
         <v>25</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="26">
         <v>45840</v>
       </c>
       <c r="C3" s="18">
@@ -14587,7 +15630,7 @@
         <v>8.7200000000000006</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q30" si="2">O3-A3</f>
+        <f t="shared" ref="Q3:Q37" si="2">O3-A3</f>
         <v>-11</v>
       </c>
     </row>
@@ -14595,7 +15638,7 @@
       <c r="A4">
         <v>6</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="26">
         <v>45841</v>
       </c>
       <c r="C4" s="18">
@@ -14648,7 +15691,7 @@
       <c r="A5">
         <v>0</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="26">
         <v>45842</v>
       </c>
       <c r="C5" s="18">
@@ -14701,7 +15744,7 @@
       <c r="A6">
         <v>10</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="26">
         <v>45843</v>
       </c>
       <c r="C6" s="18">
@@ -14754,7 +15797,7 @@
       <c r="A7">
         <v>50</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="26">
         <v>45844</v>
       </c>
       <c r="C7" s="18">
@@ -14807,7 +15850,7 @@
       <c r="A8" s="16">
         <v>13</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="26">
         <v>45845</v>
       </c>
       <c r="C8" s="18">
@@ -14863,7 +15906,7 @@
       <c r="A9" s="16">
         <v>12</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <v>45846</v>
       </c>
       <c r="C9" s="18">
@@ -14919,7 +15962,7 @@
       <c r="A10" s="16">
         <v>10</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="26">
         <v>45847</v>
       </c>
       <c r="C10" s="18">
@@ -14975,7 +16018,7 @@
       <c r="A11" s="16">
         <v>25</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="26">
         <v>45848</v>
       </c>
       <c r="C11" s="18">
@@ -15031,7 +16074,7 @@
       <c r="A12" s="16">
         <v>29</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="26">
         <v>45849</v>
       </c>
       <c r="C12" s="18">
@@ -15087,7 +16130,7 @@
       <c r="A13" s="16">
         <v>43</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="26">
         <v>45850</v>
       </c>
       <c r="C13" s="18">
@@ -15143,7 +16186,7 @@
       <c r="A14" s="16">
         <v>32</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="26">
         <v>45851</v>
       </c>
       <c r="C14" s="18">
@@ -15199,7 +16242,7 @@
       <c r="A15" s="16">
         <v>20</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="26">
         <v>45852</v>
       </c>
       <c r="C15" s="18">
@@ -15255,7 +16298,7 @@
       <c r="A16" s="16">
         <v>11</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="26">
         <v>45853</v>
       </c>
       <c r="C16" s="18">
@@ -15311,7 +16354,7 @@
       <c r="A17" s="16">
         <v>27</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="26">
         <v>45854</v>
       </c>
       <c r="C17" s="18">
@@ -15367,7 +16410,7 @@
       <c r="A18" s="16">
         <v>15</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="26">
         <v>45855</v>
       </c>
       <c r="C18" s="18">
@@ -15423,7 +16466,7 @@
       <c r="A19" s="16">
         <v>27</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="26">
         <v>45856</v>
       </c>
       <c r="C19" s="18">
@@ -15479,7 +16522,7 @@
       <c r="A20" s="16">
         <v>35</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="26">
         <v>45857</v>
       </c>
       <c r="C20" s="18">
@@ -15532,10 +16575,10 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="44">
+      <c r="A21" s="16">
         <v>20</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="26">
         <v>45858</v>
       </c>
       <c r="C21" s="18">
@@ -15573,7 +16616,7 @@
         <v>46</v>
       </c>
       <c r="P21" s="25">
-        <f t="shared" ref="P21:P46" si="3">ROUND(_xlfn.STDEV.P(D21:O21),2)</f>
+        <f t="shared" ref="P21:P44" si="3">ROUND(_xlfn.STDEV.P(D21:O21),2)</f>
         <v>4.8099999999999996</v>
       </c>
       <c r="Q21">
@@ -15582,10 +16625,10 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="44">
+      <c r="A22" s="16">
         <v>12</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="26">
         <v>45859</v>
       </c>
       <c r="C22" s="18">
@@ -15632,10 +16675,10 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="44">
+      <c r="A23" s="16">
         <v>14</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="26">
         <v>45860</v>
       </c>
       <c r="C23" s="18">
@@ -15657,48 +16700,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
         <v>31</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="26">
         <v>45861</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="18">
         <v>13</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24">
         <v>10</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24">
         <v>9</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24">
         <v>14</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24">
         <v>11</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24">
         <v>14</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24">
         <v>12</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24">
         <v>11</v>
       </c>
-      <c r="K24" s="40">
+      <c r="K24">
         <v>12</v>
       </c>
-      <c r="L24" s="40">
+      <c r="L24">
         <v>13</v>
       </c>
-      <c r="O24" s="43">
+      <c r="O24" s="25">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="P24" s="43">
+      <c r="P24" s="25">
         <f t="shared" si="3"/>
         <v>1.54</v>
       </c>
@@ -15708,10 +16751,10 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="44">
+      <c r="A25" s="16">
         <v>24</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="26">
         <v>45862</v>
       </c>
       <c r="C25" s="18">
@@ -15758,10 +16801,10 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="44">
+      <c r="A26" s="16">
         <v>21</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="26">
         <v>45863</v>
       </c>
       <c r="C26" s="18">
@@ -15796,7 +16839,7 @@
       </c>
       <c r="N26" s="19"/>
       <c r="O26" s="25">
-        <f t="shared" ref="O26:O45" si="4">ROUND(AVERAGE(C26:N26),0)</f>
+        <f t="shared" ref="O26:O44" si="4">ROUND(AVERAGE(C26:N26),0)</f>
         <v>17</v>
       </c>
       <c r="P26" s="25">
@@ -15809,10 +16852,10 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="44">
+      <c r="A27" s="16">
         <v>35</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="26">
         <v>45864</v>
       </c>
       <c r="C27" s="18">
@@ -15860,10 +16903,10 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="44">
+      <c r="A28" s="16">
         <v>31</v>
       </c>
-      <c r="B28" s="27">
+      <c r="B28" s="26">
         <v>45865</v>
       </c>
       <c r="C28" s="18">
@@ -15911,10 +16954,10 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="44">
+      <c r="A29" s="16">
         <v>11</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="26">
         <v>45866</v>
       </c>
       <c r="C29" s="18">
@@ -15962,10 +17005,10 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="44">
+      <c r="A30" s="16">
         <v>4</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="26">
         <v>45867</v>
       </c>
       <c r="C30" s="18">
@@ -16012,57 +17055,67 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="30">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <v>14</v>
+      </c>
+      <c r="B31" s="26">
         <v>45868</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="18">
         <v>9</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="18">
         <v>7</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="18">
         <v>10</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="18">
         <v>10</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="18">
         <v>8</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H31" s="22">
         <v>6</v>
       </c>
-      <c r="I31" s="31">
+      <c r="I31" s="18">
         <v>10</v>
       </c>
-      <c r="J31" s="31">
+      <c r="J31" s="18">
         <v>10</v>
       </c>
-      <c r="K31" s="31">
+      <c r="K31" s="18">
         <v>8</v>
       </c>
-      <c r="L31" s="31">
+      <c r="L31" s="18">
         <v>9</v>
       </c>
-      <c r="M31" s="29">
+      <c r="M31">
         <v>8</v>
       </c>
-      <c r="N31" s="39">
+      <c r="N31" s="19">
         <v>10</v>
       </c>
-      <c r="O31" s="32">
+      <c r="O31" s="25">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="P31" s="32">
+      <c r="P31" s="25">
         <f t="shared" si="3"/>
         <v>1.3</v>
       </c>
+      <c r="Q31">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="27">
+      <c r="A32" s="16">
+        <v>41</v>
+      </c>
+      <c r="B32" s="26">
         <v>45869</v>
       </c>
       <c r="C32" s="18">
@@ -16109,9 +17162,16 @@
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="27">
+      <c r="Q32">
+        <f t="shared" si="2"/>
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <v>24</v>
+      </c>
+      <c r="B33" s="26">
         <v>45870</v>
       </c>
       <c r="C33" s="18">
@@ -16158,9 +17218,16 @@
         <f t="shared" si="3"/>
         <v>3.14</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="27">
+      <c r="Q33">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
+        <v>87</v>
+      </c>
+      <c r="B34" s="26">
         <v>45871</v>
       </c>
       <c r="C34" s="18">
@@ -16207,9 +17274,16 @@
         <f t="shared" si="3"/>
         <v>0.95</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="27">
+      <c r="Q34">
+        <f t="shared" si="2"/>
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
+        <v>34</v>
+      </c>
+      <c r="B35" s="26">
         <v>45872</v>
       </c>
       <c r="C35" s="18">
@@ -16256,9 +17330,16 @@
         <f t="shared" si="3"/>
         <v>7.05</v>
       </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="27">
+      <c r="Q35">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
+        <v>16</v>
+      </c>
+      <c r="B36" s="26">
         <v>45873</v>
       </c>
       <c r="C36" s="18">
@@ -16305,9 +17386,16 @@
         <f t="shared" si="3"/>
         <v>1.44</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="27">
+      <c r="Q36">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
+        <v>10</v>
+      </c>
+      <c r="B37" s="26">
         <v>45874</v>
       </c>
       <c r="C37" s="18">
@@ -16354,144 +17442,148 @@
         <f t="shared" si="3"/>
         <v>1.29</v>
       </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="27">
+      <c r="Q37">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="29">
         <v>45875</v>
       </c>
-      <c r="C38" s="18">
-        <v>22</v>
-      </c>
-      <c r="D38" s="18">
-        <v>23</v>
-      </c>
-      <c r="E38" s="18">
-        <v>25</v>
-      </c>
-      <c r="F38" s="18">
-        <v>22</v>
-      </c>
-      <c r="G38" s="18">
-        <v>21</v>
-      </c>
-      <c r="H38" s="22">
-        <v>25</v>
-      </c>
-      <c r="I38" s="18">
-        <v>23</v>
-      </c>
-      <c r="J38" s="18">
-        <v>25</v>
-      </c>
-      <c r="K38" s="18">
-        <v>22</v>
-      </c>
-      <c r="L38" s="18">
-        <v>23</v>
-      </c>
-      <c r="M38">
-        <v>24</v>
-      </c>
-      <c r="N38" s="19">
-        <v>21</v>
-      </c>
-      <c r="O38" s="25">
+      <c r="C38" s="30">
+        <v>28</v>
+      </c>
+      <c r="D38" s="30">
+        <v>30</v>
+      </c>
+      <c r="E38" s="30">
+        <v>29</v>
+      </c>
+      <c r="F38" s="30">
+        <v>35</v>
+      </c>
+      <c r="G38" s="30">
+        <v>26</v>
+      </c>
+      <c r="H38" s="34">
+        <v>31</v>
+      </c>
+      <c r="I38" s="30">
+        <v>30</v>
+      </c>
+      <c r="J38" s="30">
+        <v>31</v>
+      </c>
+      <c r="K38" s="30">
+        <v>30</v>
+      </c>
+      <c r="L38" s="30">
+        <v>32</v>
+      </c>
+      <c r="M38" s="28">
+        <v>30</v>
+      </c>
+      <c r="N38" s="35">
+        <v>30</v>
+      </c>
+      <c r="O38" s="31">
         <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="P38" s="25">
+        <v>30</v>
+      </c>
+      <c r="P38" s="31">
         <f t="shared" si="3"/>
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="27">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B39" s="26">
         <v>45876</v>
       </c>
       <c r="C39" s="18">
         <v>27</v>
       </c>
       <c r="D39" s="18">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E39" s="18">
+        <v>28</v>
+      </c>
+      <c r="F39" s="18">
+        <v>24</v>
+      </c>
+      <c r="G39" s="18">
+        <v>28</v>
+      </c>
+      <c r="H39" s="22">
+        <v>27</v>
+      </c>
+      <c r="I39" s="18">
         <v>23</v>
       </c>
-      <c r="F39" s="18">
-        <v>29</v>
-      </c>
-      <c r="G39" s="18">
-        <v>25</v>
-      </c>
-      <c r="H39" s="22">
-        <v>29</v>
-      </c>
-      <c r="I39" s="18">
-        <v>25</v>
-      </c>
       <c r="J39" s="18">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K39" s="18">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L39" s="18">
         <v>28</v>
       </c>
       <c r="M39">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N39" s="19">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O39" s="25">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P39" s="25">
         <f t="shared" si="3"/>
-        <v>1.93</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="27">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B40" s="26">
         <v>45877</v>
       </c>
       <c r="C40" s="18">
+        <v>20</v>
+      </c>
+      <c r="D40" s="18">
+        <v>18</v>
+      </c>
+      <c r="E40" s="18">
         <v>22</v>
       </c>
-      <c r="D40" s="18">
+      <c r="F40" s="18">
         <v>21</v>
       </c>
-      <c r="E40" s="18">
-        <v>20</v>
-      </c>
-      <c r="F40" s="18">
-        <v>22</v>
-      </c>
       <c r="G40" s="18">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H40" s="22">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I40" s="18">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J40" s="18">
         <v>22</v>
       </c>
       <c r="K40" s="18">
+        <v>19</v>
+      </c>
+      <c r="L40" s="18">
         <v>21</v>
       </c>
-      <c r="L40" s="18">
+      <c r="M40">
+        <v>21</v>
+      </c>
+      <c r="N40" s="19">
         <v>23</v>
-      </c>
-      <c r="M40">
-        <v>22</v>
-      </c>
-      <c r="N40" s="19">
-        <v>22</v>
       </c>
       <c r="O40" s="25">
         <f t="shared" si="4"/>
@@ -16499,360 +17591,2173 @@
       </c>
       <c r="P40" s="25">
         <f t="shared" si="3"/>
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="27">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B41" s="26">
         <v>45878</v>
       </c>
       <c r="C41" s="18">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D41" s="18">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E41" s="18">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F41" s="18">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G41" s="18">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H41" s="22">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="I41" s="18">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J41" s="18">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="K41" s="18">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="L41" s="18">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="M41">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N41" s="19">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="O41" s="25">
         <f t="shared" si="4"/>
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="P41" s="25">
         <f t="shared" si="3"/>
-        <v>7.21</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B42" s="27">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B42" s="26">
         <v>45879</v>
       </c>
       <c r="C42" s="18">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D42" s="18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E42" s="18">
         <v>18</v>
       </c>
       <c r="F42" s="18">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G42" s="18">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H42" s="22">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I42" s="18">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J42" s="18">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K42" s="18">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L42" s="18">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N42" s="19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O42" s="25">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P42" s="25">
         <f t="shared" si="3"/>
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="27">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B43" s="26">
         <v>45880</v>
       </c>
       <c r="C43" s="18">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D43" s="18">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E43" s="18">
+        <v>19</v>
+      </c>
+      <c r="F43" s="18">
+        <v>19</v>
+      </c>
+      <c r="G43" s="18">
+        <v>20</v>
+      </c>
+      <c r="H43" s="22">
+        <v>16</v>
+      </c>
+      <c r="I43" s="18">
+        <v>20</v>
+      </c>
+      <c r="J43" s="18">
+        <v>17</v>
+      </c>
+      <c r="K43" s="18">
+        <v>20</v>
+      </c>
+      <c r="L43" s="18">
         <v>24</v>
       </c>
-      <c r="F43" s="18">
-        <v>27</v>
-      </c>
-      <c r="G43" s="18">
-        <v>24</v>
-      </c>
-      <c r="H43" s="22">
-        <v>26</v>
-      </c>
-      <c r="I43" s="18">
-        <v>25</v>
-      </c>
-      <c r="J43" s="18">
-        <v>24</v>
-      </c>
-      <c r="K43" s="18">
-        <v>26</v>
-      </c>
-      <c r="L43" s="18">
-        <v>25</v>
-      </c>
       <c r="M43">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N43" s="19">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="O43" s="25">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="P43" s="25">
         <f t="shared" si="3"/>
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="27">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="26">
         <v>45881</v>
       </c>
       <c r="C44" s="18">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D44" s="18">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E44" s="18">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F44" s="18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G44" s="18">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H44" s="22">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I44" s="18">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J44" s="18">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K44" s="18">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L44" s="18">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M44">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N44" s="19">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="O44" s="25">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="P44" s="25">
         <f t="shared" si="3"/>
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="27">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="26">
         <v>45882</v>
       </c>
-      <c r="C45" s="28">
-        <v>24</v>
+      <c r="C45" s="27">
+        <v>22</v>
       </c>
       <c r="D45" s="20">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E45" s="20">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F45" s="20">
         <v>26</v>
       </c>
       <c r="G45" s="20">
+        <v>22</v>
+      </c>
+      <c r="H45" s="23">
+        <v>24</v>
+      </c>
+      <c r="I45" s="20">
         <v>23</v>
       </c>
-      <c r="H45" s="23">
+      <c r="J45" s="20">
+        <v>22</v>
+      </c>
+      <c r="K45" s="20">
+        <v>22</v>
+      </c>
+      <c r="L45" s="20">
+        <v>22</v>
+      </c>
+      <c r="M45" s="20">
+        <v>22</v>
+      </c>
+      <c r="N45" s="21">
+        <v>27</v>
+      </c>
+      <c r="O45" s="25">
+        <f t="shared" ref="O45:O82" si="5">ROUND(AVERAGE(C45:N45),0)</f>
+        <v>23</v>
+      </c>
+      <c r="P45" s="25">
+        <f t="shared" ref="P45:P82" si="6">ROUND(_xlfn.STDEV.P(D45:O45),2)</f>
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="26">
+        <v>45883</v>
+      </c>
+      <c r="C46">
         <v>26</v>
       </c>
-      <c r="I45" s="20">
+      <c r="D46">
         <v>24</v>
       </c>
-      <c r="J45" s="20">
+      <c r="E46">
+        <v>25</v>
+      </c>
+      <c r="F46">
+        <v>26</v>
+      </c>
+      <c r="G46">
+        <v>27</v>
+      </c>
+      <c r="H46">
+        <v>25</v>
+      </c>
+      <c r="I46">
+        <v>26</v>
+      </c>
+      <c r="J46">
+        <v>25</v>
+      </c>
+      <c r="K46">
+        <v>24</v>
+      </c>
+      <c r="L46">
+        <v>27</v>
+      </c>
+      <c r="M46">
+        <v>24</v>
+      </c>
+      <c r="N46">
+        <v>27</v>
+      </c>
+      <c r="O46" s="25">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="P46" s="25">
+        <f t="shared" si="6"/>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="26">
+        <v>45884</v>
+      </c>
+      <c r="C47">
+        <v>23</v>
+      </c>
+      <c r="D47">
+        <v>22</v>
+      </c>
+      <c r="E47">
+        <v>23</v>
+      </c>
+      <c r="F47">
+        <v>20</v>
+      </c>
+      <c r="G47">
+        <v>23</v>
+      </c>
+      <c r="H47">
+        <v>22</v>
+      </c>
+      <c r="I47">
         <v>21</v>
       </c>
-      <c r="K45" s="20">
+      <c r="J47">
+        <v>22</v>
+      </c>
+      <c r="K47">
+        <v>21</v>
+      </c>
+      <c r="L47">
+        <v>21</v>
+      </c>
+      <c r="M47">
+        <v>20</v>
+      </c>
+      <c r="N47">
+        <v>21</v>
+      </c>
+      <c r="O47" s="25">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="P47" s="25">
+        <f t="shared" si="6"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="26">
+        <v>45885</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
+      </c>
+      <c r="F48">
+        <v>20</v>
+      </c>
+      <c r="G48">
+        <v>21</v>
+      </c>
+      <c r="H48">
+        <v>20</v>
+      </c>
+      <c r="I48">
+        <v>20</v>
+      </c>
+      <c r="J48">
+        <v>20</v>
+      </c>
+      <c r="K48">
+        <v>21</v>
+      </c>
+      <c r="L48">
+        <v>21</v>
+      </c>
+      <c r="M48">
+        <v>20</v>
+      </c>
+      <c r="N48">
+        <v>20</v>
+      </c>
+      <c r="O48" s="25">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="P48" s="25">
+        <f t="shared" si="6"/>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49" s="26">
+        <v>45886</v>
+      </c>
+      <c r="C49">
+        <v>32</v>
+      </c>
+      <c r="D49">
+        <v>42</v>
+      </c>
+      <c r="E49">
+        <v>40</v>
+      </c>
+      <c r="F49">
+        <v>46</v>
+      </c>
+      <c r="G49">
+        <v>29</v>
+      </c>
+      <c r="H49">
+        <v>44</v>
+      </c>
+      <c r="I49">
+        <v>38</v>
+      </c>
+      <c r="J49">
+        <v>38</v>
+      </c>
+      <c r="K49">
+        <v>36</v>
+      </c>
+      <c r="L49">
+        <v>34</v>
+      </c>
+      <c r="M49">
+        <v>41</v>
+      </c>
+      <c r="N49">
+        <v>39</v>
+      </c>
+      <c r="O49" s="25">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="P49" s="25">
+        <f t="shared" si="6"/>
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50" s="26">
+        <v>45887</v>
+      </c>
+      <c r="C50">
+        <v>16</v>
+      </c>
+      <c r="D50">
+        <v>17</v>
+      </c>
+      <c r="E50">
+        <v>16</v>
+      </c>
+      <c r="F50">
+        <v>15</v>
+      </c>
+      <c r="G50">
+        <v>21</v>
+      </c>
+      <c r="H50">
+        <v>20</v>
+      </c>
+      <c r="I50">
+        <v>18</v>
+      </c>
+      <c r="J50">
+        <v>16</v>
+      </c>
+      <c r="K50">
+        <v>18</v>
+      </c>
+      <c r="L50">
+        <v>14</v>
+      </c>
+      <c r="M50">
+        <v>20</v>
+      </c>
+      <c r="N50">
+        <v>16</v>
+      </c>
+      <c r="O50" s="25">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="P50" s="25">
+        <f t="shared" si="6"/>
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51" s="26">
+        <v>45888</v>
+      </c>
+      <c r="C51">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>16</v>
+      </c>
+      <c r="E51">
+        <v>17</v>
+      </c>
+      <c r="F51">
+        <v>14</v>
+      </c>
+      <c r="G51">
+        <v>15</v>
+      </c>
+      <c r="H51">
+        <v>18</v>
+      </c>
+      <c r="I51">
+        <v>15</v>
+      </c>
+      <c r="J51">
+        <v>16</v>
+      </c>
+      <c r="K51">
+        <v>16</v>
+      </c>
+      <c r="L51">
+        <v>15</v>
+      </c>
+      <c r="M51">
+        <v>14</v>
+      </c>
+      <c r="N51">
+        <v>16</v>
+      </c>
+      <c r="O51" s="25">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="P51" s="25">
+        <f t="shared" si="6"/>
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52" s="26">
+        <v>45889</v>
+      </c>
+      <c r="C52">
+        <v>22</v>
+      </c>
+      <c r="D52">
         <v>24</v>
       </c>
-      <c r="L45" s="20">
+      <c r="E52">
+        <v>22</v>
+      </c>
+      <c r="F52">
         <v>25</v>
       </c>
-      <c r="M45" s="20">
+      <c r="G52">
+        <v>23</v>
+      </c>
+      <c r="H52">
+        <v>22</v>
+      </c>
+      <c r="I52">
+        <v>23</v>
+      </c>
+      <c r="J52">
+        <v>24</v>
+      </c>
+      <c r="K52">
+        <v>21</v>
+      </c>
+      <c r="L52">
+        <v>22</v>
+      </c>
+      <c r="M52">
+        <v>23</v>
+      </c>
+      <c r="N52">
         <v>26</v>
       </c>
-      <c r="N45" s="21">
+      <c r="O52" s="25">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="P52" s="25">
+        <f t="shared" si="6"/>
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53" s="26">
+        <v>45890</v>
+      </c>
+      <c r="C53">
+        <v>27</v>
+      </c>
+      <c r="D53">
+        <v>25</v>
+      </c>
+      <c r="E53">
+        <v>26</v>
+      </c>
+      <c r="F53">
+        <v>25</v>
+      </c>
+      <c r="G53">
+        <v>27</v>
+      </c>
+      <c r="H53">
         <v>24</v>
       </c>
-      <c r="O45" s="26">
-        <f t="shared" si="4"/>
+      <c r="I53">
+        <v>26</v>
+      </c>
+      <c r="J53">
+        <v>26</v>
+      </c>
+      <c r="K53">
+        <v>26</v>
+      </c>
+      <c r="L53">
+        <v>26</v>
+      </c>
+      <c r="M53">
+        <v>25</v>
+      </c>
+      <c r="N53">
+        <v>26</v>
+      </c>
+      <c r="O53" s="25">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="P53" s="25">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B54" s="26">
+        <v>45891</v>
+      </c>
+      <c r="C54">
         <v>24</v>
       </c>
-      <c r="P45" s="26">
-        <f t="shared" si="3"/>
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="22" t="s">
+      <c r="D54">
+        <v>22</v>
+      </c>
+      <c r="E54">
+        <v>22</v>
+      </c>
+      <c r="F54">
+        <v>20</v>
+      </c>
+      <c r="G54">
+        <v>24</v>
+      </c>
+      <c r="H54">
+        <v>22</v>
+      </c>
+      <c r="I54">
+        <v>20</v>
+      </c>
+      <c r="J54">
+        <v>22</v>
+      </c>
+      <c r="K54">
+        <v>23</v>
+      </c>
+      <c r="L54">
+        <v>22</v>
+      </c>
+      <c r="M54">
+        <v>22</v>
+      </c>
+      <c r="N54">
+        <v>21</v>
+      </c>
+      <c r="O54" s="25">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="P54" s="25">
+        <f t="shared" si="6"/>
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55" s="26">
+        <v>45892</v>
+      </c>
+      <c r="C55">
+        <v>17</v>
+      </c>
+      <c r="D55">
+        <v>17</v>
+      </c>
+      <c r="E55">
+        <v>17</v>
+      </c>
+      <c r="F55">
+        <v>16</v>
+      </c>
+      <c r="G55">
+        <v>17</v>
+      </c>
+      <c r="H55">
+        <v>18</v>
+      </c>
+      <c r="I55">
+        <v>17</v>
+      </c>
+      <c r="J55">
+        <v>17</v>
+      </c>
+      <c r="K55">
+        <v>17</v>
+      </c>
+      <c r="L55">
+        <v>18</v>
+      </c>
+      <c r="M55">
+        <v>17</v>
+      </c>
+      <c r="N55">
+        <v>18</v>
+      </c>
+      <c r="O55" s="25">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="P55" s="25">
+        <f t="shared" si="6"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B56" s="26">
+        <v>45893</v>
+      </c>
+      <c r="C56">
+        <v>33</v>
+      </c>
+      <c r="D56">
+        <v>43</v>
+      </c>
+      <c r="E56">
+        <v>42</v>
+      </c>
+      <c r="F56">
+        <v>46</v>
+      </c>
+      <c r="G56">
+        <v>30</v>
+      </c>
+      <c r="H56">
+        <v>44</v>
+      </c>
+      <c r="I56">
+        <v>38</v>
+      </c>
+      <c r="J56">
+        <v>38</v>
+      </c>
+      <c r="K56">
+        <v>39</v>
+      </c>
+      <c r="L56">
+        <v>34</v>
+      </c>
+      <c r="M56">
+        <v>43</v>
+      </c>
+      <c r="N56">
+        <v>40</v>
+      </c>
+      <c r="O56" s="25">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="P56" s="25">
+        <f t="shared" si="6"/>
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B57" s="26">
+        <v>45894</v>
+      </c>
+      <c r="C57">
+        <v>25</v>
+      </c>
+      <c r="D57">
+        <v>26</v>
+      </c>
+      <c r="E57">
+        <v>25</v>
+      </c>
+      <c r="F57">
+        <v>27</v>
+      </c>
+      <c r="G57">
+        <v>28</v>
+      </c>
+      <c r="H57">
+        <v>25</v>
+      </c>
+      <c r="I57">
+        <v>26</v>
+      </c>
+      <c r="J57">
+        <v>27</v>
+      </c>
+      <c r="K57">
+        <v>26</v>
+      </c>
+      <c r="L57">
+        <v>26</v>
+      </c>
+      <c r="M57">
+        <v>26</v>
+      </c>
+      <c r="N57">
+        <v>27</v>
+      </c>
+      <c r="O57" s="25">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="P57" s="25">
+        <f t="shared" si="6"/>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B58" s="26">
+        <v>45895</v>
+      </c>
+      <c r="C58">
+        <v>25</v>
+      </c>
+      <c r="D58">
+        <v>22</v>
+      </c>
+      <c r="E58">
+        <v>22</v>
+      </c>
+      <c r="F58">
+        <v>24</v>
+      </c>
+      <c r="G58">
+        <v>25</v>
+      </c>
+      <c r="H58">
+        <v>26</v>
+      </c>
+      <c r="I58">
+        <v>22</v>
+      </c>
+      <c r="J58">
+        <v>27</v>
+      </c>
+      <c r="K58">
+        <v>25</v>
+      </c>
+      <c r="L58">
+        <v>25</v>
+      </c>
+      <c r="M58">
+        <v>20</v>
+      </c>
+      <c r="N58">
+        <v>22</v>
+      </c>
+      <c r="O58" s="25">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="P58" s="25">
+        <f t="shared" si="6"/>
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B59" s="26">
+        <v>45896</v>
+      </c>
+      <c r="C59">
+        <v>27</v>
+      </c>
+      <c r="D59">
+        <v>23</v>
+      </c>
+      <c r="E59">
+        <v>24</v>
+      </c>
+      <c r="F59">
+        <v>28</v>
+      </c>
+      <c r="G59">
+        <v>22</v>
+      </c>
+      <c r="H59">
+        <v>25</v>
+      </c>
+      <c r="I59">
+        <v>22</v>
+      </c>
+      <c r="J59">
+        <v>29</v>
+      </c>
+      <c r="K59">
+        <v>28</v>
+      </c>
+      <c r="L59">
+        <v>23</v>
+      </c>
+      <c r="M59">
+        <v>23</v>
+      </c>
+      <c r="N59">
+        <v>27</v>
+      </c>
+      <c r="O59" s="25">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="P59" s="25">
+        <f t="shared" si="6"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B60" s="26">
+        <v>45897</v>
+      </c>
+      <c r="C60">
+        <v>26</v>
+      </c>
+      <c r="D60">
+        <v>26</v>
+      </c>
+      <c r="E60">
+        <v>26</v>
+      </c>
+      <c r="F60">
+        <v>27</v>
+      </c>
+      <c r="G60">
+        <v>27</v>
+      </c>
+      <c r="H60">
+        <v>21</v>
+      </c>
+      <c r="I60">
+        <v>24</v>
+      </c>
+      <c r="J60">
+        <v>25</v>
+      </c>
+      <c r="K60">
+        <v>24</v>
+      </c>
+      <c r="L60">
+        <v>25</v>
+      </c>
+      <c r="M60">
+        <v>25</v>
+      </c>
+      <c r="N60">
+        <v>27</v>
+      </c>
+      <c r="O60" s="25">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="P60" s="25">
+        <f t="shared" si="6"/>
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B61" s="26">
+        <v>45898</v>
+      </c>
+      <c r="C61">
+        <v>21</v>
+      </c>
+      <c r="D61">
+        <v>22</v>
+      </c>
+      <c r="E61">
+        <v>21</v>
+      </c>
+      <c r="F61">
+        <v>21</v>
+      </c>
+      <c r="G61">
+        <v>20</v>
+      </c>
+      <c r="H61">
+        <v>19</v>
+      </c>
+      <c r="I61">
+        <v>21</v>
+      </c>
+      <c r="J61">
+        <v>21</v>
+      </c>
+      <c r="K61">
+        <v>22</v>
+      </c>
+      <c r="L61">
+        <v>23</v>
+      </c>
+      <c r="M61">
+        <v>21</v>
+      </c>
+      <c r="N61">
+        <v>21</v>
+      </c>
+      <c r="O61" s="25">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="P61" s="25">
+        <f t="shared" si="6"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B62" s="26">
+        <v>45899</v>
+      </c>
+      <c r="C62">
+        <v>16</v>
+      </c>
+      <c r="D62">
+        <v>16</v>
+      </c>
+      <c r="E62">
+        <v>16</v>
+      </c>
+      <c r="F62">
+        <v>15</v>
+      </c>
+      <c r="G62">
+        <v>16</v>
+      </c>
+      <c r="H62">
+        <v>16</v>
+      </c>
+      <c r="I62">
+        <v>16</v>
+      </c>
+      <c r="J62">
+        <v>16</v>
+      </c>
+      <c r="K62">
+        <v>16</v>
+      </c>
+      <c r="L62">
+        <v>17</v>
+      </c>
+      <c r="M62">
+        <v>16</v>
+      </c>
+      <c r="N62">
+        <v>17</v>
+      </c>
+      <c r="O62" s="25">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="P62" s="25">
+        <f t="shared" si="6"/>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B63" s="26">
+        <v>45900</v>
+      </c>
+      <c r="C63">
+        <v>33</v>
+      </c>
+      <c r="D63">
+        <v>39</v>
+      </c>
+      <c r="E63">
+        <v>26</v>
+      </c>
+      <c r="F63">
+        <v>34</v>
+      </c>
+      <c r="G63">
+        <v>49</v>
+      </c>
+      <c r="H63">
+        <v>39</v>
+      </c>
+      <c r="I63">
+        <v>43</v>
+      </c>
+      <c r="J63">
+        <v>33</v>
+      </c>
+      <c r="K63">
+        <v>36</v>
+      </c>
+      <c r="L63">
+        <v>21</v>
+      </c>
+      <c r="M63">
+        <v>37</v>
+      </c>
+      <c r="N63">
+        <v>35</v>
+      </c>
+      <c r="O63" s="25">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="P63" s="25">
+        <f t="shared" si="6"/>
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B64" s="26">
+        <v>45901</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>7</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="G64">
+        <v>6</v>
+      </c>
+      <c r="H64">
+        <v>7</v>
+      </c>
+      <c r="I64">
+        <v>4</v>
+      </c>
+      <c r="J64">
+        <v>4</v>
+      </c>
+      <c r="K64">
+        <v>6</v>
+      </c>
+      <c r="L64">
+        <v>6</v>
+      </c>
+      <c r="M64">
+        <v>7</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64" s="25">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P64" s="25">
+        <f t="shared" si="6"/>
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" s="26">
+        <v>45902</v>
+      </c>
+      <c r="C65">
+        <v>23</v>
+      </c>
+      <c r="D65">
+        <v>20</v>
+      </c>
+      <c r="E65">
+        <v>21</v>
+      </c>
+      <c r="F65">
+        <v>16</v>
+      </c>
+      <c r="G65">
+        <v>19</v>
+      </c>
+      <c r="H65">
+        <v>21</v>
+      </c>
+      <c r="I65">
+        <v>22</v>
+      </c>
+      <c r="J65">
+        <v>21</v>
+      </c>
+      <c r="K65">
+        <v>22</v>
+      </c>
+      <c r="L65">
+        <v>17</v>
+      </c>
+      <c r="M65">
+        <v>21</v>
+      </c>
+      <c r="N65">
+        <v>20</v>
+      </c>
+      <c r="O65" s="25">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="P65" s="25">
+        <f t="shared" si="6"/>
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B66" s="26">
+        <v>45903</v>
+      </c>
+      <c r="C66">
+        <v>21</v>
+      </c>
+      <c r="D66">
+        <v>22</v>
+      </c>
+      <c r="E66">
+        <v>24</v>
+      </c>
+      <c r="F66">
+        <v>20</v>
+      </c>
+      <c r="G66">
+        <v>24</v>
+      </c>
+      <c r="H66">
+        <v>22</v>
+      </c>
+      <c r="I66">
+        <v>21</v>
+      </c>
+      <c r="J66">
+        <v>24</v>
+      </c>
+      <c r="K66">
+        <v>21</v>
+      </c>
+      <c r="L66">
+        <v>19</v>
+      </c>
+      <c r="M66">
+        <v>20</v>
+      </c>
+      <c r="N66">
+        <v>22</v>
+      </c>
+      <c r="O66" s="25">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="P66" s="25">
+        <f t="shared" si="6"/>
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B67" s="26">
+        <v>45904</v>
+      </c>
+      <c r="C67">
+        <v>30</v>
+      </c>
+      <c r="D67">
+        <v>29</v>
+      </c>
+      <c r="E67">
+        <v>31</v>
+      </c>
+      <c r="F67">
+        <v>30</v>
+      </c>
+      <c r="G67">
+        <v>29</v>
+      </c>
+      <c r="H67">
+        <v>30</v>
+      </c>
+      <c r="I67">
+        <v>32</v>
+      </c>
+      <c r="J67">
+        <v>31</v>
+      </c>
+      <c r="K67">
+        <v>32</v>
+      </c>
+      <c r="L67">
+        <v>29</v>
+      </c>
+      <c r="M67">
+        <v>31</v>
+      </c>
+      <c r="N67">
+        <v>30</v>
+      </c>
+      <c r="O67" s="25">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="P67" s="25">
+        <f t="shared" si="6"/>
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B68" s="26">
+        <v>45905</v>
+      </c>
+      <c r="C68">
+        <v>21</v>
+      </c>
+      <c r="D68">
+        <v>20</v>
+      </c>
+      <c r="E68">
+        <v>23</v>
+      </c>
+      <c r="F68">
+        <v>19</v>
+      </c>
+      <c r="G68">
+        <v>21</v>
+      </c>
+      <c r="H68">
+        <v>21</v>
+      </c>
+      <c r="I68">
+        <v>20</v>
+      </c>
+      <c r="J68">
+        <v>20</v>
+      </c>
+      <c r="K68">
+        <v>21</v>
+      </c>
+      <c r="L68">
+        <v>20</v>
+      </c>
+      <c r="M68">
+        <v>21</v>
+      </c>
+      <c r="N68">
+        <v>20</v>
+      </c>
+      <c r="O68" s="25">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="P68" s="25">
+        <f t="shared" si="6"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B69" s="26">
+        <v>45906</v>
+      </c>
+      <c r="C69">
+        <v>19</v>
+      </c>
+      <c r="D69">
+        <v>16</v>
+      </c>
+      <c r="E69">
+        <v>17</v>
+      </c>
+      <c r="F69">
+        <v>18</v>
+      </c>
+      <c r="G69">
+        <v>17</v>
+      </c>
+      <c r="H69">
+        <v>18</v>
+      </c>
+      <c r="I69">
+        <v>16</v>
+      </c>
+      <c r="J69">
+        <v>17</v>
+      </c>
+      <c r="K69">
+        <v>17</v>
+      </c>
+      <c r="L69">
+        <v>15</v>
+      </c>
+      <c r="M69">
+        <v>19</v>
+      </c>
+      <c r="N69">
+        <v>19</v>
+      </c>
+      <c r="O69" s="25">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="P69" s="25">
+        <f t="shared" si="6"/>
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B70" s="26">
+        <v>45907</v>
+      </c>
+      <c r="C70">
+        <v>30</v>
+      </c>
+      <c r="D70">
+        <v>32</v>
+      </c>
+      <c r="E70">
+        <v>31</v>
+      </c>
+      <c r="F70">
+        <v>38</v>
+      </c>
+      <c r="G70">
+        <v>37</v>
+      </c>
+      <c r="H70">
+        <v>38</v>
+      </c>
+      <c r="I70">
+        <v>28</v>
+      </c>
+      <c r="J70">
+        <v>31</v>
+      </c>
+      <c r="K70">
+        <v>30</v>
+      </c>
+      <c r="L70">
+        <v>30</v>
+      </c>
+      <c r="M70">
+        <v>33</v>
+      </c>
+      <c r="N70">
+        <v>33</v>
+      </c>
+      <c r="O70" s="25">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="P70" s="25">
+        <f t="shared" si="6"/>
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B71" s="26">
+        <v>45908</v>
+      </c>
+      <c r="C71">
+        <v>29</v>
+      </c>
+      <c r="D71">
+        <v>30</v>
+      </c>
+      <c r="E71">
+        <v>28</v>
+      </c>
+      <c r="F71">
+        <v>29</v>
+      </c>
+      <c r="G71">
+        <v>30</v>
+      </c>
+      <c r="H71">
+        <v>28</v>
+      </c>
+      <c r="I71">
+        <v>26</v>
+      </c>
+      <c r="J71">
+        <v>28</v>
+      </c>
+      <c r="K71">
+        <v>31</v>
+      </c>
+      <c r="L71">
+        <v>28</v>
+      </c>
+      <c r="M71">
+        <v>30</v>
+      </c>
+      <c r="N71">
+        <v>27</v>
+      </c>
+      <c r="O71" s="25">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="P71" s="25">
+        <f t="shared" si="6"/>
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B72" s="26">
+        <v>45909</v>
+      </c>
+      <c r="C72">
+        <v>14</v>
+      </c>
+      <c r="D72">
+        <v>15</v>
+      </c>
+      <c r="E72">
+        <v>15</v>
+      </c>
+      <c r="F72">
+        <v>13</v>
+      </c>
+      <c r="G72">
+        <v>15</v>
+      </c>
+      <c r="H72">
+        <v>15</v>
+      </c>
+      <c r="I72">
+        <v>15</v>
+      </c>
+      <c r="J72">
+        <v>15</v>
+      </c>
+      <c r="K72">
+        <v>14</v>
+      </c>
+      <c r="L72">
+        <v>14</v>
+      </c>
+      <c r="M72">
+        <v>14</v>
+      </c>
+      <c r="N72">
+        <v>15</v>
+      </c>
+      <c r="O72" s="25">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="P72" s="25">
+        <f t="shared" si="6"/>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B73" s="26">
+        <v>45910</v>
+      </c>
+      <c r="C73">
+        <v>20</v>
+      </c>
+      <c r="D73">
+        <v>18</v>
+      </c>
+      <c r="E73">
+        <v>22</v>
+      </c>
+      <c r="F73">
+        <v>20</v>
+      </c>
+      <c r="G73">
+        <v>20</v>
+      </c>
+      <c r="H73">
+        <v>20</v>
+      </c>
+      <c r="I73">
+        <v>20</v>
+      </c>
+      <c r="J73">
+        <v>22</v>
+      </c>
+      <c r="K73">
+        <v>20</v>
+      </c>
+      <c r="L73">
+        <v>19</v>
+      </c>
+      <c r="M73">
+        <v>17</v>
+      </c>
+      <c r="N73">
+        <v>20</v>
+      </c>
+      <c r="O73" s="25">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="P73" s="25">
+        <f t="shared" si="6"/>
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B74" s="26">
+        <v>45911</v>
+      </c>
+      <c r="C74">
+        <v>29</v>
+      </c>
+      <c r="D74">
+        <v>30</v>
+      </c>
+      <c r="E74">
+        <v>30</v>
+      </c>
+      <c r="F74">
+        <v>28</v>
+      </c>
+      <c r="G74">
+        <v>28</v>
+      </c>
+      <c r="H74">
+        <v>28</v>
+      </c>
+      <c r="I74">
+        <v>30</v>
+      </c>
+      <c r="J74">
+        <v>31</v>
+      </c>
+      <c r="K74">
+        <v>31</v>
+      </c>
+      <c r="L74">
+        <v>28</v>
+      </c>
+      <c r="M74">
+        <v>29</v>
+      </c>
+      <c r="N74">
+        <v>30</v>
+      </c>
+      <c r="O74" s="25">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="P74" s="25">
+        <f t="shared" si="6"/>
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B75" s="26">
+        <v>45912</v>
+      </c>
+      <c r="C75">
+        <v>19</v>
+      </c>
+      <c r="D75">
+        <v>21</v>
+      </c>
+      <c r="E75">
+        <v>22</v>
+      </c>
+      <c r="F75">
+        <v>28</v>
+      </c>
+      <c r="G75">
+        <v>22</v>
+      </c>
+      <c r="H75">
+        <v>19</v>
+      </c>
+      <c r="I75">
+        <v>17</v>
+      </c>
+      <c r="J75">
+        <v>18</v>
+      </c>
+      <c r="K75">
+        <v>20</v>
+      </c>
+      <c r="L75">
+        <v>20</v>
+      </c>
+      <c r="M75">
+        <v>18</v>
+      </c>
+      <c r="N75">
+        <v>18</v>
+      </c>
+      <c r="O75" s="25">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="P75" s="25">
+        <f t="shared" si="6"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B76" s="26">
+        <v>45913</v>
+      </c>
+      <c r="C76">
+        <v>21</v>
+      </c>
+      <c r="D76">
+        <v>25</v>
+      </c>
+      <c r="E76">
+        <v>25</v>
+      </c>
+      <c r="F76">
+        <v>26</v>
+      </c>
+      <c r="G76">
+        <v>24</v>
+      </c>
+      <c r="H76">
+        <v>25</v>
+      </c>
+      <c r="I76">
+        <v>24</v>
+      </c>
+      <c r="J76">
+        <v>25</v>
+      </c>
+      <c r="K76">
+        <v>32</v>
+      </c>
+      <c r="L76">
+        <v>28</v>
+      </c>
+      <c r="M76">
+        <v>22</v>
+      </c>
+      <c r="N76">
+        <v>22</v>
+      </c>
+      <c r="O76" s="25">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="P76" s="25">
+        <f t="shared" si="6"/>
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B77" s="26">
+        <v>45914</v>
+      </c>
+      <c r="C77">
+        <v>42</v>
+      </c>
+      <c r="D77">
+        <v>46</v>
+      </c>
+      <c r="E77">
         <v>41</v>
       </c>
-      <c r="C46" s="18">
-        <v>27.52</v>
-      </c>
-      <c r="D46" s="18">
-        <v>24.59</v>
-      </c>
-      <c r="E46" s="18">
-        <v>24.86</v>
-      </c>
-      <c r="F46" s="18">
-        <v>27.74</v>
-      </c>
-      <c r="G46" s="18">
-        <v>25.79</v>
-      </c>
-      <c r="H46" s="22">
-        <v>22.11</v>
-      </c>
-      <c r="I46" s="18">
-        <v>26.54</v>
-      </c>
-      <c r="J46" s="18">
-        <v>26.42</v>
-      </c>
-      <c r="K46" s="18">
-        <v>25.97</v>
-      </c>
-      <c r="L46" s="18">
-        <v>28.76</v>
-      </c>
-      <c r="M46">
-        <v>24.59</v>
-      </c>
-      <c r="N46" s="19">
-        <v>27.75</v>
-      </c>
-      <c r="O46" s="25">
-        <f>ROUND(AVERAGE(C46:N46),2)</f>
-        <v>26.05</v>
-      </c>
-      <c r="P46" s="25">
-        <f t="shared" si="3"/>
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="22" t="s">
+      <c r="F77">
+        <v>60</v>
+      </c>
+      <c r="G77">
+        <v>52</v>
+      </c>
+      <c r="H77">
+        <v>53</v>
+      </c>
+      <c r="I77">
+        <v>54</v>
+      </c>
+      <c r="J77">
+        <v>46</v>
+      </c>
+      <c r="K77">
+        <v>68</v>
+      </c>
+      <c r="L77">
         <v>42</v>
       </c>
-      <c r="C47" s="18">
-        <v>14.88</v>
-      </c>
-      <c r="D47" s="18">
-        <v>15.14</v>
-      </c>
-      <c r="E47" s="18">
-        <v>12.31</v>
-      </c>
-      <c r="F47" s="18">
-        <v>14.96</v>
-      </c>
-      <c r="G47" s="18">
-        <v>14.71</v>
-      </c>
-      <c r="H47" s="22">
-        <v>15.05</v>
-      </c>
-      <c r="I47" s="18">
-        <v>15.04</v>
-      </c>
-      <c r="J47" s="18">
-        <v>14.16</v>
-      </c>
-      <c r="K47" s="18">
+      <c r="M77">
+        <v>44</v>
+      </c>
+      <c r="N77">
+        <v>44</v>
+      </c>
+      <c r="O77" s="25">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="P77" s="25">
+        <f t="shared" si="6"/>
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B78" s="26">
+        <v>45915</v>
+      </c>
+      <c r="C78">
+        <v>16</v>
+      </c>
+      <c r="D78">
+        <v>14</v>
+      </c>
+      <c r="E78">
+        <v>19</v>
+      </c>
+      <c r="F78">
+        <v>19</v>
+      </c>
+      <c r="G78">
+        <v>21</v>
+      </c>
+      <c r="H78">
+        <v>19</v>
+      </c>
+      <c r="I78">
+        <v>18</v>
+      </c>
+      <c r="J78">
+        <v>17</v>
+      </c>
+      <c r="K78">
+        <v>16</v>
+      </c>
+      <c r="L78">
+        <v>19</v>
+      </c>
+      <c r="M78">
+        <v>19</v>
+      </c>
+      <c r="N78">
+        <v>20</v>
+      </c>
+      <c r="O78" s="25">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="P78" s="25">
+        <f t="shared" si="6"/>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B79" s="26">
+        <v>45916</v>
+      </c>
+      <c r="C79">
+        <v>22</v>
+      </c>
+      <c r="D79">
+        <v>21</v>
+      </c>
+      <c r="E79">
+        <v>16</v>
+      </c>
+      <c r="F79">
+        <v>22</v>
+      </c>
+      <c r="G79">
+        <v>25</v>
+      </c>
+      <c r="H79">
+        <v>25</v>
+      </c>
+      <c r="I79">
+        <v>22</v>
+      </c>
+      <c r="J79">
+        <v>16</v>
+      </c>
+      <c r="K79">
+        <v>22</v>
+      </c>
+      <c r="L79">
+        <v>15</v>
+      </c>
+      <c r="M79">
+        <v>19</v>
+      </c>
+      <c r="N79">
+        <v>26</v>
+      </c>
+      <c r="O79" s="25">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="P79" s="25">
+        <f t="shared" si="6"/>
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B80" s="26">
+        <v>45917</v>
+      </c>
+      <c r="C80">
+        <v>18</v>
+      </c>
+      <c r="D80">
+        <v>16</v>
+      </c>
+      <c r="E80">
+        <v>15</v>
+      </c>
+      <c r="F80">
+        <v>16</v>
+      </c>
+      <c r="G80">
+        <v>18</v>
+      </c>
+      <c r="H80">
+        <v>20</v>
+      </c>
+      <c r="I80">
+        <v>15</v>
+      </c>
+      <c r="J80">
+        <v>20</v>
+      </c>
+      <c r="K80">
+        <v>23</v>
+      </c>
+      <c r="L80">
+        <v>18</v>
+      </c>
+      <c r="M80">
+        <v>20</v>
+      </c>
+      <c r="N80">
+        <v>25</v>
+      </c>
+      <c r="O80" s="25">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="P80" s="25">
+        <f t="shared" si="6"/>
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B81" s="26">
+        <v>45918</v>
+      </c>
+      <c r="C81">
+        <v>19</v>
+      </c>
+      <c r="D81">
+        <v>19</v>
+      </c>
+      <c r="E81">
+        <v>20</v>
+      </c>
+      <c r="F81">
+        <v>25</v>
+      </c>
+      <c r="G81">
+        <v>19</v>
+      </c>
+      <c r="H81">
+        <v>21</v>
+      </c>
+      <c r="I81">
+        <v>20</v>
+      </c>
+      <c r="J81">
+        <v>22</v>
+      </c>
+      <c r="K81">
+        <v>20</v>
+      </c>
+      <c r="L81">
+        <v>19</v>
+      </c>
+      <c r="M81">
+        <v>21</v>
+      </c>
+      <c r="N81">
+        <v>22</v>
+      </c>
+      <c r="O81" s="25">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="P81" s="25">
+        <f t="shared" si="6"/>
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B82" s="26">
+        <v>45919</v>
+      </c>
+      <c r="C82">
+        <v>21</v>
+      </c>
+      <c r="D82">
+        <v>17</v>
+      </c>
+      <c r="E82">
+        <v>22</v>
+      </c>
+      <c r="F82">
+        <v>13</v>
+      </c>
+      <c r="G82">
+        <v>18</v>
+      </c>
+      <c r="H82">
+        <v>20</v>
+      </c>
+      <c r="I82">
+        <v>16</v>
+      </c>
+      <c r="J82">
+        <v>16</v>
+      </c>
+      <c r="K82">
+        <v>18</v>
+      </c>
+      <c r="L82">
+        <v>17</v>
+      </c>
+      <c r="M82">
+        <v>18</v>
+      </c>
+      <c r="N82">
+        <v>21</v>
+      </c>
+      <c r="O82" s="25">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="P82" s="25">
+        <f t="shared" si="6"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B83" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" s="37">
+        <v>26.26</v>
+      </c>
+      <c r="D83" s="37">
+        <v>22.91</v>
+      </c>
+      <c r="E83" s="37">
+        <v>25.63</v>
+      </c>
+      <c r="F83" s="37">
+        <v>22.76</v>
+      </c>
+      <c r="G83" s="37">
+        <v>27.14</v>
+      </c>
+      <c r="H83" s="36">
+        <v>25.26</v>
+      </c>
+      <c r="I83" s="37">
+        <v>25</v>
+      </c>
+      <c r="J83" s="37">
+        <v>25.65</v>
+      </c>
+      <c r="K83" s="37">
+        <v>23.97</v>
+      </c>
+      <c r="L83" s="37">
+        <v>24.52</v>
+      </c>
+      <c r="M83" s="37">
+        <v>24.6</v>
+      </c>
+      <c r="N83" s="38">
+        <v>22.82</v>
+      </c>
+      <c r="O83" s="39">
+        <f>ROUND(AVERAGE(C83:N83),2)</f>
+        <v>24.71</v>
+      </c>
+      <c r="P83" s="39">
+        <f>ROUND(_xlfn.STDEV.P(D83:O83),2)</f>
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B84" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" s="18">
+        <v>15.46</v>
+      </c>
+      <c r="D84" s="18">
+        <v>14.74</v>
+      </c>
+      <c r="E84" s="18">
+        <v>15.41</v>
+      </c>
+      <c r="F84" s="18">
+        <v>15.08</v>
+      </c>
+      <c r="G84" s="18">
+        <v>15.59</v>
+      </c>
+      <c r="H84" s="22">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="I84" s="18">
+        <v>16.7</v>
+      </c>
+      <c r="J84" s="18">
         <v>15.51</v>
       </c>
-      <c r="L47" s="18">
-        <v>14.71</v>
-      </c>
-      <c r="M47">
-        <v>14.77</v>
-      </c>
-      <c r="N47" s="19">
-        <v>14.57</v>
-      </c>
-      <c r="O47" s="25">
-        <f>ROUND(AVERAGE(C47:N47),2)</f>
-        <v>14.65</v>
-      </c>
-      <c r="P47" s="25">
-        <f>ROUND(_xlfn.STDEV.P(D47:O47),2)</f>
-        <v>0.77</v>
+      <c r="K84" s="18">
+        <v>16.5</v>
+      </c>
+      <c r="L84" s="18">
+        <v>16</v>
+      </c>
+      <c r="M84" s="18">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="N84" s="19">
+        <v>16.23</v>
+      </c>
+      <c r="O84" s="25">
+        <f>ROUND(AVERAGE(C84:N84),2)</f>
+        <v>15.83</v>
+      </c>
+      <c r="P84" s="25">
+        <f>ROUND(_xlfn.STDEV.P(D84:O84),2)</f>
+        <v>0.57999999999999996</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:N1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C46:L46 N46">
+  <conditionalFormatting sqref="C83:L83 N83">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q30">
+  <conditionalFormatting sqref="Q1:Q37">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/restaurant_analytics/mornings.xlsx
+++ b/restaurant_analytics/mornings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF98534-8F80-420B-80F1-80B7EFC3AD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C69AD41-C258-4237-999D-EF18C4D2C9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33345" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33450" yWindow="2700" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -527,6 +527,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -862,9 +870,9 @@
   </sheetPr>
   <dimension ref="A1:K553"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F503" sqref="F503"/>
+      <selection pane="bottomLeft" activeCell="D507" sqref="D504:D507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14170,7 +14178,7 @@
         <v>45875</v>
       </c>
       <c r="D504" s="16">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E504" s="11">
         <v>77.2</v>
@@ -14183,9 +14191,6 @@
       </c>
       <c r="H504" s="11">
         <v>5.8</v>
-      </c>
-      <c r="J504" s="11">
-        <v>1.97</v>
       </c>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.25">
@@ -14199,7 +14204,7 @@
         <v>45876</v>
       </c>
       <c r="D505" s="16">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E505" s="11">
         <v>79.2</v>
@@ -14212,9 +14217,6 @@
       </c>
       <c r="H505" s="11">
         <v>6.2</v>
-      </c>
-      <c r="J505" s="11">
-        <v>1.55</v>
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.25">
@@ -14228,7 +14230,7 @@
         <v>45877</v>
       </c>
       <c r="D506" s="16">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E506" s="11">
         <v>81.099999999999994</v>
@@ -14241,9 +14243,6 @@
       </c>
       <c r="H506" s="11">
         <v>7.8</v>
-      </c>
-      <c r="J506" s="11">
-        <v>2.1</v>
       </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.25">
@@ -14257,7 +14256,7 @@
         <v>45878</v>
       </c>
       <c r="D507" s="16">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E507" s="11">
         <v>82.2</v>
@@ -14270,9 +14269,6 @@
       </c>
       <c r="H507" s="11">
         <v>9</v>
-      </c>
-      <c r="J507" s="11">
-        <v>2.92</v>
       </c>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.25">
@@ -15493,8 +15489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6638D5E3-C858-457D-8856-EE1DEA6B94D7}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38:P82"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15630,7 +15626,7 @@
         <v>8.7200000000000006</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q37" si="2">O3-A3</f>
+        <f t="shared" ref="Q3:Q41" si="2">O3-A3</f>
         <v>-11</v>
       </c>
     </row>
@@ -17447,56 +17443,66 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="29">
+    <row r="38" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="43">
+        <v>23</v>
+      </c>
+      <c r="B38" s="44">
         <v>45875</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="45">
         <v>28</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="45">
         <v>30</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="45">
         <v>29</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F38" s="45">
         <v>35</v>
       </c>
-      <c r="G38" s="30">
+      <c r="G38" s="45">
         <v>26</v>
       </c>
-      <c r="H38" s="34">
+      <c r="H38" s="46">
         <v>31</v>
       </c>
-      <c r="I38" s="30">
+      <c r="I38" s="45">
         <v>30</v>
       </c>
-      <c r="J38" s="30">
+      <c r="J38" s="45">
         <v>31</v>
       </c>
-      <c r="K38" s="30">
+      <c r="K38" s="45">
         <v>30</v>
       </c>
-      <c r="L38" s="30">
+      <c r="L38" s="45">
         <v>32</v>
       </c>
-      <c r="M38" s="28">
+      <c r="M38" s="43">
         <v>30</v>
       </c>
-      <c r="N38" s="35">
+      <c r="N38" s="47">
         <v>30</v>
       </c>
-      <c r="O38" s="31">
+      <c r="O38" s="48">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="P38" s="31">
+      <c r="P38" s="48">
         <f t="shared" si="3"/>
         <v>1.97</v>
       </c>
+      <c r="Q38">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>24</v>
+      </c>
       <c r="B39" s="26">
         <v>45876</v>
       </c>
@@ -17544,8 +17550,15 @@
         <f t="shared" si="3"/>
         <v>1.55</v>
       </c>
+      <c r="Q39">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>32</v>
+      </c>
       <c r="B40" s="26">
         <v>45877</v>
       </c>
@@ -17593,8 +17606,15 @@
         <f t="shared" si="3"/>
         <v>2.1</v>
       </c>
+      <c r="Q40">
+        <f t="shared" si="2"/>
+        <v>-11</v>
+      </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>33</v>
+      </c>
       <c r="B41" s="26">
         <v>45878</v>
       </c>
@@ -17642,52 +17662,56 @@
         <f t="shared" si="3"/>
         <v>2.92</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B42" s="26">
+      <c r="Q41">
+        <f t="shared" si="2"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="29">
         <v>45879</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="30">
         <v>20</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="30">
         <v>21</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="30">
         <v>18</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="30">
         <v>14</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="30">
         <v>17</v>
       </c>
-      <c r="H42" s="22">
+      <c r="H42" s="34">
         <v>17</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I42" s="30">
         <v>16</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J42" s="30">
         <v>18</v>
       </c>
-      <c r="K42" s="18">
+      <c r="K42" s="30">
         <v>15</v>
       </c>
-      <c r="L42" s="18">
+      <c r="L42" s="30">
         <v>19</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="28">
         <v>17</v>
       </c>
-      <c r="N42" s="19">
+      <c r="N42" s="35">
         <v>19</v>
       </c>
-      <c r="O42" s="25">
+      <c r="O42" s="31">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="P42" s="25">
+      <c r="P42" s="31">
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
@@ -19757,7 +19781,7 @@
   <conditionalFormatting sqref="C83:L83 N83">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q37">
+  <conditionalFormatting sqref="Q1:Q41">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
